--- a/QALD9-Plus-testing/CoT-entity-aligned/CoT-wikidata-dbpedia/CoT_llama_dbpedia_results_analysis.xlsx
+++ b/QALD9-Plus-testing/CoT-entity-aligned/CoT-wikidata-dbpedia/CoT_llama_dbpedia_results_analysis.xlsx
@@ -1,42 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\CoT-entity-aligned\CoT-wikidata-dbpedia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD968A6-327A-46EB-BAEB-35F6545A964F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$101</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="447">
   <si>
     <t>Question</t>
   </si>
   <si>
-    <t>SPARQL Query (Generated)</t>
-  </si>
-  <si>
-    <t>Gold Label Query</t>
-  </si>
-  <si>
-    <t>Gold Label Answers</t>
-  </si>
-  <si>
-    <t>Query Answers</t>
-  </si>
-  <si>
-    <t>Error Message</t>
+    <t>SPARQL_Query_Generated</t>
+  </si>
+  <si>
+    <t>Gold_Label_Query</t>
+  </si>
+  <si>
+    <t>Query_Answers_Generated</t>
+  </si>
+  <si>
+    <t>Gold_Label_Answers</t>
+  </si>
+  <si>
+    <t>Error_Message</t>
   </si>
   <si>
     <t>Correct</t>
   </si>
   <si>
+    <t>Error Category</t>
+  </si>
+  <si>
     <t>Who is the founder of Penguin Books?</t>
   </si>
   <si>
@@ -337,581 +349,304 @@
     <t>Who created Goofy?</t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-SELECT ?o1 WHERE { &lt;http://dbpedia.org/resource/Penguin_Books&gt; &lt;http://dbpedia.org/ontology/founder&gt; ?o1 . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-SELECT ?uri WHERE { ?film &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Stanley_Kubrick&gt; . ?film &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#type&gt; &lt;http://dbpedia.org/ontology/Film&gt; . ?film &lt;http://www.w3.org/2000/01/rdf-schema#isSeeAlso&gt; ?uri . FILTER(STRSTARTS(STR(?film), "http://dbpedia.org/resource/")) }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia_resource: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Musical dbpedia:musicBy dbpedia_resource:Elton_John . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?developer WHERE { dbpedia:Skype wdt:P178 ?developer . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpo: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 ?league . ?league dbpo:name "Bundesliga"@en . FILTER(lang(?league) = 'en') }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?actor WHERE { ?movie dbpedia:director &lt;http://dbpedia.org/resource/William_Shatner&gt; ; dbpedia:starring ?actor . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Mountain dbpedia:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?film) AS ?c) WHERE { ?film dbp:starring &lt;http://dbpedia.org/resource/Leonardo_DiCaprio&gt; . ?film a dbp:Film . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Olof_Palme&gt; &lt;http://dbpedia.org/ontology/deathDate&gt; ?date }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri db:starring &lt;http://dbpedia.org/resource/Elizabeth_Taylor&gt; . ?uri db:starring &lt;http://dbpedia.org/resource/Richard_Burton&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia-ontology:Minecraft dbpedia-ontology:developer ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT DISTINCT ?val WHERE { dbpedia:The_Lego_Movie dbpedia:budget ?val }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia: &lt;http://dbpedia.org/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/&gt; PREFIX wikidata-owl: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?label WHERE { ?album a wikidata:Q482994 . ?album wikidata-owl:P175 &lt;http://dbpedia.org/resource/Elvis_Presley&gt; . ?album wikidata-owl:P577 ?date . ?album wikidata-owl:P264 ?label . FILTER (?date = MIN(?date)) }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { dbo:ToyStory dbo:runtime ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE {?uri db:occupation wikidata:P106 . ?uri db:instrument wikidata:Q8338 . ?uri wikidata:P106 wikidata:Q5280538 . UNION ?uri wikidata:P106 wikidata:Q806349 . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?film WHERE { ?film dbpedia-owl:starring ?starring. ?starring dbpedia-owl:starring ?julia_roberts. ?julia_roberts dbpedia-owl:director ?garry_marshall. ?garry_marshall dbpedia-owl:director ?film. }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?year WHERE { dbpedia:Rachel_Stevens wdt:P569 ?date . BIND(YEAR(?date) as ?year) }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?cause WHERE { SELECT ?cause (COUNT(DISTINCT ?s) AS ?count) WHERE { ?s dbpedia-owl:deathCause ?cause . ?s a ?type . } GROUP BY ?cause } ORDER BY DESC(?count) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?height WHERE { dbpedia-owl:Yokohama_Marine_Tower dbpedia-owl:height ?height . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:locatedInArea db:Italy . ?uri dbpedia:elevation ?elevation . ?uri a dbpedia:Mountain . } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-SELECT DISTINCT ?doctoralAdvisor WHERE { &lt;http://dbpedia.org/resource/Albert_Einstein&gt; &lt;http://dbpedia.org/ontology/doctoralAdvisor&gt; ?doctoralAdvisor . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?owner WHERE { ?owner db:owner dbp:Donald_Trump . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?o1 WHERE { dbpedia:Tom_Cruise wdt:P26 ?o1 . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { dbp:Eurasia db:populationTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia: &lt;http://dbpedia.org/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?author WHERE { ?book a dbo:Book . ?book dbo:author ?author . ?book dbo:abstract ?abstract . &lt;http://dbpedia.org/resource/The_Interpretation_of_Dreams&gt; dbo:author ?author . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { &lt;http://dbpedia.org/resource/John_Adams&gt; db:birthDate ?val }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT ?value WHERE { ?s dbpedia-ontology:populationTotal ?value . FILTER (lang(?value) = 'en') . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?o1 WHERE { &lt;http://dbpedia.org/resource/China&gt; dbpedia-owl:currency ?o1 . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?deathDate WHERE { &lt;http://dbpedia.org/resource/William_Shakespeare&gt; dbpedia-owl:deathDate ?deathDate . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?rocket WHERE { ?rocket a dbpedia-owl:Rocket ; dbpedia-owl:launchSite dbpedia-resource:Baikonur_Cosmodrome . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q131007 dbo:developer ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Company wd:Q4830453 ; dbpedia:industry wd:Q39809 . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Angela_Merkel&gt; &lt;http://dbpedia.org/ontology/almaMater&gt; ?uri . GRAPH &lt;http://dbpedia.org&gt; { ?uri &lt;http://xmlns.com/foaf/0.1/isPrimaryTopicOf&gt; ?dbpedia_uri . } BIND(?dbpedia_uri AS ?uri) }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?type dbpedia-ontology:subclassOf dbpedia-ontology:TelevisionShow . ?uri dbpedia-ontology:starring dbpedia-resource:Neil_Patrick_Harris . ?uri dbpedia-ontology:type ?type . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?film ?movie WHERE { ?film dbo:starring ?movie. ?movie dbo:starring &lt;http://dbpedia.org/resource/Tom_Cruise&gt;. FILTER (?film a dbo:Film). }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?country WHERE { dbpedia:Mount_Everest wdt:P131 ?location . ?location wdt:P17 ?country . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { dbpedia:John_F._Kennedy dbpedia-owl:deathPlace ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Brooklyn_Bridge dbpedia:crosses ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:birthPlace &lt;http://dbpedia.org/ontology/birthPlace&gt; . ?uri dbpedia:birthPlace &lt;http://dbpedia.org/ontology/birthPlace&gt; owl:sameAs &lt;http://www.wikidata.org/entity/P19&gt; . ?uri dbpedia:birthPlace &lt;http://dbpedia.org/resource/Moscow&gt; . ?uri a dbpedia:Swimmer . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?s1 WHERE { ?s1 dbpedia-owl:starring &lt;http://dbpedia.org/resource/Alec_Guinness&gt; . ?s1 dbpedia-owl:film &lt;http://dbpedia.org/ontology/Film&gt; . ?s1 dbpedia-owl:releaseDate ?o1 . } ORDER BY DESC(?o1) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { ?res a dbp:Mountain . ?res dbo:elevation ?elevation . FILTER (?elevation != 'NaN' &amp;&amp; ?elevation != 'unknown') } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { &lt;http://dbpedia.org/resource/Cairo&gt; dbpedia-ontology:populationTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; ?person dbo:birthPlace wd:Q160544 . SELECT ?person</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?uri) as ?c) WHERE { dbp:Benjamin_Franklin db:child ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?elevation WHERE { dbpedia:Airport ?airport . ?airport dbpedia:elevation ?elevation . FILTER(regex(str(?airport), "Düsseldorf_Airport")) }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?country WHERE { ?mecca dbo:location ?country . ?country rdfs:label ?countryLabel . FILTER (lang(?countryLabel) = "en") }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?height WHERE { dbp:Claudia_Schiffer dbpedia:height ?height }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?author WHERE { &lt;http://dbpedia.org/resource/The_Pillars_of_the_Earth&gt; dbpedia:author ?author . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT DISTINCT ?genre WHERE { dbpedia:Lou_Reed dbpedia-ontology:genre ?genre . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?birthPlace WHERE { dbpedia:Frank_Sinatra dbo:birthPlace ?birthPlace. }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri db:City ?population . FILTER (?population = MIN(?population)) } ORDER BY ?population LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:creator &lt;http://dbpedia.org/resource/Walt_Disney&gt; . ?uri a dbo:TelevisionShow . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT ?holiday WHERE { ?holiday a dbpedia:Holiday . ?holiday dbpedia:country wikidata:P17 . ?holiday wikidata:Q34 . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?uri WHERE { dbp:Apple_Inc. dbo:netIncome ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:deathPlace dbr:Ford's_Theatre }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?country ?capital WHERE { ?country dbo:country &lt;http://dbpedia.org/resource/Himalayas&gt; . ?country dbo:capital ?capital . ?country dbo:country ?country . FILTER ( regex(str(?country), "Nepal|India|Tibet") = "true" ) }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-SELECT DISTINCT ?country WHERE { &lt;http://dbpedia.org/resource/Limerick_Lake&gt; &lt;http://dbpedia.org/ontology/country&gt; ?country . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { dbo:Michael_Jordan dbo:height ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:director &lt;http://dbpedia.org/resource/Clint_Eastwood&gt; ; dbpedia-owl:starring &lt;http://dbpedia.org/resource/Clint_Eastwood&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:currency ?currency . ?currency &lt;http://dbpedia.org/resource/West_African_CFA_franc&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { dbo:Iraq dbo:populationTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbp:Holiday . ?uri owl:sameAs wd:Q1445650 . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia-ont: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-ont:PoliticalParty ?party . ?party dbpedia-ont:country dbpedia:Greece . ?party dbpedia-ont:ideology dbpedia:Pro-Europeanism . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-SELECT DISTINCT ?actor ?date WHERE { &lt;http://dbpedia.org/resource/Charmed&gt; &lt;http://dbpedia.org/ontology/starring&gt; ?actor . ?actor &lt;http://dbpedia.org/ontology/birthDate&gt; ?date . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbpedia: The_Three_Dancers dbpedia-owl:author ?painter . ?painter dbpedia-owl:movement ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:Actor . ?uri dbpedia-owl:birthPlace ?birthPlace . ?birthPlace dbpedia-owl:country &lt;http://dbpedia.org/resource/Germany&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri FROM &lt;http://dbpedia.org&gt; WHERE { db:Brooklyn_Bridge dbo:architect ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-SELECT DISTINCT ?composer WHERE { &lt;http://dbpedia.org/resource/Game_of_Thrones&gt; &lt;http://dbpedia.org/ontology/composer&gt; ?composer . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbpedia-owl:Film ; dbpedia-owl:director &lt;http://dbpedia.org/resource/Francis_Ford_Coppola&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT ?name WHERE { dbpedia-resource:Adele dbpedia:birthName ?name . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?album WHERE { ?album a dbpedia:Album . ?album dbpedia:artist &lt;http://dbpedia.org/resource/Queen_(band)&gt; . ?album dbpedia:releaseDate ?date . } ORDER BY ?date LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?currency WHERE { ?country dbpedia-owl:currency ?currency . ?country wikibase:reference &lt;http://dbpedia.org/resource/Czech_Republic&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:birthPlace &lt;http://dbpedia.org/resource/Vienna&gt; . ?uri dbo:deathPlace &lt;http://dbpedia.org/resource/Berlin&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?dbpedia_uri WHERE { ?dbpedia_uri dbpedia-owl:Bridge ; dbpedia-owl:crosses &lt;http://dbpedia.org/resource/Seine&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri (COUNT(?book) AS ?count) WHERE { ?uri a db:Musician . ?x a db:Author ; db:Book ?book . ?uri db:occupation ?occupation . FILTER ( ?occupation = db:occupation ) } GROUP BY ?uri ORDER BY DESC(?count) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/subject&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . ?uri &lt;http://dbpedia.org/ontology/creator&gt; ?creator . ?creator &lt;http://dbpedia.org/ontology/subject&gt; ?uri . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . FILTER (?creator = &lt;http://dbpedia.org/ontology/creator&gt;) } UNION { ?uri &lt;http://dbpedia.org/ontology/subject&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . FILTER (?uri = ?creator) ?creator &lt;http://dbpedia.org/ontology/subject&gt; ?uri . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { ?uri db:Writer . ?uri wdt:P166 wd:Q37922 . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt; &lt;http://dbpedia.org/ontology/discoverer&gt; ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { ?res dbpedia-owl:occupation &lt;http://dbpedia.org/resource/Bandleader&gt; . ?res dbpedia-owl:instrument &lt;http://dbpedia.org/resource/Trumpet&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/BasketballPlayer&gt; &lt;http://dbpedia.org/ontology/height&gt; ?height . FILTER(?height &gt; 200) }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT ?film WHERE { ?film dbpedia-ontology:film ?film_uri . ?film dbpedia-ontology:starring ?starring1 , ?starring2 . ?starring1 dbpedia-ontology:actor &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . ?starring2 dbpedia-ontology:actor &lt;http://dbpedia.org/resource/Richard_Gere&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?o1 WHERE { &lt;http://dbpedia.org/resource/Canada&gt; dbpedia:capital ?o1 . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:birthPlace &lt;http://dbpedia.org/resource/Malta&gt; . ?uri a dbpedia-owl:SoccerPlayer . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Cameroon&gt; &lt;http://dbpedia.org/ontology/capital&gt; ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?sub) AS ?count) WHERE { ?sub db:ProgrammingLanguage ?prop . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Astronaut&gt; . { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Soviet_Union&gt; } UNION { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Russia&gt; } }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Family_Guy&gt; &lt;http://dbpedia.org/ontology/creator&gt; ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?population WHERE { &lt;http://dbpedia.org/resource/Mexico_City&gt; dbpedia-owl:populationTotal ?population . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Batman&gt; dbo:creator ?uri . &lt;http://www.wikidata.org/entity/Q2695156&gt; wdt:P170 ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-SELECT DISTINCT ?number WHERE { &lt;http://dbpedia.org/resource/Australia&gt; &lt;http://dbpedia.org/ontology/capital&gt; ?capital . ?capital &lt;http://dbpedia.org/ontology/populationTotal&gt; ?number . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { dbpedia:North_Rhine-Westphalia dbo:areaTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?numberOfEmployees WHERE { dbr:IBM dbo:numberOfEmployees ?numberOfEmployees . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?budget WHERE { dbpedia:Pulp_Fiction dbpedia:budget ?budget . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Jesse_Eisenberg&gt; . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/Film&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX wkt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?film dbo:country ?country . ?country wkt:SameAs wd:Q35 . ?film wkt:SameAs wd:Q11424 . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?country WHERE { dbpedia-owl:Himalayas dbpedia-owl:country ?country . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Country&gt; . ?uri &lt;http://dbpedia.org/ontology/areaTotal&gt; ?area . } ORDER BY DESC(?area) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { dbp:Angela_Merkel dbp:almaMater ?res . ?res a dbp:University . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
-PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Goofy dbo:creator ?uri . }</t>
+    <t>SELECT ?o1 WHERE { &lt;http://dbpedia.org/resource/Penguin_Books&gt; &lt;http://dbpedia.org/ontology/founder&gt; ?o1 . }</t>
+  </si>
+  <si>
+    <t>SELECT ?uri WHERE { ?film &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Stanley_Kubrick&gt; . ?film &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#type&gt; &lt;http://dbpedia.org/ontology/Film&gt; . ?film &lt;http://www.w3.org/2000/01/rdf-schema#isSeeAlso&gt; ?uri . FILTER(STRSTARTS(STR(?film), "http://dbpedia.org/resource/")) }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia_resource: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Musical dbpedia:musicBy dbpedia_resource:Elton_John . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?developer WHERE { dbpedia:Skype wdt:P178 ?developer . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpo: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 ?league . ?league dbpo:name "Bundesliga"@en . FILTER(lang(?league) = 'en') }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?actor WHERE { ?movie dbpedia:director &lt;http://dbpedia.org/resource/William_Shatner&gt; ; dbpedia:starring ?actor . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Mountain dbpedia:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?film) AS ?c) WHERE { ?film dbp:starring &lt;http://dbpedia.org/resource/Leonardo_DiCaprio&gt; . ?film a dbp:Film . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Olof_Palme&gt; &lt;http://dbpedia.org/ontology/deathDate&gt; ?date }</t>
+  </si>
+  <si>
+    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri db:starring &lt;http://dbpedia.org/resource/Elizabeth_Taylor&gt; . ?uri db:starring &lt;http://dbpedia.org/resource/Richard_Burton&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia-ontology:Minecraft dbpedia-ontology:developer ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT DISTINCT ?val WHERE { dbpedia:The_Lego_Movie dbpedia:budget ?val }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia: &lt;http://dbpedia.org/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/&gt; PREFIX wikidata-owl: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?label WHERE { ?album a wikidata:Q482994 . ?album wikidata-owl:P175 &lt;http://dbpedia.org/resource/Elvis_Presley&gt; . ?album wikidata-owl:P577 ?date . ?album wikidata-owl:P264 ?label . FILTER (?date = MIN(?date)) }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { dbo:ToyStory dbo:runtime ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE {?uri db:occupation wikidata:P106 . ?uri db:instrument wikidata:Q8338 . ?uri wikidata:P106 wikidata:Q5280538 . UNION ?uri wikidata:P106 wikidata:Q806349 . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?film WHERE { ?film dbpedia-owl:starring ?starring. ?starring dbpedia-owl:starring ?julia_roberts. ?julia_roberts dbpedia-owl:director ?garry_marshall. ?garry_marshall dbpedia-owl:director ?film. }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?year WHERE { dbpedia:Rachel_Stevens wdt:P569 ?date . BIND(YEAR(?date) as ?year) }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?cause WHERE { SELECT ?cause (COUNT(DISTINCT ?s) AS ?count) WHERE { ?s dbpedia-owl:deathCause ?cause . ?s a ?type . } GROUP BY ?cause } ORDER BY DESC(?count) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?height WHERE { dbpedia-owl:Yokohama_Marine_Tower dbpedia-owl:height ?height . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:locatedInArea db:Italy . ?uri dbpedia:elevation ?elevation . ?uri a dbpedia:Mountain . } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?doctoralAdvisor WHERE { &lt;http://dbpedia.org/resource/Albert_Einstein&gt; &lt;http://dbpedia.org/ontology/doctoralAdvisor&gt; ?doctoralAdvisor . }</t>
+  </si>
+  <si>
+    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?owner WHERE { ?owner db:owner dbp:Donald_Trump . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?o1 WHERE { dbpedia:Tom_Cruise wdt:P26 ?o1 . }</t>
+  </si>
+  <si>
+    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { dbp:Eurasia db:populationTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia: &lt;http://dbpedia.org/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?author WHERE { ?book a dbo:Book . ?book dbo:author ?author . ?book dbo:abstract ?abstract . &lt;http://dbpedia.org/resource/The_Interpretation_of_Dreams&gt; dbo:author ?author . }</t>
+  </si>
+  <si>
+    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { &lt;http://dbpedia.org/resource/John_Adams&gt; db:birthDate ?val }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT ?value WHERE { ?s dbpedia-ontology:populationTotal ?value . FILTER (lang(?value) = 'en') . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?o1 WHERE { &lt;http://dbpedia.org/resource/China&gt; dbpedia-owl:currency ?o1 . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?deathDate WHERE { &lt;http://dbpedia.org/resource/William_Shakespeare&gt; dbpedia-owl:deathDate ?deathDate . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?rocket WHERE { ?rocket a dbpedia-owl:Rocket ; dbpedia-owl:launchSite dbpedia-resource:Baikonur_Cosmodrome . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q131007 dbo:developer ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Company wd:Q4830453 ; dbpedia:industry wd:Q39809 . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Angela_Merkel&gt; &lt;http://dbpedia.org/ontology/almaMater&gt; ?uri . GRAPH &lt;http://dbpedia.org&gt; { ?uri &lt;http://xmlns.com/foaf/0.1/isPrimaryTopicOf&gt; ?dbpedia_uri . } BIND(?dbpedia_uri AS ?uri) }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?type dbpedia-ontology:subclassOf dbpedia-ontology:TelevisionShow . ?uri dbpedia-ontology:starring dbpedia-resource:Neil_Patrick_Harris . ?uri dbpedia-ontology:type ?type . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?film ?movie WHERE { ?film dbo:starring ?movie. ?movie dbo:starring &lt;http://dbpedia.org/resource/Tom_Cruise&gt;. FILTER (?film a dbo:Film). }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?country WHERE { dbpedia:Mount_Everest wdt:P131 ?location . ?location wdt:P17 ?country . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { dbpedia:John_F._Kennedy dbpedia-owl:deathPlace ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Brooklyn_Bridge dbpedia:crosses ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:birthPlace &lt;http://dbpedia.org/ontology/birthPlace&gt; . ?uri dbpedia:birthPlace &lt;http://dbpedia.org/ontology/birthPlace&gt; owl:sameAs &lt;http://www.wikidata.org/entity/P19&gt; . ?uri dbpedia:birthPlace &lt;http://dbpedia.org/resource/Moscow&gt; . ?uri a dbpedia:Swimmer . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?s1 WHERE { ?s1 dbpedia-owl:starring &lt;http://dbpedia.org/resource/Alec_Guinness&gt; . ?s1 dbpedia-owl:film &lt;http://dbpedia.org/ontology/Film&gt; . ?s1 dbpedia-owl:releaseDate ?o1 . } ORDER BY DESC(?o1) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { ?res a dbp:Mountain . ?res dbo:elevation ?elevation . FILTER (?elevation != 'NaN' &amp;&amp; ?elevation != 'unknown') } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { &lt;http://dbpedia.org/resource/Cairo&gt; dbpedia-ontology:populationTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; ?person dbo:birthPlace wd:Q160544 . SELECT ?person</t>
+  </si>
+  <si>
+    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?uri) as ?c) WHERE { dbp:Benjamin_Franklin db:child ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?elevation WHERE { dbpedia:Airport ?airport . ?airport dbpedia:elevation ?elevation . FILTER(regex(str(?airport), "Düsseldorf_Airport")) }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?country WHERE { ?mecca dbo:location ?country . ?country rdfs:label ?countryLabel . FILTER (lang(?countryLabel) = "en") }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?height WHERE { dbp:Claudia_Schiffer dbpedia:height ?height }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?author WHERE { &lt;http://dbpedia.org/resource/The_Pillars_of_the_Earth&gt; dbpedia:author ?author . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT DISTINCT ?genre WHERE { dbpedia:Lou_Reed dbpedia-ontology:genre ?genre . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?birthPlace WHERE { dbpedia:Frank_Sinatra dbo:birthPlace ?birthPlace. }</t>
+  </si>
+  <si>
+    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri db:City ?population . FILTER (?population = MIN(?population)) } ORDER BY ?population LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:creator &lt;http://dbpedia.org/resource/Walt_Disney&gt; . ?uri a dbo:TelevisionShow . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT ?holiday WHERE { ?holiday a dbpedia:Holiday . ?holiday dbpedia:country wikidata:P17 . ?holiday wikidata:Q34 . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?uri WHERE { dbp:Apple_Inc. dbo:netIncome ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:deathPlace dbr:Ford's_Theatre }</t>
+  </si>
+  <si>
+    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?country ?capital WHERE { ?country dbo:country &lt;http://dbpedia.org/resource/Himalayas&gt; . ?country dbo:capital ?capital . ?country dbo:country ?country . FILTER ( regex(str(?country), "Nepal|India|Tibet") = "true" ) }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?country WHERE { &lt;http://dbpedia.org/resource/Limerick_Lake&gt; &lt;http://dbpedia.org/ontology/country&gt; ?country . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { dbo:Michael_Jordan dbo:height ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:director &lt;http://dbpedia.org/resource/Clint_Eastwood&gt; ; dbpedia-owl:starring &lt;http://dbpedia.org/resource/Clint_Eastwood&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:currency ?currency . ?currency &lt;http://dbpedia.org/resource/West_African_CFA_franc&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { dbo:Iraq dbo:populationTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbp:Holiday . ?uri owl:sameAs wd:Q1445650 . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia-ont: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-ont:PoliticalParty ?party . ?party dbpedia-ont:country dbpedia:Greece . ?party dbpedia-ont:ideology dbpedia:Pro-Europeanism . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?actor ?date WHERE { &lt;http://dbpedia.org/resource/Charmed&gt; &lt;http://dbpedia.org/ontology/starring&gt; ?actor . ?actor &lt;http://dbpedia.org/ontology/birthDate&gt; ?date . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbpedia: The_Three_Dancers dbpedia-owl:author ?painter . ?painter dbpedia-owl:movement ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:Actor . ?uri dbpedia-owl:birthPlace ?birthPlace . ?birthPlace dbpedia-owl:country &lt;http://dbpedia.org/resource/Germany&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri FROM &lt;http://dbpedia.org&gt; WHERE { db:Brooklyn_Bridge dbo:architect ?uri . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?composer WHERE { &lt;http://dbpedia.org/resource/Game_of_Thrones&gt; &lt;http://dbpedia.org/ontology/composer&gt; ?composer . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbpedia-owl:Film ; dbpedia-owl:director &lt;http://dbpedia.org/resource/Francis_Ford_Coppola&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT ?name WHERE { dbpedia-resource:Adele dbpedia:birthName ?name . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?album WHERE { ?album a dbpedia:Album . ?album dbpedia:artist &lt;http://dbpedia.org/resource/Queen_(band)&gt; . ?album dbpedia:releaseDate ?date . } ORDER BY ?date LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?currency WHERE { ?country dbpedia-owl:currency ?currency . ?country wikibase:reference &lt;http://dbpedia.org/resource/Czech_Republic&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:birthPlace &lt;http://dbpedia.org/resource/Vienna&gt; . ?uri dbo:deathPlace &lt;http://dbpedia.org/resource/Berlin&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?dbpedia_uri WHERE { ?dbpedia_uri dbpedia-owl:Bridge ; dbpedia-owl:crosses &lt;http://dbpedia.org/resource/Seine&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri (COUNT(?book) AS ?count) WHERE { ?uri a db:Musician . ?x a db:Author ; db:Book ?book . ?uri db:occupation ?occupation . FILTER ( ?occupation = db:occupation ) } GROUP BY ?uri ORDER BY DESC(?count) LIMIT 1</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/subject&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . ?uri &lt;http://dbpedia.org/ontology/creator&gt; ?creator . ?creator &lt;http://dbpedia.org/ontology/subject&gt; ?uri . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . FILTER (?creator = &lt;http://dbpedia.org/ontology/creator&gt;) } UNION { ?uri &lt;http://dbpedia.org/ontology/subject&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . FILTER (?uri = ?creator) ?creator &lt;http://dbpedia.org/ontology/subject&gt; ?uri . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { ?uri db:Writer . ?uri wdt:P166 wd:Q37922 . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt; &lt;http://dbpedia.org/ontology/discoverer&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { ?res dbpedia-owl:occupation &lt;http://dbpedia.org/resource/Bandleader&gt; . ?res dbpedia-owl:instrument &lt;http://dbpedia.org/resource/Trumpet&gt; . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/BasketballPlayer&gt; &lt;http://dbpedia.org/ontology/height&gt; ?height . FILTER(?height &gt; 200) }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT ?film WHERE { ?film dbpedia-ontology:film ?film_uri . ?film dbpedia-ontology:starring ?starring1 , ?starring2 . ?starring1 dbpedia-ontology:actor &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . ?starring2 dbpedia-ontology:actor &lt;http://dbpedia.org/resource/Richard_Gere&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?o1 WHERE { &lt;http://dbpedia.org/resource/Canada&gt; dbpedia:capital ?o1 . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:birthPlace &lt;http://dbpedia.org/resource/Malta&gt; . ?uri a dbpedia-owl:SoccerPlayer . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Cameroon&gt; &lt;http://dbpedia.org/ontology/capital&gt; ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?sub) AS ?count) WHERE { ?sub db:ProgrammingLanguage ?prop . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Astronaut&gt; . { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Soviet_Union&gt; } UNION { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Russia&gt; } }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Family_Guy&gt; &lt;http://dbpedia.org/ontology/creator&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?population WHERE { &lt;http://dbpedia.org/resource/Mexico_City&gt; dbpedia-owl:populationTotal ?population . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Batman&gt; dbo:creator ?uri . &lt;http://www.wikidata.org/entity/Q2695156&gt; wdt:P170 ?uri . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?number WHERE { &lt;http://dbpedia.org/resource/Australia&gt; &lt;http://dbpedia.org/ontology/capital&gt; ?capital . ?capital &lt;http://dbpedia.org/ontology/populationTotal&gt; ?number . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { dbpedia:North_Rhine-Westphalia dbo:areaTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?numberOfEmployees WHERE { dbr:IBM dbo:numberOfEmployees ?numberOfEmployees . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?budget WHERE { dbpedia:Pulp_Fiction dbpedia:budget ?budget . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Jesse_Eisenberg&gt; . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/Film&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX wkt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?film dbo:country ?country . ?country wkt:SameAs wd:Q35 . ?film wkt:SameAs wd:Q11424 . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?country WHERE { dbpedia-owl:Himalayas dbpedia-owl:country ?country . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Country&gt; . ?uri &lt;http://dbpedia.org/ontology/areaTotal&gt; ?area . } ORDER BY DESC(?area) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { dbp:Angela_Merkel dbp:almaMater ?res . ?res a dbp:University . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Goofy dbo:creator ?uri . }</t>
   </si>
   <si>
     <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { res:Penguin_Books dbo:founder ?uri }</t>
@@ -938,9 +673,6 @@
     <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a &lt;http://dbpedia.org/ontology/Film&gt; ; &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Leonardo_DiCaprio&gt; }</t>
   </si>
   <si>
-    <t>SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Olof_Palme&gt; &lt;http://dbpedia.org/ontology/deathDate&gt; ?date }</t>
-  </si>
-  <si>
     <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Elizabeth_Taylor&gt; ; &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Richard_Burton&gt; }</t>
   </si>
   <si>
@@ -1217,6 +949,138 @@
     <t>['http://dbpedia.org/resource/Allen_Lane']</t>
   </si>
   <si>
+    <t>['No answer']</t>
+  </si>
+  <si>
+    <t>['Query failed']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/DeForest_Kelley', 'http://dbpedia.org/resource/George_Takei', 'http://dbpedia.org/resource/James_Doohan', 'http://dbpedia.org/resource/Leonard_Nimoy', 'http://dbpedia.org/resource/Nichelle_Nichols', 'http://dbpedia.org/resource/Walter_Koenig', 'http://dbpedia.org/resource/William_Shatner']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['1986-02-28']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Love_You_Baba']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Execution_by_hanging']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Mont_Blanc']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/GoTrump.com', 'http://dbpedia.org/resource/The_Trump_Organization', 'http://dbpedia.org/resource/Trump_Model_Management']</t>
+  </si>
+  <si>
+    <t>['5360351985']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
+  </si>
+  <si>
+    <t>['1735-10-30']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Renminbi']</t>
+  </si>
+  <si>
+    <t>['1616-04-23']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Dnepr_(rocket)', 'http://dbpedia.org/resource/Energia_(rocket)', 'http://dbpedia.org/resource/Irtysh_(rocket)', 'http://dbpedia.org/resource/Kosmos_3_(rocket)', 'http://dbpedia.org/resource/Kosmos-1', 'http://dbpedia.org/resource/Molniya_(rocket)', 'http://dbpedia.org/resource/Molniya-M', 'http://dbpedia.org/resource/N1_(rocket)', 'http://dbpedia.org/resource/Polyot_(rocket)__Polyot_11A59__1', 'http://dbpedia.org/resource/Proton_(rocket_family)', 'http://dbpedia.org/resource/Proton-K', 'http://dbpedia.org/resource/Proton-M', 'http://dbpedia.org/resource/R-7A_Semyorka', 'http://dbpedia.org/resource/Rokot', 'http://dbpedia.org/resource/Soyuz_(rocket_family)', 'http://dbpedia.org/resource/Soyuz_(rocket)', 'http://dbpedia.org/resource/Soyuz-2', 'http://dbpedia.org/resource/Soyuz-FG', 'http://dbpedia.org/resource/Soyuz-L', 'http://dbpedia.org/resource/Soyuz-U', 'http://dbpedia.org/resource/Soyuz-U2', 'http://dbpedia.org/resource/Soyuz/Vostok', 'http://dbpedia.org/resource/Sputnik_(rocket)__Sputnik_727__1', 'http://dbpedia.org/resource/Strela_(rocket)', 'http://dbpedia.org/resource/Tsyklon-2', 'http://dbpedia.org/resource/Tsyklon', 'http://dbpedia.org/resource/Voskhod_(rocket)', 'http://dbpedia.org/resource/Vostok_(rocket_family)', 'http://dbpedia.org/resource/Vostok-2_(rocket)', 'http://dbpedia.org/resource/Vostok-2M', 'http://dbpedia.org/resource/Vostok-K', 'http://dbpedia.org/resource/Vostok-L', 'http://dbpedia.org/resource/Zenit_(rocket_family)', 'http://dbpedia.org/resource/Zenit-2', 'http://dbpedia.org/resource/Zenit-2M', 'http://dbpedia.org/resource/Zenit-3F', 'http://dbpedia.org/resource/Zenit-3SLB']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Dallas']</t>
+  </si>
+  <si>
+    <t>['10100166']</t>
+  </si>
+  <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>["http://dbpedia.org/resource/'Asir_Province", "http://dbpedia.org/resource/'Asir_Region", "http://dbpedia.org/resource/'s_Hertogenbosch", "http://dbpedia.org/resource/'s-Heerenberg", "http://dbpedia.org/resource/'s-Hertogenbosch", 'http://dbpedia.org/resource/1_Treasury_Place', 'http://dbpedia.org/resource/1_William_Street,_Brisbane', 'http://dbpedia.org/resource/10_Hudson_Yards', 'http://dbpedia.org/resource/10_Peel_Centre_Drive', 'http://dbpedia.org/resource/10_Toronto_Street', 'http://dbpedia.org/resource/10_Universal_City_Plaza', 'http://dbpedia.org/resource/10_Upper_Bank_Street', 'http://dbpedia.org/resource/100_East_Bay_Street', 'http://dbpedia.org/resource/100_East_Pratt_Street', 'http://dbpedia.org/resource/100_Federal_Street', 'http://dbpedia.org/resource/100_Mile_House,_British_Columbia', 'http://dbpedia.org/resource/100_Mile_House', 'http://dbpedia.org/resource/100_Parliament_Street', 'http://dbpedia.org/resource/101_California_Street', 'http://dbpedia.org/resource/101_Collins_Street', 'http://dbpedia.org/resource/101_Park_Avenue', 'http://dbpedia.org/resource/101_Second_Street', 'http://dbpedia.org/resource/102_Petty_France', 'http://dbpedia.org/resource/105_Mile_House', 'http://dbpedia.org/resource/1060_Fulton_Mall', 'http://dbpedia.org/resource/108_Mile_Ranch,_British_Columbia', 'http://dbpedia.org/resource/108_Mile_Ranch', 'http://dbpedia.org/resource/109_Street,_Edmonton', 'http://dbpedia.org/resource/10th_arrondissement_of_Paris', 'http://dbpedia.org/resource/10th_Avenue_(Manhattan)', 'http://dbpedia.org/resource/11_June_Stadium', 'http://dbpedia.org/resource/11_Stanwix_Street', 'http://dbpedia.org/resource/1109_Fifth_Avenue', 'http://dbpedia.org/resource/110th_Street_(Manhattan)', 'http://dbpedia.org/resource/111_Huntington_Avenue', 'http://dbpedia.org/resource/1166_(building)', 'http://dbpedia.org/resource/1166_Avenue_of_the_Americas', 'http://dbpedia.org/resource/11th_arrondissement_of_Paris', 'http://dbpedia.org/resource/11th_Avenue_(Manhattan)', 'http://dbpedia.org/resource/12_Endeavour_Square', 'http://dbpedia.org/resource/120_Broadway', 'http://dbpedia.org/resource/1201_Pennsylvania_Avenue', 'http://dbpedia.org/resource/1211_Avenue_of_the_Americas', 'http://dbpedia.org/resource/122_Leadenhall_Street', 'http://dbpedia.org/resource/123rd_Street_(Manhattan)', 'http://dbpedia.org/resource/124_Horseferry_Road', 'http://dbpedia.org/resource/1251_Avenue_of_the_Americas', 'http://dbpedia.org/resource/1271_Avenue_of_the_Americas', 'http://dbpedia.org/resource/12th_arrondissement_of_Paris', 'http://dbpedia.org/resource/130_West_42nd_Street', 'http://dbpedia.org/resource/1310_G_Street', 'http://dbpedia.org/resource/1333_H_Street', 'http://dbpedia.org/resource/1345_Avenue_of_the_Americas', 'http://dbpedia.org/resource/13th_arrondissement_of_Paris', 'http://dbpedia.org/resource/14_Wall_Street', 'http://dbpedia.org/resource/140_Broadway', 'http://dbpedia.org/resource/140_St_Georges_Terrace', 'http://dbpedia.org/resource/1430_K_Street', 'http://dbpedia.org/resource/14th_arrondissement_of_Paris', 'http://dbpedia.org/resource/14th_Street_(Manhattan)', 'http://dbpedia.org/resource/14th_Street_(Washington,_D.C.)', 'http://dbpedia.org/resource/14th_Street_Northwest_and_Southwest_(Washington,_D.C.)', 'http://dbpedia.org/resource/15_Westferry_Circus', 'http://dbpedia.org/resource/1500_Broadway', 'http://dbpedia.org/resource/1501_Broadway', 'http://dbpedia.org/resource/151_North_Franklin', 'http://dbpedia.org/resource/155th_Street_(Manhattan)', 'http://dbpedia.org/resource/15th_arrondissement_of_Paris', 'http://dbpedia.org/resource/15th_Street_(Manhattan)', 'http://dbpedia.org/resource/16_Collyer_Quay', 'http://dbpedia.org/resource/160_Tooley_Street', 'http://dbpedia.org/resource/160th_Street_(Manhattan)', 'http://dbpedia.org/resource/162nd_Street_(Manhattan)', 'http://dbpedia.org/resource/16th_arrondissement_of_Paris', 'http://dbpedia.org/resource/16th_district_of_Budapest', 'http://dbpedia.org/resource/16th_Street_(Manhattan)', 'http://dbpedia.org/resource/16th_Street_(Washington,_D.C.)', 'http://dbpedia.org/resource/16th_Street_Northwest_(Washington,_D.C.)', 'http://dbpedia.org/resource/16th_Street_Northwest', 'http://dbpedia.org/resource/16th_Street_NW_(Washington,_D.C.)', 'http://dbpedia.org/resource/16th_Street_NW', 'http://dbpedia.org/resource/17_State_Street', 'http://dbpedia.org/resource/17th_arrondissement_of_Paris', 'http://dbpedia.org/resource/17th_Street_(Manhattan)', 'http://dbpedia.org/resource/17th_Street_(Washington,_D.C.)', 'http://dbpedia.org/resource/18_de_Julio_Avenue', 'http://dbpedia.org/resource/180_Montgomery_Street', 'http://dbpedia.org/resource/181_West_Madison_Street', 'http://dbpedia.org/resource/18th_and_Vine_Historic_District', 'http://dbpedia.org/resource/18th_arrondissement_of_Paris', 'http://dbpedia.org/resource/18th_arrondissement', 'http://dbpedia.org/resource/19_Court_Street', 'http://dbpedia.org/resource/1900_Avenue_of_the_Stars', 'http://dbpedia.org/resource/191_North_Wacker', "http://dbpedia.org/resource/1964_New_York_World's_Fair", 'http://dbpedia.org/resource/1981_McGill_College', "http://dbpedia.org/resource/1991–92_Ohio_Bobcats_men's_basketball_team", 'http://dbpedia.org/resource/19th_arrondissement_of_Paris', 'http://dbpedia.org/resource/19th_Street_(Manhattan)', 'http://dbpedia.org/resource/1st_arrondissement_of_Lyon', 'http://dbpedia.org/resource/1st_arrondissement_of_Marseille', 'http://dbpedia.org/resource/1st_arrondissement_of_Paris', 'http://dbpedia.org/resource/1st_Mariner_Arena', 'http://dbpedia.org/resource/1stBank_Center', 'http://dbpedia.org/resource/1STBANK_Center', 'http://dbpedia.org/resource/2_Columbus_Circle', 'http://dbpedia.org/resource/2_High_Street,_Perth', 'http://dbpedia.org/resource/2_Marsham_Street', 'http://dbpedia.org/resource/20_August_1955_Stadium', 'http://dbpedia.org/resource/200_Fifth_Avenue', 'http://dbpedia.org/resource/200_Vesey_Street', 'http://dbpedia.org/resource/200_West_Street', 'http://dbpedia.org/resource/2006_Dakar_Rally', 'http://dbpedia.org/resource/201_Portage', 'http://dbpedia.org/resource/2013_Seve_Trophy', 'http://dbpedia.org/resource/2021_Ryder_Cup', 'http://dbpedia.org/resource/2022_LPGA_Tour', "http://dbpedia.org/resource/2022_U.S._Women's_Open", 'http://dbpedia.org/resource/20th_arrondissement_of_Paris', 'http://dbpedia.org/resource/20th_Century_Fox_Television', 'http://dbpedia.org/resource/20th_Century_Fox', 'http://dbpedia.org/resource/20th_Street_(Manhattan)', 'http://dbpedia.org/resource/20th-Century_Fox', 'http://dbpedia.org/resource/21st_Street_(Manhattan)', 'http://dbpedia.org/resource/224_West_57th_Street', 'http://dbpedia.org/resource/225_Bush_Street', 'http://dbpedia.org/resource/225_Liberty_Street', 'http://dbpedia.org/resource/22nd_Street_(Manhattan)', 'http://dbpedia.org/resource/22nd_Street_(Saskatoon)', 'http://dbpedia.org/resource/230_Park_Avenue', 'http://dbpedia.org/resource/2300_Arena', 'http://dbpedia.org/resource/23rd_Regiment_Armory', 'http://dbpedia.org/resource/23rd_Street_(Manhattan)', 'http://dbpedia.org/resource/245_Park_Avenue', 'http://dbpedia.org/resource/25_Cabot_Square', 'http://dbpedia.org/resource/25_Canada_Square', 'http://dbpedia.org/resource/25_North_Colonnade', 'http://dbpedia.org/resource/250_Greenwich_Street', 'http://dbpedia.org/resource/250_Richmond_Street_West', 'http://dbpedia.org/resource/250_Vesey_Street', 'http://dbpedia.org/resource/25th_Street_(Manhattan)', 'http://dbpedia.org/resource/26th_Street_(Manhattan)', 'http://dbpedia.org/resource/277_Park_Avenue', 'http://dbpedia.org/resource/28_Liberty_Street', 'http://dbpedia.org/resource/28_State_Street', 'http://dbpedia.org/resource/299_Queen_Street_West', 'http://dbpedia.org/resource/29th_Street_(Manhattan)', 'http://dbpedia.org/resource/2nd_arrondissement_of_Lyon', 'http://dbpedia.org/resource/2nd_arrondissement_of_Paris', 'http://dbpedia.org/resource/3_Mills_Studios', 'http://dbpedia.org/resource/3_World_Trade_Center', 'http://dbpedia.org/resource/30_Hudson_Yards', 'http://dbpedia.org/resource/30_June_Stadium', 'http://dbpedia.org/resource/30_North_LaSalle', 'http://dbpedia.org/resource/30_Rockefeller_Center', 'http://dbpedia.org/resource/30_Rockefeller_Plaza', 'http://dbpedia.org/resource/30_St_Mary_Axe', 'http://dbpedia.org/resource/300_North_LaSalle', 'http://dbpedia.org/resource/30th_Street_(Manhattan)', 'http://dbpedia.org/resource/345_Park_Avenue', 'http://dbpedia.org/resource/34th_Street_(Manhattan)', 'http://dbpedia.org/resource/353_North_Clark', 'http://dbpedia.org/resource/36th_Street_(Manhattan)', 'http://dbpedia.org/resource/385_Bourke_Street', 'http://dbpedia.org/resource/399_Park_Avenue', 'http://dbpedia.org/resource/3Arena', 'http://dbpedia.org/resource/3rd_arrondissement_of_Lyon', 'http://dbpedia.org/resource/3rd_arrondissement_of_Paris', 'http://dbpedia.org/resource/3rd_Circle', 'http://dbpedia.org/resource/3rd_Street_(Manhattan)', 'http://dbpedia.org/resource/4_Hamilton_Place', 'http://dbpedia.org/resource/4_World_Trade_Center', 'http://dbpedia.org/resource/40_Wall_Street', 'http://dbpedia.org/resource/40_Watt_Club', 'http://dbpedia.org/resource/400_George_Street', 'http://dbpedia.org/resource/40th_Street_(Manhattan)', 'http://dbpedia.org/resource/42_Wall_Street', 'http://dbpedia.org/resource/42nd_Street_(Manhattan)', 'http://dbpedia.org/resource/450_Lexington_Avenue', 'http://dbpedia.org/resource/46th_Street_(Manhattan)', 'http://dbpedia.org/resource/48_Wall_Street', 'http://dbpedia.org/resource/48th_Street_(Manhattan)', 'http://dbpedia.org/resource/4th_arrondissement_of_Lyon', 'http://dbpedia.org/resource/4th_arrondissement_of_Paris', 'http://dbpedia.org/resource/4th_Ring_Road_(Beijing)', 'http://dbpedia.org/resource/4th_Street_(Manhattan)', 'http://dbpedia.org/resource/500_Boylston_Street', 'http://dbpedia.org/resource/500_Park_Avenue', 'http://dbpedia.org/resource/505_(Nashville)', 'http://dbpedia.org/resource/50th_Street_(Manhattan)', 'http://dbpedia.org/resource/52nd_Street_(Manhattan)', 'http://dbpedia.org/resource/53rd_Street_(Manhattan)', 'http://dbpedia.org/resource/53rd_Street', 'http://dbpedia.org/resource/55_Baker_Street', 'http://dbpedia.org/resource/55_Tufton_Street', 'http://dbpedia.org/resource/55_Water_Street', 'http://dbpedia.org/resource/555_California_Street', 'http://dbpedia.org/resource/555_Mission_Street', 'http://dbpedia.org/resource/55th_Street_(Manhattan)', 'http://dbpedia.org/resource/57th_Street_(Manhattan)', 'http://dbpedia.org/resource/590_Madison_Avenue', 'http://dbpedia.org/resource/595_Market_Street', 'http://dbpedia.org/resource/599_Lexington_Avenue', 'http://dbpedia.org/resource/59th_Street_(Manhattan)', 'http://dbpedia.org/resource/5th_arrondissement_of_Lyon', 'http://dbpedia.org/resource/5th_arrondissement_of_Paris', 'http://dbpedia.org/resource/5th_Avenue_(Manhattan)', 'http://dbpedia.org/resource/601_Lexington_Avenue', 'http://dbpedia.org/resource/61st_Street_(Manhattan)', 'http://dbpedia.org/resource/62nd_Street_(Manhattan)', 'http://dbpedia.org/resource/63_Building', 'http://dbpedia.org/resource/666_(number)', 'http://dbpedia.org/resource/66th_Street_(Manhattan)', 'http://dbpedia.org/resource/68th_Street_(Manhattan)', 'http://dbpedia.org/resource/69th_Regiment_Armory', 'http://dbpedia.org/resource/6th_arrondissement_of_Lyon', 'http://dbpedia.org/resource/6th_arrondissement_of_Paris', 'http://dbpedia.org/resource/6th_Avenue_(Manhattan)', 'http://dbpedia.org/resource/6th_October_City', 'http://dbpedia.org/resource/6th_of_October_(city)', 'http://dbpedia.org/resource/6th_of_October_City', 'http://dbpedia.org/resource/6th_of_October_Governorate', 'http://dbpedia.org/resource/6th_of_October_Sports_Hall', 'http://dbpedia.org/resource/6th_Street_(Manhattan)', 'http://dbpedia.org/resource/7_World_Trade_Center', 'http://dbpedia.org/resource/700th_Anniversary_Stadium', 'http://dbpedia.org/resource/70th_Street_(Manhattan)', 'http://dbpedia.org/resource/712_5th_Avenue', 'http://dbpedia.org/resource/712_Fifth_Avenue', 'http://dbpedia.org/resource/72nd_Street_(Manhattan)', 'http://dbpedia.org/resource/731_Lexington_Avenue', 'http://dbpedia.org/resource/74th_Street_(Manhattan)', 'http://dbpedia.org/resource/75_State_Street', 'http://dbpedia.org/resource/75006', 'http://dbpedia.org/resource/767_Fifth_Avenue', 'http://dbpedia.org/resource/77_West_Wacker_Drive', 'http://dbpedia.org/resource/77th_Street_(Manhattan)', 'http://dbpedia.org/resource/798_Art_Zone', 'http://dbpedia.org/resource/7mate', 'http://dbpedia.org/resource/7th_arrondissement_of_Lyon', 'http://dbpedia.org/resource/7th_arrondissement_of_Paris', 'http://dbpedia.org/resource/7th_District_Police_Station', 'http://dbpedia.org/resource/7th_Street_(Los_Angeles)', 'http://dbpedia.org/resource/7th_Street_(Manhattan)', 'http://dbpedia.org/resource/7th_Street_(Washington,_D.C.)', 'http://dbpedia.org/resource/7Two', 'http://dbpedia.org/resource/8_Canada_Square', 'http://dbpedia.org/resource/80th_Birthday_Stadium', 'http://dbpedia.org/resource/826_Valencia', 'http://dbpedia.org/resource/826CHI', 'http://dbpedia.org/resource/826LA', 'http://dbpedia.org/resource/826NYC', 'http://dbpedia.org/resource/85th_Street', 'http://dbpedia.org/resource/86th_Street_(IRT_Lexington_Avenue_Line)', 'http://dbpedia.org/resource/88th_Street_(Manhattan)', 'http://dbpedia.org/resource/89_Albert_Embankment', 'http://dbpedia.org/resource/89th_Street_(Manhattan)', 'http://dbpedia.org/resource/8th_arrondissement_of_Lyon', 'http://dbpedia.org/resource/8th_arrondissement_of_Marseille', 'http://dbpedia.org/resource/8th_arrondissement_of_Paris', 'http://dbpedia.org/resource/9_Channel_Nine_Court', 'http://dbpedia.org/resource/9_de_Julio_Avenue', 'http://dbpedia.org/resource/9_Downing_Street', 'http://dbpedia.org/resource/900_North_Michigan', 'http://dbpedia.org/resource/945_Madison_Avenue', 'http://dbpedia.org/resource/9th_arrondissement_of_Paris', 'http://dbpedia.org/resource/9th_Avenue_(Manhattan)', 'http://dbpedia.org/resource/A_Coruña_(province)', 'http://dbpedia.org/resource/A_Coruña', 'http://dbpedia.org/resource/A_Estrada', 'http://dbpedia.org/resource/A.A._Maramis_Building', 'http://dbpedia.org/resource/A.C._Guards', 'http://dbpedia.org/resource/A148_road', 'http://dbpedia.org/resource/A149_road', 'http://dbpedia.org/resource/A19_road_(Great_Britain)', 'http://dbpedia.org/resource/A212_road', 'http://dbpedia.org/resource/A22_road', 'http://dbpedia.org/resource/A23_road', 'http://dbpedia.org/resource/A26_road', 'http://dbpedia.org/resource/A30_road_(England)', 'http://dbpedia.org/resource/A307_road', 'http://dbpedia.org/resource/A320_road', 'http://dbpedia.org/resource/A458_road', 'http://dbpedia.org/resource/A49_road', 'http://dbpedia.org/resource/A5_road_(Isle_of_Man)', 'http://dbpedia.org/resource/A6_road_(Great_Britain)', 'http://dbpedia.org/resource/A66_road', 'http://dbpedia.org/resource/A660_road', 'http://dbpedia.org/resource/A815_road', 'http://dbpedia.org/resource/A82_road', 'http://dbpedia.org/resource/A85_road', 'http://dbpedia.org/resource/A850_road', 'http://dbpedia.org/resource/A9_road_(Sri_Lanka)', 'http://dbpedia.org/resource/Aabenraa', 'http://dbpedia.org/resource/Aabpara', 'http://dbpedia.org/resource/Aabybro', 'http://dbpedia.org/resource/Aachen_(district)', 'http://dbpedia.org/resource/Aachen-Mitte', 'http://dbpedia.org/resource/Aachen,_Germany', 'http://dbpedia.org/resource/Aachen', 'http://dbpedia.org/resource/Aakkulam,_Thiruvananthapuram,_Kerala', 'http://dbpedia.org/resource/Aalborg,_Denmark', 'http://dbpedia.org/resource/Aalborg', 'http://dbpedia.org/resource/Aalen', 'http://dbpedia.org/resource/Aalsmeer', 'http://dbpedia.org/resource/Aalst,_Belgium', 'http://dbpedia.org/resource/Aamby_Valley', 'http://dbpedia.org/resource/Aarau', 'http://dbpedia.org/resource/Aarberg', 'http://dbpedia.org/resource/Aarburg', 'http://dbpedia.org/resource/Aardenburg', 'http://dbpedia.org/resource/Aare', 'http://dbpedia.org/resource/Aargau', 'http://dbpedia.org/resource/Aarhus_C', 'http://dbpedia.org/resource/Aarhus_Municipality', 'http://dbpedia.org/resource/Aarhus_N', 'http://dbpedia.org/resource/Aarhus_Stadium', 'http://dbpedia.org/resource/Aarhus_University', 'http://dbpedia.org/resource/Aarhus_V', 'http://dbpedia.org/resource/Aarhus', 'http://dbpedia.org/resource/Aaronsburg,_Centre_County,_Pennsylvania', 'http://dbpedia.org/resource/Aars', 'http://dbpedia.org/resource/Aarschot', 'http://dbpedia.org/resource/Aarup', 'http://dbpedia.org/resource/Aasiaat', 'http://dbpedia.org/resource/Aastrup,_Falster', 'http://dbpedia.org/resource/Ab_Kettleby', 'http://dbpedia.org/resource/Aba,_Abia', 'http://dbpedia.org/resource/Aba,_Nigeria', 'http://dbpedia.org/resource/Abadan,_Iran', 'http://dbpedia.org/resource/Abadan,_Khoozestan', 'http://dbpedia.org/resource/Abadan,_Turkmenistan', 'http://dbpedia.org/resource/Abadan', 'http://dbpedia.org/resource/Abadeh_County', 'http://dbpedia.org/resource/Abaetetuba', 'http://dbpedia.org/resource/Abaiang', 'http://dbpedia.org/resource/Abajah', 'http://dbpedia.org/resource/Abakan', 'http://dbpedia.org/resource/Abalessa', 'http://dbpedia.org/resource/Ábalos,_La_Rioja', 'http://dbpedia.org/resource/Abancay_Province', 'http://dbpedia.org/resource/Abancay', 'http://dbpedia.org/resource/Abando', 'http://dbpedia.org/resource/Abano_Terme', 'http://dbpedia.org/resource/Abarkuh_County', 'http://dbpedia.org/resource/Abarkuh', 'http://dbpedia.org/resource/Abashiri_Subprefecture', 'http://dbpedia.org/resource/Abashiri,_Hokkaido', 'http://dbpedia.org/resource/Abashiri', 'http://dbpedia.org/resource/Abau', 'http://dbpedia.org/resource/Abbasid_Samarra', 'http://dbpedia.org/resource/Abbassia', 'http://dbpedia.org/resource/Abberton,_Worcestershire', 'http://dbpedia.org/resource/Abbeville_County,_South_Carolina', 'http://dbpedia.org/resource/Abbeville,_Alabama', 'http://dbpedia.org/resource/Abbeville,_County_Tipperary_(townland)', 'http://dbpedia.org/resource/Abbeville,_Georgia', 'http://dbpedia.org/resource/Abbeville,_Louisiana', 'http://dbpedia.org/resource/Abbeville,_South_Carolina', 'http://dbpedia.org/resource/Abbeville', 'http://dbpedia.org/resource/Abbey_Dore', 'http://dbpedia.org/resource/Abbey_of_Sainte-Trinité,_Caen', 'http://dbpedia.org/resource/Abbey_Park,_Leicester', 'http://dbpedia.org/resource/Abbey_Wood', 'http://dbpedia.org/resource/Abbeyfeale', 'http://dbpedia.org/resource/Abbeyleix', 'http://dbpedia.org/resource/Abbeyshrule', 'http://dbpedia.org/resource/Abbeystead', 'http://dbpedia.org/resource/Abbeytown', 'http://dbpedia.org/resource/Abbiategrasso', 'http://dbpedia.org/resource/Abbot_Pass', 'http://dbpedia.org/resource/Abbots_Langley', 'http://dbpedia.org/resource/Abbots_Leigh', 'http://dbpedia.org/resource/Abbotsbury,_New_South_Wales', 'http://dbpedia.org/resource/Abbotsbury', 'http://dbpedia.org/resource/Abbotsford_International_Airport', 'http://dbpedia.org/resource/Abbotsford,_British_Columbia', 'http://dbpedia.org/resource/Abbotsford,_Victoria', 'http://dbpedia.org/resource/Abbotsham', 'http://dbpedia.org/resource/Abbotsinch', 'http://dbpedia.org/resource/Abbotsley', 'http://dbpedia.org/resource/Abbotstown_(townland)', 'http://dbpedia.org/resource/Abbott_Drive', 'http://dbpedia.org/resource/Abbottabad_District', 'http://dbpedia.org/resource/Abbottabad,_Khyber_Pakhtunkhwa', 'http://dbpedia.org/resource/Abbottabad', 'http://dbpedia.org/resource/Abbottstown,_Pennsylvania', 'http://dbpedia.org/resource/ABC_islands_(Alaska)', 'http://dbpedia.org/resource/ABC_Islands_(Alaska)', 'http://dbpedia.org/resource/ABC_Studios_(Australia)', 'http://dbpedia.org/resource/ABC_Television_Center', 'http://dbpedia.org/resource/Abdanan_County', 'http://dbpedia.org/resource/Abdi_İpekçi_Park', 'http://dbpedia.org/resource/Abdi_İpekçi_Street', 'http://dbpedia.org/resource/Abdullah_bin_Khalifa_Stadium', 'http://dbpedia.org/resource/Abel_Iturralde_Province', 'http://dbpedia.org/resource/Abel_Tasman_National_Park', 'http://dbpedia.org/resource/Abeno-ku,_Osaka', 'http://dbpedia.org/resource/Abeokuta', 'http://dbpedia.org/resource/Aberaeron', 'http://dbpedia.org/resource/Aberavon', 'http://dbpedia.org/resource/Aberbargoed', 'http://dbpedia.org/resource/Aberbeeg', 'http://dbpedia.org/resource/Abercarn', 'http://dbpedia.org/resource/Aberchirder', 'http://dbpedia.org/resource/Abercorn', 'http://dbpedia.org/resource/Abercraf', 'http://dbpedia.org/resource/Abercrombie,_North_Dakota', 'http://dbpedia.org/resource/Abercynon', 'http://dbpedia.org/resource/Aberdare_National_Park', 'http://dbpedia.org/resource/Aberdare', 'http://dbpedia.org/resource/Aberdaron', 'http://dbpedia.org/resource/Aberdeen_(Hong_Kong)', 'http://dbpedia.org/resource/Aberdeen_City', 'http://dbpedia.org/resource/Aberdeen_Pavilion', 'http://dbpedia.org/resource/Aberdeen_Proving_Ground,_Maryland', 'http://dbpedia.org/resource/Aberdeen_Proving_Ground', 'http://dbpedia.org/resource/Aberdeen_Township,_New_Jersey', 'http://dbpedia.org/resource/Aberdeen,_Eastern_Cape', 'http://dbpedia.org/resource/Aberdeen,_Hong_Kong', 'http://dbpedia.org/resource/Aberdeen,_Maryland', 'http://dbpedia.org/resource/Aberdeen,_Mississippi', 'http://dbpedia.org/resource/Aberdeen,_North_Carolina', 'http://dbpedia.org/resource/Aberdeen,_Ohio', 'http://dbpedia.org/resource/Aberdeen,_Scotland', 'http://dbpedia.org/resource/Aberdeen,_South_Dakota', 'http://dbpedia.org/resource/Aberdeen,_Washington', 'http://dbpedia.org/resource/Aberdeen', 'http://dbpedia.org/resource/Aberdeenshire_(council_area)', 'http://dbpedia.org/resource/Aberdeenshire_(traditional)', 'http://dbpedia.org/resource/Aberdeenshire', 'http://dbpedia.org/resource/Aberdour', 'http://dbpedia.org/resource/Aberdyfi', 'http://dbpedia.org/resource/Aberfeldy,_Perth_and_Kinross', 'http://dbpedia.org/resource/Aberffraw', 'http://dbpedia.org/resource/Aberford', 'http://dbpedia.org/resource/Abergavenny', 'http://dbpedia.org/resource/Abergaveny', 'http://dbpedia.org/resource/Abergele', 'http://dbpedia.org/resource/Aberglasslyn,_New_South_Wales', 'http://dbpedia.org/resource/Abergwili', 'http://dbpedia.org/resource/Abergwyngregyn', 'http://dbpedia.org/resource/Aberkenfig', 'http://dbpedia.org/resource/Aberlady', 'http://dbpedia.org/resource/Aberlour', 'http://dbpedia.org/resource/Abermule', 'http://dbpedia.org/resource/Abernethy_No._186,_Saskatchewan', 'http://dbpedia.org/resource/Abernethy,_Perth_and_Kinross', 'http://dbpedia.org/resource/Aberporth', 'http://dbpedia.org/resource/Abertillery', 'http://dbpedia.org/resource/Aberuthven', 'http://dbpedia.org/resource/Aberystwyth_Arts_Centre', 'http://dbpedia.org/resource/Aberystwyth_University', 'http://dbpedia.org/resource/Aberystwyth,_Wales', 'http://dbpedia.org/resource/Aberystwyth', 'http://dbpedia.org/resource/Aberyswyth', 'http://dbpedia.org/resource/Abha,_Saudi_Arabia', 'http://dbpedia.org/resource/Abhar_County', 'http://dbpedia.org/resource/Abhayagiri_Monastery', 'http://dbpedia.org/resource/Abhayapuri', 'http://dbpedia.org/resource/Abia_State', 'http://dbpedia.org/resource/Abiansemal', 'http://dbpedia.org/resource/Abidjan,_Ivory_Coast', 'http://dbpedia.org/resource/Abidjan', 'http://dbpedia.org/resource/Abids', 'http://dbpedia.org/resource/Abiko,_Chiba', 'http://dbpedia.org/resource/Abilene,_Kansas', 'http://dbpedia.org/resource/Abilene,_Texas', 'http://dbpedia.org/resource/Abim,_Uganda', 'http://dbpedia.org/resource/Abingdon_Downs,_Queensland', 'http://dbpedia.org/resource/Abingdon_Square_Park', 'http://dbpedia.org/resource/Abingdon-on-Thames', 'http://dbpedia.org/resource/Abingdon,_Maryland', 'http://dbpedia.org/resource/Abingdon,_Oxfordshire', 'http://dbpedia.org/resource/Abingdon,_Virginia', 'http://dbpedia.org/resource/Abinger_Common', 'http://dbpedia.org/resource/Abington_Township,_Montgomery_County,_Pennsylvania', 'http://dbpedia.org/resource/Abington,_Connecticut', 'http://dbpedia.org/resource/Abington,_Massachusetts', 'http://dbpedia.org/resource/Abington,_Northamptonshire', 'http://dbpedia.org/resource/Abington,_South_Lanarkshire', 'http://dbpedia.org/resource/Abiquiu,_New_Mexico', 'http://dbpedia.org/resource/Abiquiú,_New_Mexico', 'http://dbpedia.org/resource/Abira,_Hokkaido', 'http://dbpedia.org/resource/Abisko_Scientific_Research_Station', 'http://dbpedia.org/resource/Abisko', 'http://dbpedia.org/resource/Abita_Springs,_LA', 'http://dbpedia.org/resource/Abita_Springs,_Louisiana', 'http://dbpedia.org/resource/Abitibi_Regional_County_Municipality,_Quebec', 'http://dbpedia.org/resource/Abitibi-Ouest_Regional_County_Municipality,_Quebec', 'http://dbpedia.org/resource/Abitibi-Témiscamingue', 'http://dbpedia.org/resource/Abkhazia', 'http://dbpedia.org/resource/Ablation_Valley', 'http://dbpedia.org/resource/ABN_(TV_station)', 'http://dbpedia.org/resource/Aboadze', 'http://dbpedia.org/resource/Aboisso_Department', 'http://dbpedia.org/resource/Aboite_Township,_Allen_County,_Indiana', 'http://dbpedia.org/resource/Abomey', 'http://dbpedia.org/resource/Abondance,_Haute-Savoie', 'http://dbpedia.org/resource/Abondant', 'http://dbpedia.org/resource/Aboriginal_Shire_of_Palm_Island', 'http://dbpedia.org/resource/Abottabad', 'http://dbpedia.org/resource/Åboulevard', 'http://dbpedia.org/resource/Abovyan_Street', 'http://dbpedia.org/resource/Abovyan', 'http://dbpedia.org/resource/Aboyne', 'http://dbpedia.org/resource/Abqaiq', 'http://dbpedia.org/resource/Abra_(province)', 'http://dbpedia.org/resource/Abrantes', 'http://dbpedia.org/resource/Abrepo', 'http://dbpedia.org/resource/Abrera', 'http://dbpedia.org/resource/Abronhill', 'http://dbpedia.org/resource/Abrud', 'http://dbpedia.org/resource/Abruka', 'http://dbpedia.org/resource/Abruzzo', 'http://dbpedia.org/resource/ABS-CBN_Broadcasting_Center', 'http://dbpedia.org/resource/ABS-CBN_Studios', 'http://dbpedia.org/resource/Absam', 'http://dbpedia.org/resource/Absarokee,_Montana', 'http://dbpedia.org/resource/Absheron_Peninsula', 'http://dbpedia.org/resource/Absheron_Rayon', 'http://dbpedia.org/resource/Abstatt', 'http://dbpedia.org/resource/Abu_%60Arish', 'http://dbpedia.org/resource/Abu_Dhabi_(city)', 'http://dbpedia.org/resource/Abu_Dhabi_National_Exhibition_Centre', 'http://dbpedia.org/resource/Abu_Dhabi_National_Exhibitions_Company', 'http://dbpedia.org/resource/Abu_Dhabi,_UAE', 'http://dbpedia.org/resource/Abu_Dhabi', 'http://dbpedia.org/resource/Abu_Ghosh', 'http://dbpedia.org/resource/Abu_Ghraib', 'http://dbpedia.org/resource/Abu_Hamour', 'http://dbpedia.org/resource/Abu_Rummaneh', 'http://dbpedia.org/resource/Abuja,_FCT', 'http://dbpedia.org/resource/Abuja', 'http://dbpedia.org/resource/Aburi', 'http://dbpedia.org/resource/Abuta_District,_Hokkaidō', 'http://dbpedia.org/resource/Abuzeydabad', 'http://dbpedia.org/resource/Aby_District', 'http://dbpedia.org/resource/Åby_Racetrack', 'http://dbpedia.org/resource/Åbyhøj', 'http://dbpedia.org/resource/Abymes', 'http://dbpedia.org/resource/Acacia_Ridge,_Queensland', 'http://dbpedia.org/resource/Acacías', 'http://dbpedia.org/resource/Academy_of_Sciences_Range', 'http://dbpedia.org/resource/Academy,_South_Dakota', 'http://dbpedia.org/resource/Acadia_National_Park', 'http://dbpedia.org/resource/Acadia_Valley,_Alberta', 'http://dbpedia.org/resource/Acadia', 'http://dbpedia.org/resource/Acandí', 'http://dbpedia.org/resource/Acapulco,_Guerrero', 'http://dbpedia.org/resource/Acapulco,_Mexico', 'http://dbpedia.org/resource/Acapulco', 'http://dbpedia.org/resource/Acarígua,_Venezuela', 'http://dbpedia.org/resource/Acarigua', 'http://dbpedia.org/resource/Accident,_Maryland', 'http://dbpedia.org/resource/Accokeek,_Maryland', 'http://dbpedia.org/resource/Accomac,_Virginia', 'http://dbpedia.org/resource/Accomack_County,_Virginia', 'http://dbpedia.org/resource/Accor_Arena', 'http://dbpedia.org/resource/Accord,_New_York', 'http://dbpedia.org/resource/AccorHotels_Arena', 'http://dbpedia.org/resource/Accountor_Tower', 'http://dbpedia.org/resource/Accra_Sports_Stadium', 'http://dbpedia.org/resource/Accra,_Ghana', 'http://dbpedia.org/resource/Accra', 'http://dbpedia.org/resource/Accrington', 'http://dbpedia.org/resource/Accursed_Mountains', 'http://dbpedia.org/resource/Ace_Cafe', 'http://dbpedia.org/resource/Aceh_Besar_Regency', 'http://dbpedia.org/resource/Aceh_Singkil_Regency', 'http://dbpedia.org/resource/Aceh', 'http://dbpedia.org/resource/Aceitunas', 'http://dbpedia.org/resource/Acer_Arena', 'http://dbpedia.org/resource/Achada_Grande_Tras', 'http://dbpedia.org/resource/Achada_Santo_António', 'http://dbpedia.org/resource/Achaea', 'http://dbpedia.org/resource/Achaemenid_Empire', 'http://dbpedia.org/resource/Acharnes', 'http://dbpedia.org/resource/Acheleia', 'http://dbpedia.org/resource/Achern', 'http://dbpedia.org/resource/Achham_District', 'http://dbpedia.org/resource/Achill_Island', 'http://dbpedia.org/resource/Achimota', 'http://dbpedia.org/resource/Achnacroish', 'http://dbpedia.org/resource/Achnamara', 'http://dbpedia.org/resource/Achocalla_Municipality', 'http://dbpedia.org/resource/Achrafieh,_Beirut', 'http://dbpedia.org/resource/Achrafieh', 'http://dbpedia.org/resource/Achstetten', 'http://dbpedia.org/resource/Achterwasser', 'http://dbpedia.org/resource/Achwa_River', 'http://dbpedia.org/resource/Aci_Castello', 'http://dbpedia.org/resource/ACI_Vallelunga_Circuit', 'http://dbpedia.org/resource/Acilia', 'http://dbpedia.org/resource/Acireale', 'http://dbpedia.org/resource/Acıbadem_University', 'http://dbpedia.org/resource/Ackerville,_Alabama', 'http://dbpedia.org/resource/Acklam,_Middlesbrough', 'http://dbpedia.org/resource/Ackley,_Iowa', 'http://dbpedia.org/resource/Acklington', 'http://dbpedia.org/resource/Acland,_Queensland', 'http://dbpedia.org/resource/Acme_Township,_Michigan', 'http://dbpedia.org/resource/Acme,_Alberta', 'http://dbpedia.org/resource/Acocks_Green', 'http://dbpedia.org/resource/Acoma_Pueblo', 'http://dbpedia.org/resource/Acoma,_New_Mexico', 'http://dbpedia.org/resource/Acomb,_North_Yorkshire', 'http://dbpedia.org/resource/Aconbury', 'http://dbpedia.org/resource/Acquasparta', 'http://dbpedia.org/resource/Acre_(state)', 'http://dbpedia.org/resource/Acre,_Israel', 'http://dbpedia.org/resource/Acrise', 'http://dbpedia.org/resource/Acton_Burnell', 'http://dbpedia.org/resource/Acton_Green,_London', 'http://dbpedia.org/resource/Acton_Park,_Wrexham', 'http://dbpedia.org/resource/Acton,_Australian_Capital_Territory', 'http://dbpedia.org/resource/Acton,_Cheshire', 'http://dbpedia.org/resource/Acton,_London', 'http://dbpedia.org/resource/Acton,_Maine', 'http://dbpedia.org/resource/Acton,_Massachusetts', 'http://dbpedia.org/resource/Acton,_Suffolk', 'http://dbpedia.org/resource/Acton,_Texas', 'http://dbpedia.org/resource/Actopan,_Hidalgo', 'http://dbpedia.org/resource/Actors_Theatre_of_Louisville', 'http://dbpedia.org/resource/Aculco', 'http://dbpedia.org/resource/Acuña_(municipality)', 'http://dbpedia.org/resource/Acuña_Municipality', 'http://dbpedia.org/resource/Acushnet_River', 'http://dbpedia.org/resource/Acushnet,_Massachusetts', 'http://dbpedia.org/resource/Acworth,_Georgia', 'http://dbpedia.org/resource/Acworth,_New_Hampshire', 'http://dbpedia.org/resource/Ad_Dakhiliyah_Region', 'http://dbpedia.org/resource/Ad_Damazin', 'http://dbpedia.org/resource/Ad-Dawhah_(municipality)', 'http://dbpedia.org/resource/Ada_County,_Idaho', 'http://dbpedia.org/resource/Ada_Township,_Michigan', 'http://dbpedia.org/resource/Ada,_Michigan', 'http://dbpedia.org/resource/Ada,_Minnesota', 'http://dbpedia.org/resource/Ada,_Oklahoma', 'http://dbpedia.org/resource/Adabraka', 'http://dbpedia.org/resource/Adachi,_Tokyo', 'http://dbpedia.org/resource/Adair_County,_Kentucky', 'http://dbpedia.org/resource/Adair_County,_Missouri', 'http://dbpedia.org/resource/Adair_County,_Oklahoma', 'http://dbpedia.org/resource/Adair,_Iowa', 'http://dbpedia.org/resource/Adairsville,_Georgia', 'http://dbpedia.org/resource/Adak_Island', 'http://dbpedia.org/resource/Adak,_Alaska', 'http://dbpedia.org/resource/Adalar', 'http://dbpedia.org/resource/Adam,_Oman', 'http://dbpedia.org/resource/Adama', 'http://dbpedia.org/resource/Adamana,_Arizona', 'http://dbpedia.org/resource/Adamant_Range', 'http://dbpedia.org/resource/Adamant,_Vermont', 'http://dbpedia.org/resource/Adamawa_Province', 'http://dbpedia.org/resource/Adamawa_State', 'http://dbpedia.org/resource/Adaminaby,_New_South_Wales', 'http://dbpedia.org/resource/Adampur', 'http://dbpedia.org/resource/Adams_(village),_New_York', 'http://dbpedia.org/resource/Adams_Basin,_New_York', 'http://dbpedia.org/resource/Adams_County,_Colorado', 'http://dbpedia.org/resource/Adams_County,_Idaho', 'http://dbpedia.org/resource/Adams_County,_Illinois', 'http://dbpedia.org/resource/Adams_County,_Iowa', 'http://dbpedia.org/resource/Adams_County,_Mississippi', 'http://dbpedia.org/resource/Adams_County,_Ohio', 'http://dbpedia.org/resource/Adams_County,_Pennsylvania', 'http://dbpedia.org/resource/Adams_County,_Washington', 'http://dbpedia.org/resou</t>
+  </si>
+  <si>
+    <t>['1.8']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Ken_Follett']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Disney_anthology_television_series', 'http://dbpedia.org/resource/Donald_Duck', 'http://dbpedia.org/resource/Oswald_the_Lucky_Rabbit']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Canada']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Alyssa_Milano', '1972-12-19', 'http://dbpedia.org/resource/Brian_Krause', '1969-02-01', 'http://dbpedia.org/resource/Dorian_Gregory', '1971-01-26', 'http://dbpedia.org/resource/Drew_Fuller', '1980-05-19', 'http://dbpedia.org/resource/Greg_Vaughan', '1973-06-15', 'http://dbpedia.org/resource/Holly_Marie_Combs', '1973-12-03', 'http://dbpedia.org/resource/Julian_McMahon', '1968-07-27', 'http://dbpedia.org/resource/Kaley_Cuoco', '1985-11-30', 'http://dbpedia.org/resource/Rose_McGowan', '1973-09-05', 'http://dbpedia.org/resource/Shannen_Doherty', '1971-04-12', 'http://dbpedia.org/resource/Ted_King_(actor)', '1965-10-01']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Ramin_Djawadi']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Apocalypse_Now_Redux', 'http://dbpedia.org/resource/Battle_Beyond_the_Sun', "http://dbpedia.org/resource/Bram_Stoker's_Dracula_(1992_film)", 'http://dbpedia.org/resource/Captain_EO', 'http://dbpedia.org/resource/Dementia_13', 'http://dbpedia.org/resource/Distant_Vision', "http://dbpedia.org/resource/Finian's_Rainbow_(1968_film)", 'http://dbpedia.org/resource/Gardens_of_Stone', 'http://dbpedia.org/resource/Jack_(1996_film)', 'http://dbpedia.org/resource/Megalopolis_(film)', 'http://dbpedia.org/resource/New_York_Stories', 'http://dbpedia.org/resource/One_from_the_Heart', 'http://dbpedia.org/resource/Peggy_Sue_Got_Married', 'http://dbpedia.org/resource/Rumble_Fish', 'http://dbpedia.org/resource/Supernova_(2000_film)', 'http://dbpedia.org/resource/Tetro', 'http://dbpedia.org/resource/The_Bellboy_and_the_Playgirls', 'http://dbpedia.org/resource/The_Conversation', 'http://dbpedia.org/resource/The_Cotton_Club_(film)', 'http://dbpedia.org/resource/The_Godfather_(film_series)', 'http://dbpedia.org/resource/The_Godfather_Part_II', 'http://dbpedia.org/resource/The_Godfather_Part_III', 'http://dbpedia.org/resource/The_Godfather_Saga__The_Godfather_Trilogy:_1901–1980__1', 'http://dbpedia.org/resource/The_Godfather', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/The_Rain_People', 'http://dbpedia.org/resource/The_Rainmaker_(1997_film)', 'http://dbpedia.org/resource/The_Terror_(1963_film)', 'http://dbpedia.org/resource/Tonight_for_Sure', 'http://dbpedia.org/resource/Tucker:_The_Man_and_His_Dream', 'http://dbpedia.org/resource/Twixt_(film)', "http://dbpedia.org/resource/You're_a_Big_Boy_Now", 'http://dbpedia.org/resource/Youth_Without_Youth_(film)']</t>
+  </si>
+  <si>
+    <t>['Adele Laurie Blue Adkins']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Seven_Seas_of_Rhye']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Adolf_Klein', 'http://dbpedia.org/resource/Eduard_von_Winterstein', 'http://dbpedia.org/resource/Eleonore_de_Ahna', 'http://dbpedia.org/resource/Emil_Justitz', 'http://dbpedia.org/resource/Erik_Jan_Hanussen', 'http://dbpedia.org/resource/Eva_Schmidt-Kolmer', 'http://dbpedia.org/resource/Gerda_Laski', 'http://dbpedia.org/resource/Guido_von_List', 'http://dbpedia.org/resource/Hans_Fidesser', 'http://dbpedia.org/resource/Heinrich_Belohlavek', 'http://dbpedia.org/resource/Hugo_Flink', 'http://dbpedia.org/resource/Josephine_Pagay', 'http://dbpedia.org/resource/Karl_Etlinger', 'http://dbpedia.org/resource/Karl_Hellmer', 'http://dbpedia.org/resource/La_Jana_(actress)', 'http://dbpedia.org/resource/Luise_Begas-Parmentier', 'http://dbpedia.org/resource/Mathilde_Danegger', 'http://dbpedia.org/resource/Michael_von_Newlinsky', 'http://dbpedia.org/resource/Richard_Thurnwald', 'http://dbpedia.org/resource/Robert_Bodanzky', 'http://dbpedia.org/resource/Steffie_Spira', 'http://dbpedia.org/resource/Therese_Grünbaum', 'http://dbpedia.org/resource/Tom_Seidmann-Freud']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Ottawa']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Aaron_Xuereb', 'http://dbpedia.org/resource/Adrian_Ciantar', 'http://dbpedia.org/resource/Adrian_Mifsud', 'http://dbpedia.org/resource/Adrian_Pulis', 'http://dbpedia.org/resource/Alishia_Sultana', 'http://dbpedia.org/resource/Andrei_Agius', 'http://dbpedia.org/resource/Andrew_Cohen_(footballer)', 'http://dbpedia.org/resource/Antoine_Zahra_(footballer,_born_1977)', 'http://dbpedia.org/resource/Antoine_Zahra_(footballer,_born_1981)', 'http://dbpedia.org/resource/Brenda_Borg', 'http://dbpedia.org/resource/Brian_Said', 'http://dbpedia.org/resource/Brian_Strutt', 'http://dbpedia.org/resource/Callum_Talbot', 'http://dbpedia.org/resource/Carlo_Mamo', 'http://dbpedia.org/resource/Charles_Azzopardi', 'http://dbpedia.org/resource/Charles_Micallef', 'http://dbpedia.org/resource/Charles_Muscat', 'http://dbpedia.org/resource/Charlie_Williams_(footballer,_born_1944)', 'http://dbpedia.org/resource/Claude_Mattocks', 'http://dbpedia.org/resource/Cleavon_Frendo', 'http://dbpedia.org/resource/Cornelius_Hogan', 'http://dbpedia.org/resource/Daniel_Theuma', 'http://dbpedia.org/resource/Darren_Debono', 'http://dbpedia.org/resource/David_Camilleri', 'http://dbpedia.org/resource/David_Cluett', 'http://dbpedia.org/resource/Denis_Cauchi', 'http://dbpedia.org/resource/Dennis_Mizzi', 'http://dbpedia.org/resource/Dexter_Xuereb', 'http://dbpedia.org/resource/Dorianne_Theuma', 'http://dbpedia.org/resource/Edmond_Agius', 'http://dbpedia.org/resource/Edward_Azzopardi', 'http://dbpedia.org/resource/Emanuel_Fabri', 'http://dbpedia.org/resource/Emma_Xuerreb', 'http://dbpedia.org/resource/Gareth_Sciberras', 'http://dbpedia.org/resource/George_Mallia', 'http://dbpedia.org/resource/Hubert_Suda', 'http://dbpedia.org/resource/Ian_Azzopardi', 'http://dbpedia.org/resource/Ian_Ciantar', 'http://dbpedia.org/resource/Ivan_Zammit', 'http://dbpedia.org/resource/Jade_Flask', 'http://dbpedia.org/resource/Jamie_Zerafa', 'http://dbpedia.org/resource/Jean_Paul_Farrugia', 'http://dbpedia.org/resource/Jeffrey_Chetcuti', 'http://dbpedia.org/resource/Jesmond_Delia', 'http://dbpedia.org/resource/Joe_Brincat', 'http://dbpedia.org/resource/Johann_Bezzina', 'http://dbpedia.org/resource/John_Bonello', 'http://dbpedia.org/resource/John_McNeill_(footballer)', 'http://dbpedia.org/resource/Jonathan_Caruana', 'http://dbpedia.org/resource/Jonathan_Holland_(footballer)', 'http://dbpedia.org/resource/Jonathan_Magri_Overend', 'http://dbpedia.org/resource/Josef_Mifsud', 'http://dbpedia.org/resource/Joseph_Farrugia', 'http://dbpedia.org/resource/Juan_Carlos_Corbalan', 'http://dbpedia.org/resource/Justin_Haber', 'http://dbpedia.org/resource/Kenneth_Scicluna', 'http://dbpedia.org/resource/Kevin_Sammut', 'http://dbpedia.org/resource/Kristian_Laferla', 'http://dbpedia.org/resource/Lino_Galea', 'http://dbpedia.org/resource/Lolly_Vella', 'http://dbpedia.org/resource/Malcolm_Licari', 'http://dbpedia.org/resource/Maria_Farrugia', 'http://dbpedia.org/resource/Mario_Farrugia', 'http://dbpedia.org/resource/Martina_Borg', 'http://dbpedia.org/resource/Massimo_Grima', 'http://dbpedia.org/resource/Matthew_Guillaumier', 'http://dbpedia.org/resource/Michael_Cutajar', 'http://dbpedia.org/resource/Michael_Galea', 'http://dbpedia.org/resource/Michael_Johnson_(footballer,_born_1994)', 'http://dbpedia.org/resource/Nicole_Buttigieg', 'http://dbpedia.org/resource/Nicole_Sciberras', 'http://dbpedia.org/resource/Noel_Turner_(footballer)', 'http://dbpedia.org/resource/Paul_Fenech_(footballer)', 'http://dbpedia.org/resource/Pierre_Aquilina', 'http://dbpedia.org/resource/Ray_Farrugia', 'http://dbpedia.org/resource/Raymond_Xuereb', "http://dbpedia.org/resource/Rebecca_D'Agostino", 'http://dbpedia.org/resource/Reginald_Cini', 'http://dbpedia.org/resource/Roderick_Briffa', 'http://dbpedia.org/resource/Ronnie_Cocks', 'http://dbpedia.org/resource/Saviour_Darmanin', 'http://dbpedia.org/resource/Sean_Sullivan_(footballer)', 'http://dbpedia.org/resource/Simon_Tortell', 'http://dbpedia.org/resource/Stefan_Giglio', 'http://dbpedia.org/resource/Stefania_Farrugia', 'http://dbpedia.org/resource/Stephen_Wellman', 'http://dbpedia.org/resource/Steve_Bezzina', 'http://dbpedia.org/resource/Steve_Pisani', 'http://dbpedia.org/resource/Terence_Scerri', 'http://dbpedia.org/resource/Terence_Vella', 'http://dbpedia.org/resource/Vincent_Borg_Bonaci', 'http://dbpedia.org/resource/William_Camenzuli']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Yaoundé']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
+  </si>
+  <si>
+    <t>['9209944']</t>
+  </si>
+  <si>
+    <t>['453558']</t>
+  </si>
+  <si>
+    <t>['282100']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Bob_Ogle', 'http://dbpedia.org/resource/Paul_Murry']</t>
+  </si>
+  <si>
     <t>['http://dbpedia.org/resource/2001:_A_Space_Odyssey_(film)', 'http://dbpedia.org/resource/A_Clockwork_Orange_(film)', 'http://dbpedia.org/resource/Barry_Lyndon', 'http://dbpedia.org/resource/Day_of_the_Fight', 'http://dbpedia.org/resource/Dr._Strangelove', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Fear_and_Desire', 'http://dbpedia.org/resource/Flying_Padre', 'http://dbpedia.org/resource/Full_Metal_Jacket', "http://dbpedia.org/resource/Killer's_Kiss", 'http://dbpedia.org/resource/Lolita_(1962_film)', 'http://dbpedia.org/resource/Paths_of_Glory', 'http://dbpedia.org/resource/Spartacus_(film)', 'http://dbpedia.org/resource/The_Killing_(film)__The_Killing__1', 'http://dbpedia.org/resource/The_Seafarers__The_Seafarers__1', 'http://dbpedia.org/resource/The_Shining_(film)']</t>
   </si>
   <si>
@@ -1229,21 +1093,9 @@
     <t>['http://dbpedia.org/resource/1969–70_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1971–72_VfL_Bochum_season', 'http://dbpedia.org/resource/1972–73_VfL_Bochum_season', 'http://dbpedia.org/resource/1973–74_VfL_Bochum_season', 'http://dbpedia.org/resource/1974–75_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1974–75_VfL_Bochum_season', 'http://dbpedia.org/resource/1975–76_VfL_Bochum_season', 'http://dbpedia.org/resource/1976–77_Tennis_Borussia_Berlin_season', 'http://dbpedia.org/resource/1976–77_VfL_Bochum_season', 'http://dbpedia.org/resource/1977–78_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1977–78_VfL_Bochum_season', 'http://dbpedia.org/resource/1978–79_VfL_Bochum_season', 'http://dbpedia.org/resource/1979–80_VfL_Bochum_season', 'http://dbpedia.org/resource/1980–81_VfL_Bochum_season', 'http://dbpedia.org/resource/1981–82_VfL_Bochum_season', 'http://dbpedia.org/resource/1982–83_VfL_Bochum_season', 'http://dbpedia.org/resource/1983–84_VfL_Bochum_season', 'http://dbpedia.org/resource/1984–85_VfL_Bochum_season', 'http://dbpedia.org/resource/1985–86_VfL_Bochum_season', 'http://dbpedia.org/resource/1986–87_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1986–87_VfL_Bochum_season', 'http://dbpedia.org/resource/1987–88_VfL_Bochum_season', 'http://dbpedia.org/resource/1988–89_VfL_Bochum_season', 'http://dbpedia.org/resource/1989–90_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1989–90_VfL_Bochum_season', 'http://dbpedia.org/resource/1990–91_VfL_Bochum_season', 'http://dbpedia.org/resource/1991–92_VfL_Bochum_season', 'http://dbpedia.org/resource/1992–93_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1992–93_VfL_Bochum_season', 'http://dbpedia.org/resource/1994–95_VfL_Bochum_season', 'http://dbpedia.org/resource/1995–96_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1996–97_VfL_Bochum_season', 'http://dbpedia.org/resource/1997–98_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1997–98_VfL_Bochum_season', 'http://dbpedia.org/resource/1998–99_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/1998–99_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1998–99_Hertha_BSC_season', 'http://dbpedia.org/resource/1998–99_VfL_Bochum_season', 'http://dbpedia.org/resource/2000–01_VfL_Bochum_season', 'http://dbpedia.org/resource/2002–03_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2002–03_VfL_Bochum_season', 'http://dbpedia.org/resource/2003–04_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2003–04_VfL_Bochum_season', 'http://dbpedia.org/resource/2004–05_FC_Schalke_04_season', 'http://dbpedia.org/resource/2004–05_VfL_Bochum_season', 'http://dbpedia.org/resource/2005–06_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2006–07_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2006–07_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2006–07_VfL_Bochum_season', 'http://dbpedia.org/resource/2006–07_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2007–08_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2007–08_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2007–08_VfL_Bochum_season', 'http://dbpedia.org/resource/2008–09_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2008–09_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2008–09_VfL_Bochum_season', 'http://dbpedia.org/resource/2009–10_FC_Schalke_04_season', 'http://dbpedia.org/resource/2009–10_VfL_Bochum_season', 'http://dbpedia.org/resource/2010–11_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2010–11_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2010–11_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2011–12_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2011–12_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2011–12_SC_Freiburg_season', 'http://dbpedia.org/resource/2012–13_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2012–13_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2012–13_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2012–13_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2012–13_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2013–14_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2013–14_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2013–14_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2013–14_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2014–15_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2014–15_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2014–15_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2014–15_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2015–16_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2015–16_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2015–16_FC_Ingolstadt_04_season', 'http://dbpedia.org/resource/2015–16_FC_Schalke_04_season', 'http://dbpedia.org/resource/2015–16_SK_Rapid_Wien_season', 'http://dbpedia.org/resource/2015–16_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2016–17_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2016–17_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2016–17_FC_Schalke_04_season', 'http://dbpedia.org/resource/2016–17_Hamburger_SV_season']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/DeForest_Kelley', 'http://dbpedia.org/resource/George_Takei', 'http://dbpedia.org/resource/James_Doohan', 'http://dbpedia.org/resource/Leonard_Nimoy', 'http://dbpedia.org/resource/Nichelle_Nichols', 'http://dbpedia.org/resource/Walter_Koenig', 'http://dbpedia.org/resource/William_Shatner']</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/Alpide_belt']</t>
   </si>
   <si>
-    <t>['33']</t>
-  </si>
-  <si>
-    <t>['1986-02-28']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/Mojang_Studios']</t>
   </si>
   <si>
@@ -1256,9 +1108,6 @@
     <t>['4860']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
-  </si>
-  <si>
     <t>["http://dbpedia.org/resource/Mother's_Day_(2016_film)", 'http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)', "http://dbpedia.org/resource/Valentine's_Day_(2010_film)"]</t>
   </si>
   <si>
@@ -1271,39 +1120,12 @@
     <t>['106.07']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/Mont_Blanc']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/GoTrump.com', 'http://dbpedia.org/resource/The_Trump_Organization', 'http://dbpedia.org/resource/Trump_Model_Management']</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/Katie_Holmes', 'http://dbpedia.org/resource/Nicole_Kidman']</t>
   </si>
   <si>
-    <t>['5360351985']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
-  </si>
-  <si>
-    <t>['1735-10-30']</t>
-  </si>
-  <si>
     <t>['446828803']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/Renminbi']</t>
-  </si>
-  <si>
-    <t>['1616-04-23']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Dnepr_(rocket)', 'http://dbpedia.org/resource/Energia_(rocket)', 'http://dbpedia.org/resource/Irtysh_(rocket)', 'http://dbpedia.org/resource/Kosmos_3_(rocket)', 'http://dbpedia.org/resource/Kosmos-1', 'http://dbpedia.org/resource/Molniya_(rocket)', 'http://dbpedia.org/resource/Molniya-M', 'http://dbpedia.org/resource/N1_(rocket)', 'http://dbpedia.org/resource/Polyot_(rocket)__Polyot_11A59__1', 'http://dbpedia.org/resource/Proton_(rocket_family)', 'http://dbpedia.org/resource/Proton-K', 'http://dbpedia.org/resource/Proton-M', 'http://dbpedia.org/resource/R-7A_Semyorka', 'http://dbpedia.org/resource/Rokot', 'http://dbpedia.org/resource/Soyuz_(rocket_family)', 'http://dbpedia.org/resource/Soyuz_(rocket)', 'http://dbpedia.org/resource/Soyuz-2', 'http://dbpedia.org/resource/Soyuz-FG', 'http://dbpedia.org/resource/Soyuz-L', 'http://dbpedia.org/resource/Soyuz-U', 'http://dbpedia.org/resource/Soyuz-U2', 'http://dbpedia.org/resource/Soyuz/Vostok', 'http://dbpedia.org/resource/Sputnik_(rocket)__Sputnik_727__1', 'http://dbpedia.org/resource/Strela_(rocket)', 'http://dbpedia.org/resource/Tsyklon-2', 'http://dbpedia.org/resource/Tsyklon', 'http://dbpedia.org/resource/Voskhod_(rocket)', 'http://dbpedia.org/resource/Vostok_(rocket_family)', 'http://dbpedia.org/resource/Vostok-2_(rocket)', 'http://dbpedia.org/resource/Vostok-2M', 'http://dbpedia.org/resource/Vostok-K', 'http://dbpedia.org/resource/Vostok-L', 'http://dbpedia.org/resource/Zenit_(rocket_family)', 'http://dbpedia.org/resource/Zenit-2', 'http://dbpedia.org/resource/Zenit-2M', 'http://dbpedia.org/resource/Zenit-3F', 'http://dbpedia.org/resource/Zenit-3SLB']</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/Ainoshima_(Shingū)', 'http://dbpedia.org/resource/Aka_Island', 'http://dbpedia.org/resource/Akusekijima', 'http://dbpedia.org/resource/Amami_Islands', 'http://dbpedia.org/resource/Amami_Ōshima', 'http://dbpedia.org/resource/Aragusuku_Islands', 'http://dbpedia.org/resource/Awaji_Island', 'http://dbpedia.org/resource/Bayonnaise_Rocks', 'http://dbpedia.org/resource/Benten-jima_(Wakkanai)', 'http://dbpedia.org/resource/Chichijima', 'http://dbpedia.org/resource/Daikon_Island', 'http://dbpedia.org/resource/Daitō_Islands', 'http://dbpedia.org/resource/Dejima', 'http://dbpedia.org/resource/Denshima', 'http://dbpedia.org/resource/Engetsu_Island', 'http://dbpedia.org/resource/Fukaji_Island', 'http://dbpedia.org/resource/Gajajima', 'http://dbpedia.org/resource/Genkai_Island', 'http://dbpedia.org/resource/Geruma_Island', 'http://dbpedia.org/resource/Gotō_Islands', 'http://dbpedia.org/resource/Hachijō-kojima', 'http://dbpedia.org/resource/Hahajima', 'http://dbpedia.org/resource/Hamahiga_Island', 'http://dbpedia.org/resource/Hario_Island', 'http://dbpedia.org/resource/Hashima_Island', 'http://dbpedia.org/resource/Hateruma', 'http://dbpedia.org/resource/Hatsushima', 'http://dbpedia.org/resource/Hegurajima', 'http://dbpedia.org/resource/Henza_Island', 'http://dbpedia.org/resource/Hokkaido__Hokkaidō__1', 'http://dbpedia.org/resource/Ibuki_island', 'http://dbpedia.org/resource/Iejima', 'http://dbpedia.org/resource/Iheya_Island', 'http://dbpedia.org/resource/Iki_Island', 'http://dbpedia.org/resource/Ikuchi-jima', 'http://dbpedia.org/resource/Inamba-jima', 'http://dbpedia.org/resource/Iōjima_(Kagoshima)__Iōjima__1', 'http://dbpedia.org/resource/Irabu_Island', 'http://dbpedia.org/resource/Iriomote_Island', 'http://dbpedia.org/resource/Ishigaki_Island', 'http://dbpedia.org/resource/Itsukushima', 'http://dbpedia.org/resource/Izena_Island', 'http://dbpedia.org/resource/Japanese_archipelago', 'http://dbpedia.org/resource/Jinai-tō', 'http://dbpedia.org/resource/Kabushima', 'http://dbpedia.org/resource/Kaminonejima', 'http://dbpedia.org/resource/Kamishima_Island,_Amakusa', 'http://dbpedia.org/resource/Kamome_Island', 'http://dbpedia.org/resource/Kayama_Island', 'http://dbpedia.org/resource/Kii_Ōshima', 'http://dbpedia.org/resource/Kinkasan', 'http://dbpedia.org/resource/Kitadaitōjima', 'http://dbpedia.org/resource/Kogajajima', 'http://dbpedia.org/resource/Kojima_(Hokkaido)', 'http://dbpedia.org/resource/Kōjima', 'http://dbpedia.org/resource/Kozukumi_Island', 'http://dbpedia.org/resource/Kume_Island', 'http://dbpedia.org/resource/Kurima-jima', 'http://dbpedia.org/resource/Kuroshima_(Kagoshima)', 'http://dbpedia.org/resource/Kurushima', 'http://dbpedia.org/resource/Kutsujima,_Kyoto', 'http://dbpedia.org/resource/Kyūroku-jima', 'http://dbpedia.org/resource/Kyushu', "http://dbpedia.org/resource/Lot's_Wife_(crag)", 'http://dbpedia.org/resource/Mageshima', 'http://dbpedia.org/resource/Maishima', 'http://dbpedia.org/resource/Manabeshima', 'http://dbpedia.org/resource/Minamidaitōjima', 'http://dbpedia.org/resource/Minamiukibaru_Island', 'http://dbpedia.org/resource/Minna_Island_(Tarama,_Okinawa)', 'http://dbpedia.org/resource/Miyagi_Island_(Uruma,_Okinawa)', 'http://dbpedia.org/resource/Miyake-jima', 'http://dbpedia.org/resource/Miyako_Islands', 'http://dbpedia.org/resource/Miyako-jima', 'http://dbpedia.org/resource/Nakadōri_Island', 'http://dbpedia.org/resource/Nakanoshima_(Kagoshima)', 'http://dbpedia.org/resource/Naru_Island_(Japan)', 'http://dbpedia.org/resource/Naval_Base_Iwo_Jima', 'http://dbpedia.org/resource/Nii_Ōshima', 'http://dbpedia.org/resource/Nishinoshima_(Ogasawara)', 'http://dbpedia.org/resource/Noshima', 'http://dbpedia.org/resource/Noto_Peninsula', 'http://dbpedia.org/resource/Notojima', 'http://dbpedia.org/resource/Okamura_Island', 'http://dbpedia.org/resource/Oki_Islands', 'http://dbpedia.org/resource/Okidaitōjima', 'http://dbpedia.org/resource/Okinawa_Islands', 'http://dbpedia.org/resource/Okinoshima_(Fukuoka)', 'http://dbpedia.org/resource/Okinotorishima', 'http://dbpedia.org/resource/Ōkunoshima', 'http://dbpedia.org/resource/Ōnohara_Islands', 'http://dbpedia.org/resource/Oshima_(Hokkaido)', 'http://dbpedia.org/resource/Ōsumi_Islands', 'http://dbpedia.org/resource/Ou_Island_(Nanjō)', 'http://dbpedia.org/resource/Ōyano-jima', 'http://dbpedia.org/resource/Ōzushima', 'http://dbpedia.org/resource/Ryukyu_Islands', 'http://dbpedia.org/resource/Sado_Island', 'http://dbpedia.org/resource/Sakishima_Islands', 'http://dbpedia.org/resource/Shikoku', 'http://dbpedia.org/resource/Shimoji-shima', 'http://dbpedia.org/resource/Shishijima', 'http://dbpedia.org/resource/Shōdoshima', 'http://dbpedia.org/resource/Shōwa_Iōjima__Shōwa_Iōjima__1', 'http://dbpedia.org/resource/Smith_Island_(Japan)', 'http://dbpedia.org/resource/Sukomobanare_Island', 'http://dbpedia.org/resource/Tairajima', 'http://dbpedia.org/resource/Takashima,_Shimane', 'http://dbpedia.org/resource/Takeshima_(Kagoshima)', 'http://dbpedia.org/resource/Taketomi_Island', 'http://dbpedia.org/resource/Tanegashima', 'http://dbpedia.org/resource/Tobishima,_Yamagata', 'http://dbpedia.org/resource/Tokara_Islands', 'http://dbpedia.org/resource/Tokunoshima', 'http://dbpedia.org/resource/Tori-shima_(Izu_Islands)', 'http://dbpedia.org/resource/Tsuken_Island', 'http://dbpedia.org/resource/Udone-shima', 'http://dbpedia.org/resource/Umashima,_Shimane', 'http://dbpedia.org/resource/Uni_Island', 'http://dbpedia.org/resource/Yaeyama_Islands', 'http://dbpedia.org/resource/Yagishiri_Island', 'http://dbpedia.org/resource/Yokatsu_Islands', 'http://dbpedia.org/resource/Yokoate-jima', 'http://dbpedia.org/resource/Yonaguni', 'http://dbpedia.org/resource/Yubu_Island', 'http://dbpedia.org/resource/Yugeshima', 'http://dbpedia.org/resource/Zamami_Island']</t>
   </si>
   <si>
@@ -1325,9 +1147,6 @@
     <t>['http://dbpedia.org/resource/China', 'http://dbpedia.org/resource/Nepal']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/Dallas']</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/East_River']</t>
   </si>
   <si>
@@ -1340,39 +1159,18 @@
     <t>['http://dbpedia.org/resource/Himalayas']</t>
   </si>
   <si>
-    <t>['10100166']</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
   </si>
   <si>
-    <t>['3']</t>
-  </si>
-  <si>
     <t>['44.8']</t>
   </si>
   <si>
     <t>['http://dbpedia.org/resource/Saudi_Arabia']</t>
   </si>
   <si>
-    <t>['1.8']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Ken_Follett']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/Chagan_(closed_city)']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/Disney_anthology_television_series', 'http://dbpedia.org/resource/Donald_Duck', 'http://dbpedia.org/resource/Oswald_the_Lucky_Rabbit']</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', "http://dbpedia.org/resource/International_Men's_Day", "http://dbpedia.org/resource/Knut's_party", "http://dbpedia.org/resource/Saint_Knut's_Day", "http://dbpedia.org/resource/Sweden_Finns'_Day", 'http://dbpedia.org/resource/Veterans_Day_(Sweden)', 'http://dbpedia.org/resource/Victoria_Days']</t>
   </si>
   <si>
@@ -1385,15 +1183,9 @@
     <t>['http://dbpedia.org/resource/New_Delhi']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/Canada']</t>
-  </si>
-  <si>
     <t>['1.9812']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/Benin', 'http://dbpedia.org/resource/Burkina_Faso', 'http://dbpedia.org/resource/Colonial_Mauritania', 'http://dbpedia.org/resource/Colony_of_Niger', 'http://dbpedia.org/resource/Economic_Community_of_West_African_States', 'http://dbpedia.org/resource/French_Dahomey', 'http://dbpedia.org/resource/French_Togoland', 'http://dbpedia.org/resource/Guinea-Bissau', 'http://dbpedia.org/resource/History_of_Togo', 'http://dbpedia.org/resource/Ivory_Coast', 'http://dbpedia.org/resource/Mali', 'http://dbpedia.org/resource/Niger', "http://dbpedia.org/resource/People's_Republic_of_Benin", 'http://dbpedia.org/resource/Republic_of_Dahomey', 'http://dbpedia.org/resource/Republic_of_Upper_Volta', 'http://dbpedia.org/resource/Senegal', 'http://dbpedia.org/resource/Senegambia_Confederation', 'http://dbpedia.org/resource/Togo']</t>
   </si>
   <si>
@@ -1418,24 +1210,9 @@
     <t>['http://dbpedia.org/resource/John_Augustus_Roebling']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/Ramin_Djawadi']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Apocalypse_Now_Redux', 'http://dbpedia.org/resource/Battle_Beyond_the_Sun', "http://dbpedia.org/resource/Bram_Stoker's_Dracula_(1992_film)", 'http://dbpedia.org/resource/Captain_EO', 'http://dbpedia.org/resource/Dementia_13', 'http://dbpedia.org/resource/Distant_Vision', "http://dbpedia.org/resource/Finian's_Rainbow_(1968_film)", 'http://dbpedia.org/resource/Gardens_of_Stone', 'http://dbpedia.org/resource/Jack_(1996_film)', 'http://dbpedia.org/resource/Megalopolis_(film)', 'http://dbpedia.org/resource/New_York_Stories', 'http://dbpedia.org/resource/One_from_the_Heart', 'http://dbpedia.org/resource/Peggy_Sue_Got_Married', 'http://dbpedia.org/resource/Rumble_Fish', 'http://dbpedia.org/resource/Supernova_(2000_film)', 'http://dbpedia.org/resource/Tetro', 'http://dbpedia.org/resource/The_Bellboy_and_the_Playgirls', 'http://dbpedia.org/resource/The_Conversation', 'http://dbpedia.org/resource/The_Cotton_Club_(film)', 'http://dbpedia.org/resource/The_Godfather_(film_series)', 'http://dbpedia.org/resource/The_Godfather_Part_II', 'http://dbpedia.org/resource/The_Godfather_Part_III', 'http://dbpedia.org/resource/The_Godfather_Saga__The_Godfather_Trilogy:_1901–1980__1', 'http://dbpedia.org/resource/The_Godfather', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/The_Rain_People', 'http://dbpedia.org/resource/The_Rainmaker_(1997_film)', 'http://dbpedia.org/resource/The_Terror_(1963_film)', 'http://dbpedia.org/resource/Tonight_for_Sure', 'http://dbpedia.org/resource/Tucker:_The_Man_and_His_Dream', 'http://dbpedia.org/resource/Twixt_(film)', "http://dbpedia.org/resource/You're_a_Big_Boy_Now", 'http://dbpedia.org/resource/Youth_Without_Youth_(film)']</t>
-  </si>
-  <si>
-    <t>['Adele Laurie Blue Adkins']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Seven_Seas_of_Rhye']</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/Czech_koruna']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/Adolf_Klein', 'http://dbpedia.org/resource/Eduard_von_Winterstein', 'http://dbpedia.org/resource/Eleonore_de_Ahna', 'http://dbpedia.org/resource/Emil_Justitz', 'http://dbpedia.org/resource/Erik_Jan_Hanussen', 'http://dbpedia.org/resource/Eva_Schmidt-Kolmer', 'http://dbpedia.org/resource/Gerda_Laski', 'http://dbpedia.org/resource/Guido_von_List', 'http://dbpedia.org/resource/Hans_Fidesser', 'http://dbpedia.org/resource/Heinrich_Belohlavek', 'http://dbpedia.org/resource/Hugo_Flink', 'http://dbpedia.org/resource/Josephine_Pagay', 'http://dbpedia.org/resource/Karl_Etlinger', 'http://dbpedia.org/resource/Karl_Hellmer', 'http://dbpedia.org/resource/La_Jana_(actress)', 'http://dbpedia.org/resource/Luise_Begas-Parmentier', 'http://dbpedia.org/resource/Mathilde_Danegger', 'http://dbpedia.org/resource/Michael_von_Newlinsky', 'http://dbpedia.org/resource/Richard_Thurnwald', 'http://dbpedia.org/resource/Robert_Bodanzky', 'http://dbpedia.org/resource/Steffie_Spira', 'http://dbpedia.org/resource/Therese_Grünbaum', 'http://dbpedia.org/resource/Tom_Seidmann-Freud']</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/Passerelle_Debilly', 'http://dbpedia.org/resource/Passerelle_Simone-de-Beauvoir', 'http://dbpedia.org/resource/Pont_Alexandre_III', 'http://dbpedia.org/resource/Pont_amont', 'http://dbpedia.org/resource/Pont_au_Change', 'http://dbpedia.org/resource/Pont_au_Double', 'http://dbpedia.org/resource/Pont_aval', 'http://dbpedia.org/resource/Pont_Charles-de-Gaulle', "http://dbpedia.org/resource/Pont_d'Austerlitz", "http://dbpedia.org/resource/Pont_d'Iéna", 'http://dbpedia.org/resource/Pont_de_Bercy', 'http://dbpedia.org/resource/Pont_de_Bir-Hakeim', 'http://dbpedia.org/resource/Pont_de_Brotonne', 'http://dbpedia.org/resource/Pont_de_Grenelle', "http://dbpedia.org/resource/Pont_de_l'Alma", "http://dbpedia.org/resource/Pont_de_l'Archevêché", 'http://dbpedia.org/resource/Pont_de_la_Concorde_(Paris)', 'http://dbpedia.org/resource/Pont_de_la_Tournelle', 'http://dbpedia.org/resource/Pont_de_Neuilly', 'http://dbpedia.org/resource/Pont_de_Normandie', 'http://dbpedia.org/resource/Pont_de_Sully', 'http://dbpedia.org/resource/Pont_de_Tolbiac', 'http://dbpedia.org/resource/Pont_des_Invalides', 'http://dbpedia.org/resource/Pont_du_Carrousel', 'http://dbpedia.org/resource/Pont_du_Garigliano', 'http://dbpedia.org/resource/Pont_Gustave-Flaubert', 'http://dbpedia.org/resource/Pont_Louis-Philippe', 'http://dbpedia.org/resource/Pont_Marie', 'http://dbpedia.org/resource/Pont_National', 'http://dbpedia.org/resource/Pont_Neuf', 'http://dbpedia.org/resource/Pont_Notre-Dame', 'http://dbpedia.org/resource/Pont_Rouelle', 'http://dbpedia.org/resource/Pont_Royal', "http://dbpedia.org/resource/Port_à_l'Anglais_Bridge", "http://dbpedia.org/resource/Viaduc_d'Austerlitz"]</t>
   </si>
   <si>
@@ -1448,48 +1225,24 @@
     <t>['http://dbpedia.org/resource/Abdulrazak_Gurnah', 'http://dbpedia.org/resource/Aleksandr_Solzhenitsyn', 'http://dbpedia.org/resource/Alice_Munro', 'http://dbpedia.org/resource/Annie_Ernaux', 'http://dbpedia.org/resource/Czesław_Miłosz', "http://dbpedia.org/resource/Eugene_O'Neill", 'http://dbpedia.org/resource/Gerhart_Hauptmann', 'http://dbpedia.org/resource/Harold_Pinter', 'http://dbpedia.org/resource/Hermann_Hesse', 'http://dbpedia.org/resource/J._M._Coetzee', 'http://dbpedia.org/resource/John_Steinbeck', 'http://dbpedia.org/resource/José_Saramago', 'http://dbpedia.org/resource/Juan_Ramón_Jiménez', 'http://dbpedia.org/resource/Louise_Glück', 'http://dbpedia.org/resource/Octavio_Paz', 'http://dbpedia.org/resource/Olga_Tokarczuk', 'http://dbpedia.org/resource/Patrick_Modiano', 'http://dbpedia.org/resource/Patrick_White', 'http://dbpedia.org/resource/Sorley_MacLean', 'http://dbpedia.org/resource/Svetlana_Alexievich', 'http://dbpedia.org/resource/Thomas_Mann', 'http://dbpedia.org/resource/Toni_Morrison', 'http://dbpedia.org/resource/William_Faulkner', 'http://dbpedia.org/resource/William_Golding__William_Golding__1', 'http://dbpedia.org/resource/Wisława_Szymborska']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/A._J._Bramlett', 'http://dbpedia.org/resource/A._J._Brodeur', 'http://dbpedia.org/resource/A._J._Davis_(basketball)', 'http://dbpedia.org/resource/A._J._Edu', 'http://dbpedia.org/resource/A._J._Granger', 'http://dbpedia.org/resource/A._J._Hammons', 'http://dbpedia.org/resource/A._W._Davis', 'http://dbpedia.org/resource/A._W._Holt', 'http://dbpedia.org/resource/A.C._Green', "http://dbpedia.org/resource/A'Darius_Pegues", 'http://dbpedia.org/resource/Aamir_Simms', 'http://dbpedia.org/resource/Aaric_Murray', 'http://dbpedia.org/resource/Aaron_Anderson_(basketball)', 'http://dbpedia.org/resource/Aaron_Epps', 'http://dbpedia.org/resource/Aaron_Falzon', 'http://dbpedia.org/resource/Aaron_Gordon', 'http://dbpedia.org/resource/Aaron_Gray', 'http://dbpedia.org/resource/Aaron_Harper_(basketball)', 'http://dbpedia.org/resource/Aaron_James_(basketball)', 'http://dbpedia.org/resource/Aaron_McGhee', 'http://dbpedia.org/resource/Aaron_White_(basketball)', 'http://dbpedia.org/resource/Aaron_Williams_(basketball)', 'http://dbpedia.org/resource/Abdel_Kader_Sylla', 'http://dbpedia.org/resource/Abdelrahman_Abdelhaleem', 'http://dbpedia.org/resource/Abdou_Badji', 'http://dbpedia.org/resource/Abdoul_Karim_Coulibaly', 'http://dbpedia.org/resource/Abdul_Jeelani', 'http://dbpedia.org/resource/Abdul_Shamsid-Deen', 'http://dbpedia.org/resource/Abdul_Yahaya', 'http://dbpedia.org/resource/Abdul-Malik_Abu', 'http://dbpedia.org/resource/Abdullah_Matalkeh', 'http://dbpedia.org/resource/Abdullahi_Kuso', 'http://dbpedia.org/resource/Abibou_Toure', 'http://dbpedia.org/resource/Abu_Kigab', 'http://dbpedia.org/resource/Ace_Custis', 'http://dbpedia.org/resource/Ace_Gruenig', 'http://dbpedia.org/resource/Acie_Earl', 'http://dbpedia.org/resource/AD_Smith', 'http://dbpedia.org/resource/Adam_Chubb', 'http://dbpedia.org/resource/Adam_Hrycaniuk', 'http://dbpedia.org/resource/Adam_Keefe_(basketball)', 'http://dbpedia.org/resource/Adam_Kemp', 'http://dbpedia.org/resource/Adam_Koch', 'http://dbpedia.org/resource/Adam_Łapeta', 'http://dbpedia.org/resource/Adam_Morrison', 'http://dbpedia.org/resource/Adam_Parada', 'http://dbpedia.org/resource/Adam_Pecháček', 'http://dbpedia.org/resource/Adam_Woodbury', 'http://dbpedia.org/resource/Adama_Diakhite', 'http://dbpedia.org/resource/Adama_Sanogo', 'http://dbpedia.org/resource/Adarrial_Smylie', 'http://dbpedia.org/resource/Adem_Bona', 'http://dbpedia.org/resource/Adem_Ören', 'http://dbpedia.org/resource/Adnan_Hodžić', 'http://dbpedia.org/resource/Adonal_Foyle', 'http://dbpedia.org/resource/Adreian_Payne', 'http://dbpedia.org/resource/Adrian_Branch', 'http://dbpedia.org/resource/Adrian_Caldwell', 'http://dbpedia.org/resource/Adrian_Moss_(basketball,_born_1981)', 'http://dbpedia.org/resource/Adrián_Zamora', 'http://dbpedia.org/resource/Aerick_Sanders', 'http://dbpedia.org/resource/Agustín_Caffaro', 'http://dbpedia.org/resource/Aher_Uguak', 'http://dbpedia.org/resource/Ahmad_Ibrahim_(basketball)', 'http://dbpedia.org/resource/Ahmad_Nivins', 'http://dbpedia.org/resource/Ahsan_Asadullah', 'http://dbpedia.org/resource/Aidan_Igiehon', 'http://dbpedia.org/resource/Ajak_Magot', 'http://dbpedia.org/resource/Ajdin_Penava', 'http://dbpedia.org/resource/Ajou_Deng', 'http://dbpedia.org/resource/Akin_Akingbala', 'http://dbpedia.org/resource/Al_Beard', 'http://dbpedia.org/resource/Al_Bunge', 'http://dbpedia.org/resource/Al_Carlson_(basketball)', 'http://dbpedia.org/resource/Al_Cueto', 'http://dbpedia.org/resource/Al_Fleming_(basketball)', 'http://dbpedia.org/resource/Al_Harrington', 'http://dbpedia.org/resource/Al_Henry', 'http://dbpedia.org/resource/Al_Horford', 'http://dbpedia.org/resource/Al_Jefferson', 'http://dbpedia.org/resource/Al_Miksis', 'http://dbpedia.org/resource/Al_Salvadori', 'http://dbpedia.org/resource/Al_Sanders_(basketball)', 'http://dbpedia.org/resource/Al_Thornton', 'http://dbpedia.org/resource/Al_Tucker', 'http://dbpedia.org/resource/Al-Farouq_Aminu', 'http://dbpedia.org/resource/Alaa_Abdelnaby', 'http://dbpedia.org/resource/Alade_Aminu', 'http://dbpedia.org/resource/Alain_Koffi', 'http://dbpedia.org/resource/Alan_Hardy_(basketball)', 'http://dbpedia.org/resource/Alan_Henderson', 'http://dbpedia.org/resource/Alan_Ogg', 'http://dbpedia.org/resource/Alan_Wiggins_Jr.', 'http://dbpedia.org/resource/Alan_Williams_(basketball)', 'http://dbpedia.org/resource/Albert_Almanza', 'http://dbpedia.org/resource/Albert_Burditt', 'http://dbpedia.org/resource/Albert_Culton', 'http://dbpedia.org/resource/Alberto_Corbacho', 'http://dbpedia.org/resource/Alberto_Herreros', 'http://dbpedia.org/resource/Alec_Brown', 'http://dbpedia.org/resource/Alec_Kessler', 'http://dbpedia.org/resource/Alec_Peters', 'http://dbpedia.org/resource/Aleem_Ford', 'http://dbpedia.org/resource/Alekos_Petroulas', 'http://dbpedia.org/resource/Aleks_Marić', 'http://dbpedia.org/resource/Aleksandar_Lazić', 'http://dbpedia.org/resource/Aleksandar_Pavlović', 'http://dbpedia.org/resource/Aleksandar_Radojević', 'http://dbpedia.org/resource/Aleksandar_Šterjov', 'http://dbpedia.org/resource/Aleksandar_Todorović', 'http://dbpedia.org/resource/Aleksandar_Vezenkov', 'http://dbpedia.org/resource/Aleksandar_Zečević_(basketball,_born_1996)', 'http://dbpedia.org/resource/Aleksandr_Boloshev', 'http://dbpedia.org/resource/Aleksej_Pokuševski', 'http://dbpedia.org/resource/Alen_Smailagić', 'http://dbpedia.org/resource/Alessandro_Tonolli', 'http://dbpedia.org/resource/Alex_Chubrevich', 'http://dbpedia.org/resource/Alex_Crisano', 'http://dbpedia.org/resource/Alex_Davis_(basketball)', 'http://dbpedia.org/resource/Alex_English', 'http://dbpedia.org/resource/Alex_Galindo', 'http://dbpedia.org/resource/Alex_Gilbert_(basketball)', 'http://dbpedia.org/resource/Alex_Groza', 'http://dbpedia.org/resource/Alex_Hannum', 'http://dbpedia.org/resource/Alex_Holcombe', 'http://dbpedia.org/resource/Alex_Jensen', 'http://dbpedia.org/resource/Alex_Jones_(basketball)', 'http://dbpedia.org/resource/Alex_King_(basketball)', 'http://dbpedia.org/resource/Alex_Kirk', 'http://dbpedia.org/resource/Alex_Len', 'http://dbpedia.org/resource/Alex_Liatsos', 'http://dbpedia.org/resource/Álex_Mumbrú', 'http://dbpedia.org/resource/Alex_Murphy_(basketball)', 'http://dbpedia.org/resource/Alex_Oriakhi', 'http://dbpedia.org/resource/Alex_Poythress', 'http://dbpedia.org/resource/Alex_Rosenberg_(basketball)', 'http://dbpedia.org/resource/Alex_Stepheson', 'http://dbpedia.org/resource/Alex_Stivrins', 'http://dbpedia.org/resource/Álex_Suárez_(basketball)', 'http://dbpedia.org/resource/Alex_Tyus', 'http://dbpedia.org/resource/Alexander_Belov', 'http://dbpedia.org/resource/Alexander_Ermolinskij', 'http://dbpedia.org/resource/Alexander_Johnson_(basketball)__Alexander_Johnson__1', 'http://dbpedia.org/resource/Alexander_Kühl', 'http://dbpedia.org/resource/Alexander_Lokhmanchuk', 'http://dbpedia.org/resource/Alexander_Nelcha', 'http://dbpedia.org/resource/Alexander_Petrenko', 'http://dbpedia.org/resource/Alexander_Sizonenko', 'http://dbpedia.org/resource/Alexander_Volkov_(basketball)', 'http://dbpedia.org/resource/Alexander_Zakharov_(basketball)', 'http://dbpedia.org/resource/Alexandros_Sigkounas', 'http://dbpedia.org/resource/Alexandros_Varitimiadis', 'http://dbpedia.org/resource/Alexandru_Olah', 'http://dbpedia.org/resource/Alexis_Ajinça', 'http://dbpedia.org/resource/Alexis_Wangmene', 'http://dbpedia.org/resource/Alexis_Yetna', 'http://dbpedia.org/resource/Alfa_Ntiallo', 'http://dbpedia.org/resource/Alfons_Alzamora', 'http://dbpedia.org/resource/Alfonso_Reyes_(basketball)', 'http://dbpedia.org/resource/Alfonzo_McKinnie', 'http://dbpedia.org/resource/Alfred_Aboya', 'http://dbpedia.org/resource/Ali_Demić', 'http://dbpedia.org/resource/Ali_Doraghi', 'http://dbpedia.org/resource/Ali_Fakhreddine', 'http://dbpedia.org/resource/Ali_Haidar_(basketball)', 'http://dbpedia.org/resource/Ali_Jamal_Zaghab', 'http://dbpedia.org/resource/Ali_Traoré', 'http://dbpedia.org/resource/Alihan_Demir', 'http://dbpedia.org/resource/Alison_Bales', 'http://dbpedia.org/resource/Alize_Johnson', 'http://dbpedia.org/resource/Allan_Bristow', 'http://dbpedia.org/resource/Alonzo_Mourning', 'http://dbpedia.org/resource/Alperen_Şengün', 'http://dbpedia.org/resource/Alpha_Diallo_(basketball,_born_1997)', 'http://dbpedia.org/resource/Alpha_Kaba', 'http://dbpedia.org/resource/Alton_Ford', 'http://dbpedia.org/resource/Alton_Lister', 'http://dbpedia.org/resource/Alvan_Adams', 'http://dbpedia.org/resource/Álvaro_Teherán', 'http://dbpedia.org/resource/Alvin_Heggs', 'http://dbpedia.org/resource/Alvin_Jones_(basketball)', 'http://dbpedia.org/resource/Alvin_Scott', 'http://dbpedia.org/resource/Alzhan_Zharmukhamedov', 'http://dbpedia.org/resource/Amadou_Aboubakar_Zaki', 'http://dbpedia.org/resource/Amal_McCaskill', 'http://dbpedia.org/resource/Amanze_Egekeze', "http://dbpedia.org/resource/Amar'e_Stoudemire", 'http://dbpedia.org/resource/Amara_Sy', "http://dbpedia.org/resource/Amath_M'Baye", 'http://dbpedia.org/resource/Amen_Thompson', 'http://dbpedia.org/resource/Amida_Brimah', 'http://dbpedia.org/resource/Amile_Jefferson', 'http://dbpedia.org/resource/Amir_Coffey', 'http://dbpedia.org/resource/Amir_Johnson', 'http://dbpedia.org/resource/Amir_Sedighi', 'http://dbpedia.org/resource/Amjyot_Singh', 'http://dbpedia.org/resource/Amos_Thomas_(basketball)', 'http://dbpedia.org/resource/Anas_Mahmoud', 'http://dbpedia.org/resource/Anatoli_Polivoda', 'http://dbpedia.org/resource/Anatoly_Myshkin', 'http://dbpedia.org/resource/Anatoly_Zourpenko', 'http://dbpedia.org/resource/Anderson_Varejão', 'http://dbpedia.org/resource/Andrae_Patterson__Andrae_Patterson__1', 'http://dbpedia.org/resource/Andray_Blatche', 'http://dbpedia.org/resource/Andre_Brown_(basketball)', 'http://dbpedia.org/resource/Andre_Drummond', 'http://dbpedia.org/resource/André_Ernesto_Stoffel', 'http://dbpedia.org/resource/Andre_Hutson', 'http://dbpedia.org/resource/Andre_Moore', 'http://dbpedia.org/resource/Andre_Patterson', 'http://dbpedia.org/resource/Andre_Riddick', 'http://dbpedia.org/resource/André_Roberson', 'http://dbpedia.org/resource/Andre_Smith_(basketball,_born_1985)', 'http://dbpedia.org/resource/Andre_Smith_(Nebraska_basketball)', 'http://dbpedia.org/resource/Andrea_Bargnani', 'http://dbpedia.org/resource/Andrea_Conti_(basketball)', 'http://dbpedia.org/resource/Andrea_Crosariol', 'http://dbpedia.org/resource/Andrea_Meneghin', 'http://dbpedia.org/resource/Andreas_Glyniadakis', 'http://dbpedia.org/resource/Andreas_Kanonidis', 'http://dbpedia.org/resource/Andreas_Pelekoudas', 'http://dbpedia.org/resource/Andreas_Schreiber', 'http://dbpedia.org/resource/Andreas_Tsoumanis', 'http://dbpedia.org/resource/Andrei_Fetisov', 'http://dbpedia.org/resource/Andrei_Kirilenko', 'http://dbpedia.org/resource/Andrej_Stojaković', 'http://dbpedia.org/resource/Andrés_Guibert', 'http://dbpedia.org/resource/Andrés_Jiménez_(basketball)', 'http://dbpedia.org/resource/Andrés_Nocioni', 'http://dbpedia.org/resource/Andrew_Betts', 'http://dbpedia.org/resource/Andrew_Bogut', 'http://dbpedia.org/resource/Andrew_Bynum', 'http://dbpedia.org/resource/Andrew_DeClercq', 'http://dbpedia.org/resource/Andrew_Fields', 'http://dbpedia.org/resource/Andrew_Fitzgerald_(basketball)', 'http://dbpedia.org/resource/Andrew_Kennedy_(basketball)', 'http://dbpedia.org/resource/Andrew_Lang_(basketball)', 'http://dbpedia.org/resource/Andrew_Nicholson_(basketball)', 'http://dbpedia.org/resource/Andrew_Smith_(basketball,_born_1990)', 'http://dbpedia.org/resource/Andrew_Sullivan_(basketball)', 'http://dbpedia.org/resource/Andrew_Vlahov', 'http://dbpedia.org/resource/Andrew_White_(basketball)', 'http://dbpedia.org/resource/Andrew_Wiggins', 'http://dbpedia.org/resource/Andrey_Desyatnikov', 'http://dbpedia.org/resource/Andrey_Lopatov', 'http://dbpedia.org/resource/Andrianos_Perdikaris', 'http://dbpedia.org/resource/Andris_Biedriņš', 'http://dbpedia.org/resource/Andrius_Jurkūnas', 'http://dbpedia.org/resource/Andrius_Šležas', 'http://dbpedia.org/resource/Andriy_Malysh', 'http://dbpedia.org/resource/Andro_Knego', 'http://dbpedia.org/resource/Andronikos_Gizogiannis', 'http://dbpedia.org/resource/Andy_Ogide', 'http://dbpedia.org/resource/Andy_Panko', 'http://dbpedia.org/resource/Andy_Seigle', 'http://dbpedia.org/resource/Andy_Van_Vliet', 'http://dbpedia.org/resource/Ange_Kouame', 'http://dbpedia.org/resource/Ángel_Delgado', 'http://dbpedia.org/resource/Ángel_García_(basketball,_born_1988)__Ángel_García__1', 'http://dbpedia.org/resource/Angelo_Caloiaro', 'http://dbpedia.org/resource/Angelo_Chol', 'http://dbpedia.org/resource/Angelo_Gigli', 'http://dbpedia.org/resource/Angelo_Reyes_(basketball)', 'http://dbpedia.org/resource/Angelos_Siamandouras', 'http://dbpedia.org/resource/Anna_Prins', 'http://dbpedia.org/resource/Anne_Donovan', 'http://dbpedia.org/resource/Ansley_Truitt', 'http://dbpedia.org/resource/Ansu_Sesay', 'http://dbpedia.org/resource/Antanas_Kavaliauskas', 'http://dbpedia.org/resource/Antawn_Jamison', 'http://dbpedia.org/resource/Ante_Đugum', 'http://dbpedia.org/resource/Ante_Grgurević', 'http://dbpedia.org/resource/Ante_Krapić', 'http://dbpedia.org/resource/Ante_Mašić', 'http://dbpedia.org/resource/Ante_Žižić', 'http://dbpedia.org/resource/Anthony_Avent', 'http://dbpedia.org/resource/Anthony_Bennett_(basketball)', 'http://dbpedia.org/resource/Anthony_Bonner__Anthony_Bonner__1', 'http://dbpedia.org/resource/Anthony_Brown_(basketball)', 'http://dbpedia.org/resource/Anthony_Cook_(basketball)', 'http://dbpedia.org/resource/Anthony_Davis', 'http://dbpedia.org/resource/Anthony_Duruji', 'http://dbpedia.org/resource/Anthony_Elechi', 'http://dbpedia.org/resource/Anthony_Fernandez', 'http://dbpedia.org/resource/Anthony_Frederick', 'http://dbpedia.org/resource/Anthony_Gill_(basketball)', 'http://dbpedia.org/resource/Anthony_Jones_(basketball,_born_1967)', 'http://dbpedia.org/resource/Anthony_King_(basketball)', 'http://dbpedia.org/resource/Anthony_Lawrence_(basketball)', 'http://dbpedia.org/resource/Anthony_Mason_(basketball)', 'http://dbpedia.org/resource/Anthony_McHenry', 'http://dbpedia.org/resource/Anthony_Miller_(basketball)', 'http://dbpedia.org/resource/Anthony_Myles_(basketball,_born_1982)', 'http://dbpedia.org/resource/Anthony_Pelle', 'http://dbpedia.org/resource/Anthony_Pérez_(basketball)', 'http://dbpedia.org/resource/Anthony_Pullard', 'http://dbpedia.org/resource/Anthony_Randolph', 'http://dbpedia.org/resource/Anthony_Richardson_(basketball)', 'http://dbpedia.org/resource/Anthony_Smith_(basketball)', 'http://dbpedia.org/resource/Anthony_Stover', 'http://dbpedia.org/resource/Anthony_Teachey', 'http://dbpedia.org/resource/Anthony_Tolliver', 'http://dbpedia.org/resource/Anthony_Tucker_(basketball)', 'http://dbpedia.org/resource/Antoine_Carr', 'http://dbpedia.org/resource/Antoine_Joseph', 'http://dbpedia.org/resource/Antoine_Rigaudeau', 'http://dbpedia.org/resource/Antoine_Walker', 'http://dbpedia.org/resource/Antoine_Wright_(basketball)', 'http://dbpedia.org/resource/Anton_Odabasi', 'http://dbpedia.org/resource/Anton_Pushkov', 'http://dbpedia.org/resource/Anton_Shoutvin', 'http://dbpedia.org/resource/Anton_Watson', 'http://dbpedia.org/resource/Antone_Warren', 'http://dbpedia.org/resource/Antonio_Campbell', 'http://dbpedia.org/resource/Antonio_Davis__Antonio_Davis__1', 'http://dbpedia.org/resource/Antonio_Granger', 'http://dbpedia.org/resource/Antonio_Harvey', 'http://dbpedia.org/resource/Antonio_Lang', 'http://dbpedia.org/resource/Antonio_Martín_Espina', 'http://dbpedia.org/resource/Antonio_McDyess', 'http://dbpedia.org/resource/Antonio_Meeking', 'http://dbpedia.org/resource/Antonio_Reynolds-Dean', 'http://dbpedia.org/resource/Antonios_Asimakopoulos', 'http://dbpedia.org/resource/Antonis_Fotsis', 'http://dbpedia.org/resource/Antonis_Michaloglou', 'http://dbpedia.org/resource/Antti_Nikkilä', 'http://dbpedia.org/resource/Antwain_Smith', 'http://dbpedia.org/resource/Antwaine_Wiggins', 'http://dbpedia.org/resource/Antwan_January', 'http://dbpedia.org/resource/Antywane_Robinson', 'http://dbpedia.org/resource/Anwar_Ferguson', 'http://dbpedia.org/resource/Anžejs_Pasečņiks', 'http://dbpedia.org/resource/Aramis_Naglić', 'http://dbpedia.org/resource/Archie_Dees', 'http://dbpedia.org/resource/Archie_Marshall_(basketball)', 'http://dbpedia.org/resource/Argiris_Kambouris', 'http://dbpedia.org/resource/Argiris_Papapetrou', 'http://dbpedia.org/resource/Aric_Holman', 'http://dbpedia.org/resource/Arijan_Komazec', 'http://dbpedia.org/resource/Arinze_Onuaku', 'http://dbpedia.org/resource/Aristides_Josuel_dos_Santos', 'http://dbpedia.org/resource/Arman_Zangeneh', 'http://dbpedia.org/resource/Armando_Bacot', 'http://dbpedia.org/resource/Armen_Gilliam', 'http://dbpedia.org/resource/Arnaud_Cotture', 'http://dbpedia.org/resource/Arnett_Moultrie', 'http://dbpedia.org/resource/Arnette_Hallman', 'http://dbpedia.org/resource/Arnie_Risen', 'http://dbpedia.org/resource/Arnis_Vecvagars', 'http://dbpedia.org/resource/Arnold_Van_Opstal', 'http://dbpedia.org/resource/Aron_Baynes', 'http://dbpedia.org/resource/Arsalan_Kazemi', 'http://dbpedia.org/resource/Art_Becker', 'http://dbpedia.org/resource/Art_Hillhouse', 'http://dbpedia.org/resource/Art_Long', 'http://dbpedia.org/resource/Art_Spoelstra', 'http://dbpedia.org/resource/Artem_Zabelin', 'http://dbpedia.org/resource/Arthur_Johnson_(basketball)', 'http://dbpedia.org/resource/Arthur_Kaluma', 'http://dbpedia.org/resource/Arthur_Kenney_(basketball)', 'http://dbpedia.org/resource/Artis_Gilmore', 'http://dbpedia.org/resource/Artsiom_Parakhouski', 'http://dbpedia.org/resource/Artūras_Javtokas', 'http://dbpedia.org/resource/Artūras_Jomantas', 'http://dbpedia.org/resource/Artūras_Masiulis', 'http://dbpedia.org/resource/Arvid_Kramer', 'http://dbpedia.org/resource/Arvydas_Sabonis', 'http://dbpedia.org/resource/Asbjørn_Midtgaard', 'http://dbpedia.org/resource/Asghar_Kardoust', 'http://dbpedia.org/resource/Ashante_Johnson', 'http://dbpedia.org/resource/Ashley_Hamilton_(basketball)', 'http://dbpedia.org/resource/Ashraf_Amaya', 'http://dbpedia.org/resource/Ashton_Pankey', 'http://dbpedia.org/resource/Asi_Taulava', 'http://dbpedia.org/resource/Asım_Pars', 'http://dbpedia.org/resource/Asko_Paade', 'http://dbpedia.org/resource/Assem_Marei', 'http://dbpedia.org/resource/Astan_Dabo', 'http://dbpedia.org/resource/Atanas_Golomeev', 'http://dbpedia.org/resource/Ater_Majok', 'http://dbpedia.org/resource/Atsuya_Ota', 'http://dbpedia.org/resource/Attarius_Norwood', 'http://dbpedia.org/resource/Audie_Norris', 'http://dbpedia.org/resource/Augustine_Rubit', 'http://dbpedia.org/resource/Augusto_Binelli', 'http://dbpedia.org/resource/Augusto_Lima', 'http://dbpedia.org/resource/Augustus_Gilchrist', 'http://dbpedia.org/resource/Aulcie_Perry', 'http://dbpedia.org/resource/Aurimas_Kieža', 'http://dbpedia.org/resource/Aurimas_Majauskas', 'http://dbpedia.org/resource/Ausar_Thompson', 'http://dbpedia.org/resource/Austin_Croshere', 'http://dbpedia.org/resource/Austin_Dufault', 'http://dbpedia.org/resource/Austin_Nichols_(basketball)', 'http://dbpedia.org/resource/Austin_Steed', 'http://dbpedia.org/resource/Austin_Wiley', 'http://dbpedia.org/resource/Axel_Bouteille', 'http://dbpedia.org/resource/Axel_Hervelle', 'http://dbpedia.org/resource/Axel_Toupane', 'http://dbpedia.org/resource/Ayberk_Olmaz', 'http://dbpedia.org/resource/Ayman_Adais', 'http://dbpedia.org/resource/B._B._Davis', 'http://dbpedia.org/resource/B._H._Born', 'http://dbpedia.org/resource/B._J._Johnson_(basketball)', 'http://dbpedia.org/resource/Babacar_Camara', 'http://dbpedia.org/resource/Babacar_Sané', 'http://dbpedia.org/resource/Babacar_Touré', 'http://dbpedia.org/resource/Bailey_Howell', 'http://dbpedia.org/resource/Bakari_Hendrix', 'http://dbpedia.org/resource/Balša_Koprivica', 'http://dbpedia.org/resource/Balša_Radunović', 'http://dbpedia.org/resource/Bam_Adebayo', 'http://dbpedia.org/resource/Bamba_Fall', 'http://dbpedia.org/resource/Bambale_Osby', 'http://dbpedia.org/resource/Bara_Diop', 'http://dbpedia.org/resource/Bariša_Krasić', 'http://dbpedia.org/resource/Barış_Hersek', 'http://dbpedia.org/resource/Barney_Cable', 'http://dbpedia.org/resource/Barry_Mungar', 'http://dbpedia.org/resource/Barry_Nelson_(basketball)', 'http://dbpedia.org/resource/Barry_Sumpter', 'http://dbpedia.org/resource/Barry_Yates', 'http://dbpedia.org/resource/Bas_Veenstra', 'http://dbpedia.org/resource/Bassel_Bawji', 'http://dbpedia.org/resource/Bayard_Forrest', 'http://dbpedia.org/resource/Baye_Fall_(basketball)', 'http://dbpedia.org/resource/Beau_Beech', 'http://dbpedia.org/resource/Bechir_Hadidane', 'http://dbpedia.org/resource/BeeJay_Anya', 'http://dbpedia.org/resource/Beka_Burjanadze', 'http://dbpedia.org/resource/Bekir_Yarangüme', 'http://dbpedia.org/resource/Ben_Altit', 'http://dbpedia.org/resource/Ben_Carter_(basketball)', 'http://dbpedia.org/resource/Ben_Clyde', 'http://dbpedia.org/resource/Ben_Coleman_(basketball)', 'http://dbpedia.org/resource/Ben_Davis_(basketball)', 'http://dbpedia.org/resource/Ben_Eisenhardt', 'http://dbpedia.org/resource/Ben_Gillery', 'http://dbpedia.org/resource/Ben_Handlogten', 'http://dbpedia.org/resource/Ben_Lammers', 'http://dbpedia.org/resource/Ben_Lawson_(basketball)', 'http://dbpedia.org/resource/Ben_McCauley', 'http://dbpedia.org/resource/Ben_McDonald_(basketball)', 'http://dbpedia.org/resource/Ben_Moore_(basketball)', 'http://dbpedia.org/resource/Ben_Poquette', 'http://dbpedia.org/resource/Ben_Simmons', 'http://dbpedia.org/resource/Ben_Strong_(basketball)', 'http://dbpedia.org/resource/Ben_Sullivan_(basketball)', 'http://dbpedia.org/resource/Ben_Vander_Plas', 'http://dbpedia.org/resource/Ben_Wallace_(basketball)', 'http://dbpedia.org/resource/Ben_Wilson_(basketball)', 'http://dbpedia.org/resource/Benjamin_Eze', 'http://dbpedia.org/resource/Benjamin_Ortner', 'http://dbpedia.org/resource/Bennett_Davison', 'http://dbpedia.org/resource/Bennett_Koch', 'http://dbpedia.org/resource/Bennie_Boatwright', 'http://dbpedia.org/resource/Bennie_Swain', 'http://dbpedia.org/resource/Benny_Williams_(basketball)', 'http://dbpedia.org/resource/Benoit_Benjamin', 'http://dbpedia.org/resource/Berend_Weijs', 'http://dbpedia.org/resource/Berk_Demir', 'http://dbpedia.org/resource/Berkan_Durmaz', 'http://dbpedia.org/resource/Berkay_Candan', 'http://dbpedia.org/resource/Bernadett_Határ', 'http://dbpedia.org/resource/Bernard_James', 'http://dbpedia.org/resource/Bernard_King', 'http://dbpedia.org/resource/Bernard_Toone', 'http://dbpedia.org/resource/Berni_Tamames', 'http://dbpedia.org/resource/Bernie_Harris_(basketball)', 'http://dbpedia.org/resource/Betinho_(basketball)', 'http://dbpedia.org/resource/Bevo_Francis', 'http://dbpedia.org/resource/Bevo_Nordmann', 'http://dbpedia.org/resource/Big_Moose_Meyer', 'http://dbpedia.org/resource/Bill_Allen_(basketball)', 'http://dbpedia.org/resource/Bill_Amis', 'http://dbpedia.org/resource/Bill_Buntin', 'http://dbpedia.org/resource/Bill_Bunting', 'http://dbpedia.org/resource/Bill_Campion', 'http://dbpedia.org/resource/Bill_Cartwright', 'http://dbpedia.org/resource/Bill_Chmielewski', 'http://dbpedia.org/resource/Bill_Coven', 'http://dbpedia.org/resource/Bill_Curley', 'http://dbpedia.org/resource/Bill_Dinwiddie', 'http://dbpedia.org/resource/Bill_Garner_(basketball)', 'http://dbpedia.org/resource/Bill_Garnett', 'http://dbpedia.org/resource/Bill_Gossett', 'http://dbpedia.org/resource/Bill_Hanzlik', 'http://dbpedia.org/resource/Bill_Henry_(basketball)', 'http://dbpedia.org/resource/Bill_Hewitt_(basketball)', 'http://dbpedia.org/resource/Bill_Hosket_Jr.', 'http://dbpedia.org/resource/Bill_Jones_(basketball,_born_1966)', 'http://dbpedia.org/resource/Bill_Laimbeer', 'http://dbpedia.org/resource/Bill_Logan_(basketball)', 'http://dbpedia.org/resource/Bill_Martin_(basketball)', 'http://dbpedia.org/resource/Bill_Mayfield', 'http://dbpedia.org/resource/Bill_McGill', 'http://dbpedia.org/resource/Bill_Melis', 'http://dbpedia.org/resource/Bill_Newton_(basketball)', 'http://dbpedia.org/resource/Bill_Roberts_(basketball)', 'http://dbpedia.org/resource/Bill_Robinzine', 'http://dbpedia.org/resource/Bill_Russell', 'http://dbpedia.org/resource/Bill_Sattler', 'http://dbpedia.org/resource/Bill_Schrader', 'http://dbpedia.org/resource/Bill_Spivey', 'http://dbpedia.org/resource/Bill_Stricker', 'http://dbpedia.org/resource/Bill_Thieben', 'http://dbpedia.org/resource/Bill_Turner_(basketball)', 'http://dbpedia.org/resource/Bill_Uhl', 'http://dbpedia.org/resource/Bill_Varner', 'http://dbpedia.org/resource/Bill_Walton', 'http://dbpedia.org/resource/Bill_Wennington', 'http://dbpedia.org/resource/Bill_Willoughby', 'http://dbpedia.org/resource/Billy_McShepard', 'http://dbpedia.org/resource/Billy_Owens', 'http://dbpedia.org/resource/Billy_Paultz', 'http://dbpedia.org/resource/Billy_Preston_(basketball)', 'http://dbpedia.org/resource/Billy_Singleton', 'http://dbpedia.org/resource/Billy_Thompson_(basketball)', 'http://dbpedia.org/resource/Billy_White_(basketball)', 'http://dbpedia.org/resource/Bismack_Biyombo', 'http://dbpedia.org/resource/Bison_Dele', 'http://dbpedia.org/resource/Blagota_Sekulić', 'http://dbpedia.org/resource/Blair_Rasmussen', 'http://dbpedia.org/resource/Blake_Aoki_Borysewicz', 'http://dbpedia.org/resource/Blake_Griffin', 'http://dbpedia.org/resource/Blerim_Mazreku', 'http://dbpedia.org/resource/Bo_Ellis__Bo_Ellis__1', 'http://dbpedia.org/resource/Bo_Outlaw', 'http://dbpedia.org/resource/Bob_Allen_(basketball)', 'http://dbpedia.org/resource/Bob_Armstrong_(basketball,_born_1933)', 'http://dbpedia.org/resource/Bob_Bedell', 'http://dbpedia.org/resource/Bob_Bigelow', 'http://dbpedia.org/resource/Bob_Boozer', 'http://dbpedia.org/resource/Bob_Brown_(basketball,_born_1921)', 'http://dbpedia.org/resource/Bob_Burrow', 'http://dbpedia.org/resource/Bob_Christian_(basketball)', 'http://dbpedia.org/resource/Bob_Cluggish', 'http://dbpedia.org/resource/Bob_Davis_(basketball_player)__Bob_Davis__1', 'http://dbpedia.org/resource/Bob_Dykstra', 'http://dbpedia.org/resource/Bob_Elliott_(basketball)', 'http://dbpedia.org/resource/Bob_Ferry', 'http://dbpedia.org/resource/Bob_Ford_(basketball)', 'http://dbpedia.org/resource/Bob_Greacen', 'http://dbpedia.org/resource/Bob_Hahn', 'http://dbpedia.org/resource/Bob_Harris_(basketball)', 'http://dbpedia.org/resource/Bob_Hogsett', 'http://dbpedia.org/resource/Bob_Hopkins__Bob_Hopkins__1', 'http://dbpedia.org/resource/Bob_Houbregs', 'http://dbpedia.org/resource/Bob_Kauffman', 'http://dbpedia.org/resource/Bob_Kurland', 'http://dbpedia.org/resource/Bob_Lanier', 'http://dbpedia.org/resource/Bob_Lavoy', 'http://dbpedia.org/resource/Bob_Lienhard', 'http://dbpedia.org/resource/Bob_Love', 'http://dbpedia.org/resource/Bob_Martin_(basketball)', 'http://dbpedia.org/resource/Bob_Mattick', 'http://dbpedia.org/resource/Bob_McAdoo', 'http://dbpedia.org/resource/Bob_McCurdy', 'http://dbpedia.org/resource/Bob_McKeen', 'http://dbpedia.org/resource/Bob_Miller_(basketball)', 'http://dbpedia.org/resource/Bob_Morse', 'http://dbpedia.org/resource/Bob_Myers', 'http://dbpedia.org/resource/Bob_Nash_(basketball)', 'http://dbpedia.org/resource/Bob_Netolicky', 'http://dbpedia.org/resource/Bob_Pelkington', 'http://dbpedia.org/resource/Bob_Pettit', 'http://dbpedia.org/resource/Bob_Riley_(basketball)', 'http://dbpedia.org/resource/Bob_Rule', 'http://dbpedia.org/resource/Bob_Spessard', 'http://dbpedia.org/resource/Bob_Thornton', 'http://dbpedia.org/resource/Bob_Woollard', 'http://dbpedia.org/resource/Boban_Janković', 'http://dbpedia.org/resource/Boban_Marjanović', 'http://dbpedia.org/resource/Bobby_Cattage', 'http://dbpedia.org/resource/Bobby_Croft', 'http://dbpedia.org/resource/Bobby_Jones_(basketball,_born_1951)', 'http://dbpedia.org/resource/Bobby_Jones_(basketball,_born_1984)', 'http://dbpedia.org/resource/Bobby_Lee_Hurt', 'http://dbpedia.org/resource/Bobby_Portis', 'http://dbpedia.org/resource/Bobby_Simmons', 'http://dbpedia.org/resource/Bobby_Speight', 'http://dbpedia.org/resource/Bobby_Watson_(basketball_coach)', 'http://dbpedia.org/resource/Bobby_Wilson_(basketball,_born_1944)', 'http://dbpedia.org/resource/Bojan_Subotić', 'http://dbpedia.org/resource/Bol_Bol', 'http://dbpedia.org/resource/Bonel_Balingit', "http://dbpedia.org/resource/Boniface_N'Dong", 'http://dbpedia.org/resource/Boo_Jackson__Boo_Jackson__1', 'http://dbpedia.org/resource/Bora_Paçun', 'http://dbpedia.org/resource/Boris_Diaw', 'http://dbpedia.org/resource/Boštjan_Nachbar', 'http://dbpedia.org/resource/Boubacar_Aw', 'http://dbpedia.org/resource/Boubacar_Coly', 'http://dbpedia.org/resource/Boubacar_Toure', 'http://dbpedia.org/resource/Brad_Branson', 'http://dbpedia.org/resource/Brad_Daugherty_(basketball)', 'http://dbpedia.org/resource/Brad_Lohaus', 'http://dbpedia.org/resource/Brad_Miley', 'http://dbpedia.org/resource/Brad_Miller_(basketball)', 'http://dbpedia.org/resource/Brad_Robinson_(basketball)', 'http://dbpedia.org/resource/Brad_Waldow', 'http://dbpedia.org/resource/Brad_Wright_(basketball)', 'http://dbpedia.org/resource/Bradley_Buckman', 'http://dbpedia.org/resource/Brady_Manek', 'http://dbpedia.org/resource/Brandan_Wright', 'http://dbpedia.org/resource/Brandon_Bass', 'http://dbpedia.org/resource/Brandon_Bowman', 'http://dbpedia.org/resource/Brandon_Clarke', 'http://dbpedia.org/resource/Brandon_Cole', 'http://dbpedia.org/resource/Brandon_Costner', 'http://dbpedia.org/resource/Brandon_Davies', 'http://dbpedia.org/resource/Brandon_Gilbeck', 'http://dbpedia.org/resource/Brandon_Hunter', 'http://dbpedia.org/resource/Brandon_Huntley-Hatfield', 'http://dbpedia.org/resource/Brandon_Ingram', 'http://dbpedia.org/resource/Brandon_McCoy', 'http://dbpedia.org/resource/Brandon_Miller_(basketball,_born_2002)', 'http://dbpedia.org/resource/Brandon_Penn', 'http://dbpedia.org/resource/Brandon_Sebirumbi', 'http://dbpedia.org/resource/Brandon_Slater', 'http://dbpedia.org/resource/Brandon_Ubel', 'http://dbpedia.org/resource/Brandon_Wallace', 'http://dbpedia.org/resource/Brant_Weidner', 'http://dbpedia.org/resource/Braxton_Key', 'http://dbpedia.org/resource/Brayon_Blake', 'http://dbpedia.org/resource/Brekkott_Chapman', 'http://dbpedia.org/resource/Brendan_Haywood', 'http://dbpedia.org/resource/Brendan_Lane_(basketball)', 'http://dbpedia.org/resource/Brennan_McElroy', 'http://dbpedia.org/resource/Brent_Barry', 'http://dbpedia.org/resource/Brent_Petway', 'http://dbpedia.org/resource/Brent_Scott_(basketball)', 'http://dbpedia.org/resource/Brent_Wright', 'http://dbpedia.org/resource/Bret_Brielmaier', 'http://dbpedia.org/resource/Brett_Roberts', 'http://dbpedia.org/resource/Brett_Szabo', 'http://dbpedia.org/resource/Brett_Vroman', 'http://dbpedia.org/resource/Brian_Beshara', 'http://dbpedia.org/resource/Brian_Butch', 'http://dbpedia.org/resource/Brian_Cardinal', 'http://dbpedia.org/resource/Brian_Cook_(basketball)', 'http://dbpedia.org/resource/Brian_Cusworth', 'http://dbpedia.org/resource/Brian_Davis_(basketball)', 'http://dbpedia.org/resource/Brian_Evans_(basketball)', 'http://dbpedia.org/resource/Brian_Fitzpatrick_(basketball)', 'http://dbpedia.org/resource/Brian_Grant', 'http://dbpedia.org/resource/Brian_Jackson_(basketball)', 'http://dbpedia.org/resource/Brian_Kerle', 'http://dbpedia.org/resource/Brian_Martin_(basketball)', 'http://dbpedia.org/resource/Brian_Oliver_(basketball,_born_1990)', 'http://dbpedia.org/resource/Brian_Quinnett', 'http://dbpedia.org/resource/Brian_Qvale', 'http://dbpedia.org/resource/Brian_Randle__Brian_Randle__1', 'http://dbpedia.org/resource/Brian_Rowsom', 'http://dbpedia.org/resource/Brian_Scalabrine', 'http://dbpedia.org/resource/Brian_Skinner', 'http://dbpedia.org/resource/Brian_Zoubek', 'http://dbpedia.org/resource/Brice_Assie__Brice_Assie__1', 'http://dbpedia.org/resource/Brice_Johnson', 'http://dbpedia.org/resource/Brice_Vounang', 'http://dbpedia.org/resource/Bright_Akhuetie', 'http://dbpedia.org/resource/Britton_Johnsen', 'http://dbpedia.org/resource/Brock_Motum', 'http://dbpedia.org/resource/Brook_Lopez', 'http://dbpedia.org/resource/Bruce_Bolden', 'http://dbpedia.org/resource/Bruce_Bowen', 'http://dbpedia.org/resource/Bruce_Flowers', 'http://dbpedia.org/resource/Bruce_Kuczenski', 'http://dbpedia.org/resource/Bruce_Seals', 'http://dbpedia.org/resource/Bruno_Boin', 'http://dbpedia.org/resource/Bruno_Caboclo', 'http://dbpedia.org/resource/Bruno_Coqueran', 'http://dbpedia.org/resource/Bruno_Fernando', 'http://dbpedia.org/resource/Bruno_Šundov', 'http://dbpedia.org/resource/Bruno-Nazaire_Kongaouin', 'http://dbpedia.org/resource/Bryan_Bracey', 'http://dbpedia.org/resource/Bryan_Davis_(basketball)', 'http://dbpedia.org/resource/Bryant_Dunston', 'http://dbpedia.org/resource/Bryant_Reeves', 'http://dbpedia.org/resource/Bryant_Smith', 'http://dbpedia.org/resource/Bryce_Douvier', 'http://dbpedia.org/resource/Bryce_Washington_(basketball)', 'http://dbpedia.org/resource/Bryon_Russell', 'http://dbpedia.org/resource/Bryson_Williams', '</t>
   </si>
   <si>
     <t>['http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/Ottawa']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Aaron_Xuereb', 'http://dbpedia.org/resource/Adrian_Ciantar', 'http://dbpedia.org/resource/Adrian_Mifsud', 'http://dbpedia.org/resource/Adrian_Pulis', 'http://dbpedia.org/resource/Alishia_Sultana', 'http://dbpedia.org/resource/Andrei_Agius', 'http://dbpedia.org/resource/Andrew_Cohen_(footballer)', 'http://dbpedia.org/resource/Antoine_Zahra_(footballer,_born_1977)', 'http://dbpedia.org/resource/Antoine_Zahra_(footballer,_born_1981)', 'http://dbpedia.org/resource/Brenda_Borg', 'http://dbpedia.org/resource/Brian_Said', 'http://dbpedia.org/resource/Brian_Strutt', 'http://dbpedia.org/resource/Callum_Talbot', 'http://dbpedia.org/resource/Carlo_Mamo', 'http://dbpedia.org/resource/Charles_Azzopardi', 'http://dbpedia.org/resource/Charles_Micallef', 'http://dbpedia.org/resource/Charles_Muscat', 'http://dbpedia.org/resource/Charlie_Williams_(footballer,_born_1944)', 'http://dbpedia.org/resource/Claude_Mattocks', 'http://dbpedia.org/resource/Cleavon_Frendo', 'http://dbpedia.org/resource/Cornelius_Hogan', 'http://dbpedia.org/resource/Daniel_Theuma', 'http://dbpedia.org/resource/Darren_Debono', 'http://dbpedia.org/resource/David_Camilleri', 'http://dbpedia.org/resource/David_Cluett', 'http://dbpedia.org/resource/Denis_Cauchi', 'http://dbpedia.org/resource/Dennis_Mizzi', 'http://dbpedia.org/resource/Dexter_Xuereb', 'http://dbpedia.org/resource/Dorianne_Theuma', 'http://dbpedia.org/resource/Edmond_Agius', 'http://dbpedia.org/resource/Edward_Azzopardi', 'http://dbpedia.org/resource/Emanuel_Fabri', 'http://dbpedia.org/resource/Emma_Xuerreb', 'http://dbpedia.org/resource/Gareth_Sciberras', 'http://dbpedia.org/resource/George_Mallia', 'http://dbpedia.org/resource/Hubert_Suda', 'http://dbpedia.org/resource/Ian_Azzopardi', 'http://dbpedia.org/resource/Ian_Ciantar', 'http://dbpedia.org/resource/Ivan_Zammit', 'http://dbpedia.org/resource/Jade_Flask', 'http://dbpedia.org/resource/Jamie_Zerafa', 'http://dbpedia.org/resource/Jean_Paul_Farrugia', 'http://dbpedia.org/resource/Jeffrey_Chetcuti', 'http://dbpedia.org/resource/Jesmond_Delia', 'http://dbpedia.org/resource/Joe_Brincat', 'http://dbpedia.org/resource/Johann_Bezzina', 'http://dbpedia.org/resource/John_Bonello', 'http://dbpedia.org/resource/John_McNeill_(footballer)', 'http://dbpedia.org/resource/Jonathan_Caruana', 'http://dbpedia.org/resource/Jonathan_Holland_(footballer)', 'http://dbpedia.org/resource/Jonathan_Magri_Overend', 'http://dbpedia.org/resource/Josef_Mifsud', 'http://dbpedia.org/resource/Joseph_Farrugia', 'http://dbpedia.org/resource/Juan_Carlos_Corbalan', 'http://dbpedia.org/resource/Justin_Haber', 'http://dbpedia.org/resource/Kenneth_Scicluna', 'http://dbpedia.org/resource/Kevin_Sammut', 'http://dbpedia.org/resource/Kristian_Laferla', 'http://dbpedia.org/resource/Lino_Galea', 'http://dbpedia.org/resource/Lolly_Vella', 'http://dbpedia.org/resource/Malcolm_Licari', 'http://dbpedia.org/resource/Maria_Farrugia', 'http://dbpedia.org/resource/Mario_Farrugia', 'http://dbpedia.org/resource/Martina_Borg', 'http://dbpedia.org/resource/Massimo_Grima', 'http://dbpedia.org/resource/Matthew_Guillaumier', 'http://dbpedia.org/resource/Michael_Cutajar', 'http://dbpedia.org/resource/Michael_Galea', 'http://dbpedia.org/resource/Michael_Johnson_(footballer,_born_1994)', 'http://dbpedia.org/resource/Nicole_Buttigieg', 'http://dbpedia.org/resource/Nicole_Sciberras', 'http://dbpedia.org/resource/Noel_Turner_(footballer)', 'http://dbpedia.org/resource/Paul_Fenech_(footballer)', 'http://dbpedia.org/resource/Pierre_Aquilina', 'http://dbpedia.org/resource/Ray_Farrugia', 'http://dbpedia.org/resource/Raymond_Xuereb', "http://dbpedia.org/resource/Rebecca_D'Agostino", 'http://dbpedia.org/resource/Reginald_Cini', 'http://dbpedia.org/resource/Roderick_Briffa', 'http://dbpedia.org/resource/Ronnie_Cocks', 'http://dbpedia.org/resource/Saviour_Darmanin', 'http://dbpedia.org/resource/Sean_Sullivan_(footballer)', 'http://dbpedia.org/resource/Simon_Tortell', 'http://dbpedia.org/resource/Stefan_Giglio', 'http://dbpedia.org/resource/Stefania_Farrugia', 'http://dbpedia.org/resource/Stephen_Wellman', 'http://dbpedia.org/resource/Steve_Bezzina', 'http://dbpedia.org/resource/Steve_Pisani', 'http://dbpedia.org/resource/Terence_Scerri', 'http://dbpedia.org/resource/Terence_Vella', 'http://dbpedia.org/resource/Vincent_Borg_Bonaci', 'http://dbpedia.org/resource/William_Camenzuli']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Yaoundé']</t>
-  </si>
-  <si>
     <t>['1325']</t>
   </si>
   <si>
     <t>['http://dbpedia.org/resource/Aleksandr_Aleksandrovich_Volkov', 'http://dbpedia.org/resource/Aleksandr_Ivanchenkov', 'http://dbpedia.org/resource/Aleksandr_Laveykin', 'http://dbpedia.org/resource/Aleksandr_Nikolayevich_Balandin', 'http://dbpedia.org/resource/Aleksandr_Pavlovich_Aleksandrov__Aleksandr_Pavlovich_Aleksandrov__1', 'http://dbpedia.org/resource/Aleksandr_Serebrov', 'http://dbpedia.org/resource/Aleksandr_Viktorenko', 'http://dbpedia.org/resource/Aleksei_Gubarev', 'http://dbpedia.org/resource/Aleksei_Yeliseyev', 'http://dbpedia.org/resource/Anatoly_Berezovoy', 'http://dbpedia.org/resource/Anatoly_Filipchenko', 'http://dbpedia.org/resource/Anatoly_Levchenko__Anatoly_Semyonovich_Levchenko__1', 'http://dbpedia.org/resource/Andriyan_Nikolayev', 'http://dbpedia.org/resource/Boris_Andreyev_(cosmonaut)', 'http://dbpedia.org/resource/Boris_Volynov', 'http://dbpedia.org/resource/Boris_Yegorov', 'http://dbpedia.org/resource/Gennady_Manakov', 'http://dbpedia.org/resource/Gennady_Sarafanov', 'http://dbpedia.org/resource/Gennady_Strekalov', 'http://dbpedia.org/resource/Georgy_Dobrovolsky', 'http://dbpedia.org/resource/Georgy_Grechko', 'http://dbpedia.org/resource/Ivan_Anikeyev', 'http://dbpedia.org/resource/Konstantin_Feoktistov', 'http://dbpedia.org/resource/Leonid_Ivanov_(test_pilot)', 'http://dbpedia.org/resource/Leonid_Kizim', 'http://dbpedia.org/resource/Leonid_Popov', 'http://dbpedia.org/resource/Lev_Dyomin', 'http://dbpedia.org/resource/Mars_Rafikov', 'http://dbpedia.org/resource/Nikolai_Rukavishnikov', 'http://dbpedia.org/resource/Oleg_Atkov', 'http://dbpedia.org/resource/Oleg_Grigoriyevich_Kononenko', 'http://dbpedia.org/resource/Oleg_Makarov_(cosmonaut)', 'http://dbpedia.org/resource/Pavel_Belyayev', 'http://dbpedia.org/resource/Sergey_Volkov_(cosmonaut)', 'http://dbpedia.org/resource/Sergey_Vozovikov', 'http://dbpedia.org/resource/Valentin_Bondarenko', 'http://dbpedia.org/resource/Valentin_Lebedev', 'http://dbpedia.org/resource/Valery_Bykovsky', 'http://dbpedia.org/resource/Valery_Kubasov', 'http://dbpedia.org/resource/Valery_Rozhdestvensky', 'http://dbpedia.org/resource/Valery_Ryumin', 'http://dbpedia.org/resource/Vasily_Lazarev', 'http://dbpedia.org/resource/Viktor_Gorbatko', 'http://dbpedia.org/resource/Viktor_Patsayev', 'http://dbpedia.org/resource/Viktor_Savinykh', 'http://dbpedia.org/resource/Vitaly_Sevastyanov', 'http://dbpedia.org/resource/Vladimir_Aksyonov', 'http://dbpedia.org/resource/Vladimir_Dzhanibekov', 'http://dbpedia.org/resource/Vladimir_Shatalov', 'http://dbpedia.org/resource/Vladimir_Solovyov_(cosmonaut)', 'http://dbpedia.org/resource/Vladimir_Vasyutin', 'http://dbpedia.org/resource/Vladislav_Volkov', 'http://dbpedia.org/resource/Vyacheslav_Zudov', 'http://dbpedia.org/resource/Yevgeny_Khrunov', 'http://dbpedia.org/resource/Yuri_Artyukhin', 'http://dbpedia.org/resource/Yuri_Glazkov', 'http://dbpedia.org/resource/Yuri_Malyshev_(cosmonaut)', 'http://dbpedia.org/resource/Yuri_Romanenko']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
-  </si>
-  <si>
-    <t>['9209944']</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/Bill_Finger', 'http://dbpedia.org/resource/Bob_Kane']</t>
   </si>
   <si>
-    <t>['453558']</t>
-  </si>
-  <si>
     <t>['34084130000']</t>
   </si>
   <si>
-    <t>['282100']</t>
-  </si>
-  <si>
     <t>['8.0']</t>
   </si>
   <si>
@@ -1503,27 +1256,6 @@
   </si>
   <si>
     <t>['http://dbpedia.org/resource/Asia']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Bob_Ogle', 'http://dbpedia.org/resource/Paul_Murry']</t>
-  </si>
-  <si>
-    <t>['No answer']</t>
-  </si>
-  <si>
-    <t>['Query failed']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Love_You_Baba']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Execution_by_hanging']</t>
-  </si>
-  <si>
-    <t>["http://dbpedia.org/resource/'Asir_Province", "http://dbpedia.org/resource/'Asir_Region", "http://dbpedia.org/resource/'s_Hertogenbosch", "http://dbpedia.org/resource/'s-Heerenberg", "http://dbpedia.org/resource/'s-Hertogenbosch", 'http://dbpedia.org/resource/1_Treasury_Place', 'http://dbpedia.org/resource/1_William_Street,_Brisbane', 'http://dbpedia.org/resource/10_Hudson_Yards', 'http://dbpedia.org/resource/10_Peel_Centre_Drive', 'http://dbpedia.org/resource/10_Toronto_Street', 'http://dbpedia.org/resource/10_Universal_City_Plaza', 'http://dbpedia.org/resource/10_Upper_Bank_Street', 'http://dbpedia.org/resource/100_East_Bay_Street', 'http://dbpedia.org/resource/100_East_Pratt_Street', 'http://dbpedia.org/resource/100_Federal_Street', 'http://dbpedia.org/resource/100_Mile_House,_British_Columbia', 'http://dbpedia.org/resource/100_Mile_House', 'http://dbpedia.org/resource/100_Parliament_Street', 'http://dbpedia.org/resource/101_California_Street', 'http://dbpedia.org/resource/101_Collins_Street', 'http://dbpedia.org/resource/101_Park_Avenue', 'http://dbpedia.org/resource/101_Second_Street', 'http://dbpedia.org/resource/102_Petty_France', 'http://dbpedia.org/resource/105_Mile_House', 'http://dbpedia.org/resource/1060_Fulton_Mall', 'http://dbpedia.org/resource/108_Mile_Ranch,_British_Columbia', 'http://dbpedia.org/resource/108_Mile_Ranch', 'http://dbpedia.org/resource/109_Street,_Edmonton', 'http://dbpedia.org/resource/10th_arrondissement_of_Paris', 'http://dbpedia.org/resource/10th_Avenue_(Manhattan)', 'http://dbpedia.org/resource/11_June_Stadium', 'http://dbpedia.org/resource/11_Stanwix_Street', 'http://dbpedia.org/resource/1109_Fifth_Avenue', 'http://dbpedia.org/resource/110th_Street_(Manhattan)', 'http://dbpedia.org/resource/111_Huntington_Avenue', 'http://dbpedia.org/resource/1166_(building)', 'http://dbpedia.org/resource/1166_Avenue_of_the_Americas', 'http://dbpedia.org/resource/11th_arrondissement_of_Paris', 'http://dbpedia.org/resource/11th_Avenue_(Manhattan)', 'http://dbpedia.org/resource/12_Endeavour_Square', 'http://dbpedia.org/resource/120_Broadway', 'http://dbpedia.org/resource/1201_Pennsylvania_Avenue', 'http://dbpedia.org/resource/1211_Avenue_of_the_Americas', 'http://dbpedia.org/resource/122_Leadenhall_Street', 'http://dbpedia.org/resource/123rd_Street_(Manhattan)', 'http://dbpedia.org/resource/124_Horseferry_Road', 'http://dbpedia.org/resource/1251_Avenue_of_the_Americas', 'http://dbpedia.org/resource/1271_Avenue_of_the_Americas', 'http://dbpedia.org/resource/12th_arrondissement_of_Paris', 'http://dbpedia.org/resource/130_West_42nd_Street', 'http://dbpedia.org/resource/1310_G_Street', 'http://dbpedia.org/resource/1333_H_Street', 'http://dbpedia.org/resource/1345_Avenue_of_the_Americas', 'http://dbpedia.org/resource/13th_arrondissement_of_Paris', 'http://dbpedia.org/resource/14_Wall_Street', 'http://dbpedia.org/resource/140_Broadway', 'http://dbpedia.org/resource/140_St_Georges_Terrace', 'http://dbpedia.org/resource/1430_K_Street', 'http://dbpedia.org/resource/14th_arrondissement_of_Paris', 'http://dbpedia.org/resource/14th_Street_(Manhattan)', 'http://dbpedia.org/resource/14th_Street_(Washington,_D.C.)', 'http://dbpedia.org/resource/14th_Street_Northwest_and_Southwest_(Washington,_D.C.)', 'http://dbpedia.org/resource/15_Westferry_Circus', 'http://dbpedia.org/resource/1500_Broadway', 'http://dbpedia.org/resource/1501_Broadway', 'http://dbpedia.org/resource/151_North_Franklin', 'http://dbpedia.org/resource/155th_Street_(Manhattan)', 'http://dbpedia.org/resource/15th_arrondissement_of_Paris', 'http://dbpedia.org/resource/15th_Street_(Manhattan)', 'http://dbpedia.org/resource/16_Collyer_Quay', 'http://dbpedia.org/resource/160_Tooley_Street', 'http://dbpedia.org/resource/160th_Street_(Manhattan)', 'http://dbpedia.org/resource/162nd_Street_(Manhattan)', 'http://dbpedia.org/resource/16th_arrondissement_of_Paris', 'http://dbpedia.org/resource/16th_district_of_Budapest', 'http://dbpedia.org/resource/16th_Street_(Manhattan)', 'http://dbpedia.org/resource/16th_Street_(Washington,_D.C.)', 'http://dbpedia.org/resource/16th_Street_Northwest_(Washington,_D.C.)', 'http://dbpedia.org/resource/16th_Street_Northwest', 'http://dbpedia.org/resource/16th_Street_NW_(Washington,_D.C.)', 'http://dbpedia.org/resource/16th_Street_NW', 'http://dbpedia.org/resource/17_State_Street', 'http://dbpedia.org/resource/17th_arrondissement_of_Paris', 'http://dbpedia.org/resource/17th_Street_(Manhattan)', 'http://dbpedia.org/resource/17th_Street_(Washington,_D.C.)', 'http://dbpedia.org/resource/18_de_Julio_Avenue', 'http://dbpedia.org/resource/180_Montgomery_Street', 'http://dbpedia.org/resource/181_West_Madison_Street', 'http://dbpedia.org/resource/18th_and_Vine_Historic_District', 'http://dbpedia.org/resource/18th_arrondissement_of_Paris', 'http://dbpedia.org/resource/18th_arrondissement', 'http://dbpedia.org/resource/19_Court_Street', 'http://dbpedia.org/resource/1900_Avenue_of_the_Stars', 'http://dbpedia.org/resource/191_North_Wacker', "http://dbpedia.org/resource/1964_New_York_World's_Fair", 'http://dbpedia.org/resource/1981_McGill_College', "http://dbpedia.org/resource/1991–92_Ohio_Bobcats_men's_basketball_team", 'http://dbpedia.org/resource/19th_arrondissement_of_Paris', 'http://dbpedia.org/resource/19th_Street_(Manhattan)', 'http://dbpedia.org/resource/1st_arrondissement_of_Lyon', 'http://dbpedia.org/resource/1st_arrondissement_of_Marseille', 'http://dbpedia.org/resource/1st_arrondissement_of_Paris', 'http://dbpedia.org/resource/1st_Mariner_Arena', 'http://dbpedia.org/resource/1stBank_Center', 'http://dbpedia.org/resource/1STBANK_Center', 'http://dbpedia.org/resource/2_Columbus_Circle', 'http://dbpedia.org/resource/2_High_Street,_Perth', 'http://dbpedia.org/resource/2_Marsham_Street', 'http://dbpedia.org/resource/20_August_1955_Stadium', 'http://dbpedia.org/resource/200_Fifth_Avenue', 'http://dbpedia.org/resource/200_Vesey_Street', 'http://dbpedia.org/resource/200_West_Street', 'http://dbpedia.org/resource/2006_Dakar_Rally', 'http://dbpedia.org/resource/201_Portage', 'http://dbpedia.org/resource/2013_Seve_Trophy', 'http://dbpedia.org/resource/2021_Ryder_Cup', 'http://dbpedia.org/resource/2022_LPGA_Tour', "http://dbpedia.org/resource/2022_U.S._Women's_Open", 'http://dbpedia.org/resource/20th_arrondissement_of_Paris', 'http://dbpedia.org/resource/20th_Century_Fox_Television', 'http://dbpedia.org/resource/20th_Century_Fox', 'http://dbpedia.org/resource/20th_Street_(Manhattan)', 'http://dbpedia.org/resource/20th-Century_Fox', 'http://dbpedia.org/resource/21st_Street_(Manhattan)', 'http://dbpedia.org/resource/224_West_57th_Street', 'http://dbpedia.org/resource/225_Bush_Street', 'http://dbpedia.org/resource/225_Liberty_Street', 'http://dbpedia.org/resource/22nd_Street_(Manhattan)', 'http://dbpedia.org/resource/22nd_Street_(Saskatoon)', 'http://dbpedia.org/resource/230_Park_Avenue', 'http://dbpedia.org/resource/2300_Arena', 'http://dbpedia.org/resource/23rd_Regiment_Armory', 'http://dbpedia.org/resource/23rd_Street_(Manhattan)', 'http://dbpedia.org/resource/245_Park_Avenue', 'http://dbpedia.org/resource/25_Cabot_Square', 'http://dbpedia.org/resource/25_Canada_Square', 'http://dbpedia.org/resource/25_North_Colonnade', 'http://dbpedia.org/resource/250_Greenwich_Street', 'http://dbpedia.org/resource/250_Richmond_Street_West', 'http://dbpedia.org/resource/250_Vesey_Street', 'http://dbpedia.org/resource/25th_Street_(Manhattan)', 'http://dbpedia.org/resource/26th_Street_(Manhattan)', 'http://dbpedia.org/resource/277_Park_Avenue', 'http://dbpedia.org/resource/28_Liberty_Street', 'http://dbpedia.org/resource/28_State_Street', 'http://dbpedia.org/resource/299_Queen_Street_West', 'http://dbpedia.org/resource/29th_Street_(Manhattan)', 'http://dbpedia.org/resource/2nd_arrondissement_of_Lyon', 'http://dbpedia.org/resource/2nd_arrondissement_of_Paris', 'http://dbpedia.org/resource/3_Mills_Studios', 'http://dbpedia.org/resource/3_World_Trade_Center', 'http://dbpedia.org/resource/30_Hudson_Yards', 'http://dbpedia.org/resource/30_June_Stadium', 'http://dbpedia.org/resource/30_North_LaSalle', 'http://dbpedia.org/resource/30_Rockefeller_Center', 'http://dbpedia.org/resource/30_Rockefeller_Plaza', 'http://dbpedia.org/resource/30_St_Mary_Axe', 'http://dbpedia.org/resource/300_North_LaSalle', 'http://dbpedia.org/resource/30th_Street_(Manhattan)', 'http://dbpedia.org/resource/345_Park_Avenue', 'http://dbpedia.org/resource/34th_Street_(Manhattan)', 'http://dbpedia.org/resource/353_North_Clark', 'http://dbpedia.org/resource/36th_Street_(Manhattan)', 'http://dbpedia.org/resource/385_Bourke_Street', 'http://dbpedia.org/resource/399_Park_Avenue', 'http://dbpedia.org/resource/3Arena', 'http://dbpedia.org/resource/3rd_arrondissement_of_Lyon', 'http://dbpedia.org/resource/3rd_arrondissement_of_Paris', 'http://dbpedia.org/resource/3rd_Circle', 'http://dbpedia.org/resource/3rd_Street_(Manhattan)', 'http://dbpedia.org/resource/4_Hamilton_Place', 'http://dbpedia.org/resource/4_World_Trade_Center', 'http://dbpedia.org/resource/40_Wall_Street', 'http://dbpedia.org/resource/40_Watt_Club', 'http://dbpedia.org/resource/400_George_Street', 'http://dbpedia.org/resource/40th_Street_(Manhattan)', 'http://dbpedia.org/resource/42_Wall_Street', 'http://dbpedia.org/resource/42nd_Street_(Manhattan)', 'http://dbpedia.org/resource/450_Lexington_Avenue', 'http://dbpedia.org/resource/46th_Street_(Manhattan)', 'http://dbpedia.org/resource/48_Wall_Street', 'http://dbpedia.org/resource/48th_Street_(Manhattan)', 'http://dbpedia.org/resource/4th_arrondissement_of_Lyon', 'http://dbpedia.org/resource/4th_arrondissement_of_Paris', 'http://dbpedia.org/resource/4th_Ring_Road_(Beijing)', 'http://dbpedia.org/resource/4th_Street_(Manhattan)', 'http://dbpedia.org/resource/500_Boylston_Street', 'http://dbpedia.org/resource/500_Park_Avenue', 'http://dbpedia.org/resource/505_(Nashville)', 'http://dbpedia.org/resource/50th_Street_(Manhattan)', 'http://dbpedia.org/resource/52nd_Street_(Manhattan)', 'http://dbpedia.org/resource/53rd_Street_(Manhattan)', 'http://dbpedia.org/resource/53rd_Street', 'http://dbpedia.org/resource/55_Baker_Street', 'http://dbpedia.org/resource/55_Tufton_Street', 'http://dbpedia.org/resource/55_Water_Street', 'http://dbpedia.org/resource/555_California_Street', 'http://dbpedia.org/resource/555_Mission_Street', 'http://dbpedia.org/resource/55th_Street_(Manhattan)', 'http://dbpedia.org/resource/57th_Street_(Manhattan)', 'http://dbpedia.org/resource/590_Madison_Avenue', 'http://dbpedia.org/resource/595_Market_Street', 'http://dbpedia.org/resource/599_Lexington_Avenue', 'http://dbpedia.org/resource/59th_Street_(Manhattan)', 'http://dbpedia.org/resource/5th_arrondissement_of_Lyon', 'http://dbpedia.org/resource/5th_arrondissement_of_Paris', 'http://dbpedia.org/resource/5th_Avenue_(Manhattan)', 'http://dbpedia.org/resource/601_Lexington_Avenue', 'http://dbpedia.org/resource/61st_Street_(Manhattan)', 'http://dbpedia.org/resource/62nd_Street_(Manhattan)', 'http://dbpedia.org/resource/63_Building', 'http://dbpedia.org/resource/666_(number)', 'http://dbpedia.org/resource/66th_Street_(Manhattan)', 'http://dbpedia.org/resource/68th_Street_(Manhattan)', 'http://dbpedia.org/resource/69th_Regiment_Armory', 'http://dbpedia.org/resource/6th_arrondissement_of_Lyon', 'http://dbpedia.org/resource/6th_arrondissement_of_Paris', 'http://dbpedia.org/resource/6th_Avenue_(Manhattan)', 'http://dbpedia.org/resource/6th_October_City', 'http://dbpedia.org/resource/6th_of_October_(city)', 'http://dbpedia.org/resource/6th_of_October_City', 'http://dbpedia.org/resource/6th_of_October_Governorate', 'http://dbpedia.org/resource/6th_of_October_Sports_Hall', 'http://dbpedia.org/resource/6th_Street_(Manhattan)', 'http://dbpedia.org/resource/7_World_Trade_Center', 'http://dbpedia.org/resource/700th_Anniversary_Stadium', 'http://dbpedia.org/resource/70th_Street_(Manhattan)', 'http://dbpedia.org/resource/712_5th_Avenue', 'http://dbpedia.org/resource/712_Fifth_Avenue', 'http://dbpedia.org/resource/72nd_Street_(Manhattan)', 'http://dbpedia.org/resource/731_Lexington_Avenue', 'http://dbpedia.org/resource/74th_Street_(Manhattan)', 'http://dbpedia.org/resource/75_State_Street', 'http://dbpedia.org/resource/75006', 'http://dbpedia.org/resource/767_Fifth_Avenue', 'http://dbpedia.org/resource/77_West_Wacker_Drive', 'http://dbpedia.org/resource/77th_Street_(Manhattan)', 'http://dbpedia.org/resource/798_Art_Zone', 'http://dbpedia.org/resource/7mate', 'http://dbpedia.org/resource/7th_arrondissement_of_Lyon', 'http://dbpedia.org/resource/7th_arrondissement_of_Paris', 'http://dbpedia.org/resource/7th_District_Police_Station', 'http://dbpedia.org/resource/7th_Street_(Los_Angeles)', 'http://dbpedia.org/resource/7th_Street_(Manhattan)', 'http://dbpedia.org/resource/7th_Street_(Washington,_D.C.)', 'http://dbpedia.org/resource/7Two', 'http://dbpedia.org/resource/8_Canada_Square', 'http://dbpedia.org/resource/80th_Birthday_Stadium', 'http://dbpedia.org/resource/826_Valencia', 'http://dbpedia.org/resource/826CHI', 'http://dbpedia.org/resource/826LA', 'http://dbpedia.org/resource/826NYC', 'http://dbpedia.org/resource/85th_Street', 'http://dbpedia.org/resource/86th_Street_(IRT_Lexington_Avenue_Line)', 'http://dbpedia.org/resource/88th_Street_(Manhattan)', 'http://dbpedia.org/resource/89_Albert_Embankment', 'http://dbpedia.org/resource/89th_Street_(Manhattan)', 'http://dbpedia.org/resource/8th_arrondissement_of_Lyon', 'http://dbpedia.org/resource/8th_arrondissement_of_Marseille', 'http://dbpedia.org/resource/8th_arrondissement_of_Paris', 'http://dbpedia.org/resource/9_Channel_Nine_Court', 'http://dbpedia.org/resource/9_de_Julio_Avenue', 'http://dbpedia.org/resource/9_Downing_Street', 'http://dbpedia.org/resource/900_North_Michigan', 'http://dbpedia.org/resource/945_Madison_Avenue', 'http://dbpedia.org/resource/9th_arrondissement_of_Paris', 'http://dbpedia.org/resource/9th_Avenue_(Manhattan)', 'http://dbpedia.org/resource/A_Coruña_(province)', 'http://dbpedia.org/resource/A_Coruña', 'http://dbpedia.org/resource/A_Estrada', 'http://dbpedia.org/resource/A.A._Maramis_Building', 'http://dbpedia.org/resource/A.C._Guards', 'http://dbpedia.org/resource/A148_road', 'http://dbpedia.org/resource/A149_road', 'http://dbpedia.org/resource/A19_road_(Great_Britain)', 'http://dbpedia.org/resource/A212_road', 'http://dbpedia.org/resource/A22_road', 'http://dbpedia.org/resource/A23_road', 'http://dbpedia.org/resource/A26_road', 'http://dbpedia.org/resource/A30_road_(England)', 'http://dbpedia.org/resource/A307_road', 'http://dbpedia.org/resource/A320_road', 'http://dbpedia.org/resource/A458_road', 'http://dbpedia.org/resource/A49_road', 'http://dbpedia.org/resource/A5_road_(Isle_of_Man)', 'http://dbpedia.org/resource/A6_road_(Great_Britain)', 'http://dbpedia.org/resource/A66_road', 'http://dbpedia.org/resource/A660_road', 'http://dbpedia.org/resource/A815_road', 'http://dbpedia.org/resource/A82_road', 'http://dbpedia.org/resource/A85_road', 'http://dbpedia.org/resource/A850_road', 'http://dbpedia.org/resource/A9_road_(Sri_Lanka)', 'http://dbpedia.org/resource/Aabenraa', 'http://dbpedia.org/resource/Aabpara', 'http://dbpedia.org/resource/Aabybro', 'http://dbpedia.org/resource/Aachen_(district)', 'http://dbpedia.org/resource/Aachen-Mitte', 'http://dbpedia.org/resource/Aachen,_Germany', 'http://dbpedia.org/resource/Aachen', 'http://dbpedia.org/resource/Aakkulam,_Thiruvananthapuram,_Kerala', 'http://dbpedia.org/resource/Aalborg,_Denmark', 'http://dbpedia.org/resource/Aalborg', 'http://dbpedia.org/resource/Aalen', 'http://dbpedia.org/resource/Aalsmeer', 'http://dbpedia.org/resource/Aalst,_Belgium', 'http://dbpedia.org/resource/Aamby_Valley', 'http://dbpedia.org/resource/Aarau', 'http://dbpedia.org/resource/Aarberg', 'http://dbpedia.org/resource/Aarburg', 'http://dbpedia.org/resource/Aardenburg', 'http://dbpedia.org/resource/Aare', 'http://dbpedia.org/resource/Aargau', 'http://dbpedia.org/resource/Aarhus_C', 'http://dbpedia.org/resource/Aarhus_Municipality', 'http://dbpedia.org/resource/Aarhus_N', 'http://dbpedia.org/resource/Aarhus_Stadium', 'http://dbpedia.org/resource/Aarhus_University', 'http://dbpedia.org/resource/Aarhus_V', 'http://dbpedia.org/resource/Aarhus', 'http://dbpedia.org/resource/Aaronsburg,_Centre_County,_Pennsylvania', 'http://dbpedia.org/resource/Aars', 'http://dbpedia.org/resource/Aarschot', 'http://dbpedia.org/resource/Aarup', 'http://dbpedia.org/resource/Aasiaat', 'http://dbpedia.org/resource/Aastrup,_Falster', 'http://dbpedia.org/resource/Ab_Kettleby', 'http://dbpedia.org/resource/Aba,_Abia', 'http://dbpedia.org/resource/Aba,_Nigeria', 'http://dbpedia.org/resource/Abadan,_Iran', 'http://dbpedia.org/resource/Abadan,_Khoozestan', 'http://dbpedia.org/resource/Abadan,_Turkmenistan', 'http://dbpedia.org/resource/Abadan', 'http://dbpedia.org/resource/Abadeh_County', 'http://dbpedia.org/resource/Abaetetuba', 'http://dbpedia.org/resource/Abaiang', 'http://dbpedia.org/resource/Abajah', 'http://dbpedia.org/resource/Abakan', 'http://dbpedia.org/resource/Abalessa', 'http://dbpedia.org/resource/Ábalos,_La_Rioja', 'http://dbpedia.org/resource/Abancay_Province', 'http://dbpedia.org/resource/Abancay', 'http://dbpedia.org/resource/Abando', 'http://dbpedia.org/resource/Abano_Terme', 'http://dbpedia.org/resource/Abarkuh_County', 'http://dbpedia.org/resource/Abarkuh', 'http://dbpedia.org/resource/Abashiri_Subprefecture', 'http://dbpedia.org/resource/Abashiri,_Hokkaido', 'http://dbpedia.org/resource/Abashiri', 'http://dbpedia.org/resource/Abau', 'http://dbpedia.org/resource/Abbasid_Samarra', 'http://dbpedia.org/resource/Abbassia', 'http://dbpedia.org/resource/Abberton,_Worcestershire', 'http://dbpedia.org/resource/Abbeville_County,_South_Carolina', 'http://dbpedia.org/resource/Abbeville,_Alabama', 'http://dbpedia.org/resource/Abbeville,_County_Tipperary_(townland)', 'http://dbpedia.org/resource/Abbeville,_Georgia', 'http://dbpedia.org/resource/Abbeville,_Louisiana', 'http://dbpedia.org/resource/Abbeville,_South_Carolina', 'http://dbpedia.org/resource/Abbeville', 'http://dbpedia.org/resource/Abbey_Dore', 'http://dbpedia.org/resource/Abbey_of_Sainte-Trinité,_Caen', 'http://dbpedia.org/resource/Abbey_Park,_Leicester', 'http://dbpedia.org/resource/Abbey_Wood', 'http://dbpedia.org/resource/Abbeyfeale', 'http://dbpedia.org/resource/Abbeyleix', 'http://dbpedia.org/resource/Abbeyshrule', 'http://dbpedia.org/resource/Abbeystead', 'http://dbpedia.org/resource/Abbeytown', 'http://dbpedia.org/resource/Abbiategrasso', 'http://dbpedia.org/resource/Abbot_Pass', 'http://dbpedia.org/resource/Abbots_Langley', 'http://dbpedia.org/resource/Abbots_Leigh', 'http://dbpedia.org/resource/Abbotsbury,_New_South_Wales', 'http://dbpedia.org/resource/Abbotsbury', 'http://dbpedia.org/resource/Abbotsford_International_Airport', 'http://dbpedia.org/resource/Abbotsford,_British_Columbia', 'http://dbpedia.org/resource/Abbotsford,_Victoria', 'http://dbpedia.org/resource/Abbotsham', 'http://dbpedia.org/resource/Abbotsinch', 'http://dbpedia.org/resource/Abbotsley', 'http://dbpedia.org/resource/Abbotstown_(townland)', 'http://dbpedia.org/resource/Abbott_Drive', 'http://dbpedia.org/resource/Abbottabad_District', 'http://dbpedia.org/resource/Abbottabad,_Khyber_Pakhtunkhwa', 'http://dbpedia.org/resource/Abbottabad', 'http://dbpedia.org/resource/Abbottstown,_Pennsylvania', 'http://dbpedia.org/resource/ABC_islands_(Alaska)', 'http://dbpedia.org/resource/ABC_Islands_(Alaska)', 'http://dbpedia.org/resource/ABC_Studios_(Australia)', 'http://dbpedia.org/resource/ABC_Television_Center', 'http://dbpedia.org/resource/Abdanan_County', 'http://dbpedia.org/resource/Abdi_İpekçi_Park', 'http://dbpedia.org/resource/Abdi_İpekçi_Street', 'http://dbpedia.org/resource/Abdullah_bin_Khalifa_Stadium', 'http://dbpedia.org/resource/Abel_Iturralde_Province', 'http://dbpedia.org/resource/Abel_Tasman_National_Park', 'http://dbpedia.org/resource/Abeno-ku,_Osaka', 'http://dbpedia.org/resource/Abeokuta', 'http://dbpedia.org/resource/Aberaeron', 'http://dbpedia.org/resource/Aberavon', 'http://dbpedia.org/resource/Aberbargoed', 'http://dbpedia.org/resource/Aberbeeg', 'http://dbpedia.org/resource/Abercarn', 'http://dbpedia.org/resource/Aberchirder', 'http://dbpedia.org/resource/Abercorn', 'http://dbpedia.org/resource/Abercraf', 'http://dbpedia.org/resource/Abercrombie,_North_Dakota', 'http://dbpedia.org/resource/Abercynon', 'http://dbpedia.org/resource/Aberdare_National_Park', 'http://dbpedia.org/resource/Aberdare', 'http://dbpedia.org/resource/Aberdaron', 'http://dbpedia.org/resource/Aberdeen_(Hong_Kong)', 'http://dbpedia.org/resource/Aberdeen_City', 'http://dbpedia.org/resource/Aberdeen_Pavilion', 'http://dbpedia.org/resource/Aberdeen_Proving_Ground,_Maryland', 'http://dbpedia.org/resource/Aberdeen_Proving_Ground', 'http://dbpedia.org/resource/Aberdeen_Township,_New_Jersey', 'http://dbpedia.org/resource/Aberdeen,_Eastern_Cape', 'http://dbpedia.org/resource/Aberdeen,_Hong_Kong', 'http://dbpedia.org/resource/Aberdeen,_Maryland', 'http://dbpedia.org/resource/Aberdeen,_Mississippi', 'http://dbpedia.org/resource/Aberdeen,_North_Carolina', 'http://dbpedia.org/resource/Aberdeen,_Ohio', 'http://dbpedia.org/resource/Aberdeen,_Scotland', 'http://dbpedia.org/resource/Aberdeen,_South_Dakota', 'http://dbpedia.org/resource/Aberdeen,_Washington', 'http://dbpedia.org/resource/Aberdeen', 'http://dbpedia.org/resource/Aberdeenshire_(council_area)', 'http://dbpedia.org/resource/Aberdeenshire_(traditional)', 'http://dbpedia.org/resource/Aberdeenshire', 'http://dbpedia.org/resource/Aberdour', 'http://dbpedia.org/resource/Aberdyfi', 'http://dbpedia.org/resource/Aberfeldy,_Perth_and_Kinross', 'http://dbpedia.org/resource/Aberffraw', 'http://dbpedia.org/resource/Aberford', 'http://dbpedia.org/resource/Abergavenny', 'http://dbpedia.org/resource/Abergaveny', 'http://dbpedia.org/resource/Abergele', 'http://dbpedia.org/resource/Aberglasslyn,_New_South_Wales', 'http://dbpedia.org/resource/Abergwili', 'http://dbpedia.org/resource/Abergwyngregyn', 'http://dbpedia.org/resource/Aberkenfig', 'http://dbpedia.org/resource/Aberlady', 'http://dbpedia.org/resource/Aberlour', 'http://dbpedia.org/resource/Abermule', 'http://dbpedia.org/resource/Abernethy_No._186,_Saskatchewan', 'http://dbpedia.org/resource/Abernethy,_Perth_and_Kinross', 'http://dbpedia.org/resource/Aberporth', 'http://dbpedia.org/resource/Abertillery', 'http://dbpedia.org/resource/Aberuthven', 'http://dbpedia.org/resource/Aberystwyth_Arts_Centre', 'http://dbpedia.org/resource/Aberystwyth_University', 'http://dbpedia.org/resource/Aberystwyth,_Wales', 'http://dbpedia.org/resource/Aberystwyth', 'http://dbpedia.org/resource/Aberyswyth', 'http://dbpedia.org/resource/Abha,_Saudi_Arabia', 'http://dbpedia.org/resource/Abhar_County', 'http://dbpedia.org/resource/Abhayagiri_Monastery', 'http://dbpedia.org/resource/Abhayapuri', 'http://dbpedia.org/resource/Abia_State', 'http://dbpedia.org/resource/Abiansemal', 'http://dbpedia.org/resource/Abidjan,_Ivory_Coast', 'http://dbpedia.org/resource/Abidjan', 'http://dbpedia.org/resource/Abids', 'http://dbpedia.org/resource/Abiko,_Chiba', 'http://dbpedia.org/resource/Abilene,_Kansas', 'http://dbpedia.org/resource/Abilene,_Texas', 'http://dbpedia.org/resource/Abim,_Uganda', 'http://dbpedia.org/resource/Abingdon_Downs,_Queensland', 'http://dbpedia.org/resource/Abingdon_Square_Park', 'http://dbpedia.org/resource/Abingdon-on-Thames', 'http://dbpedia.org/resource/Abingdon,_Maryland', 'http://dbpedia.org/resource/Abingdon,_Oxfordshire', 'http://dbpedia.org/resource/Abingdon,_Virginia', 'http://dbpedia.org/resource/Abinger_Common', 'http://dbpedia.org/resource/Abington_Township,_Montgomery_County,_Pennsylvania', 'http://dbpedia.org/resource/Abington,_Connecticut', 'http://dbpedia.org/resource/Abington,_Massachusetts', 'http://dbpedia.org/resource/Abington,_Northamptonshire', 'http://dbpedia.org/resource/Abington,_South_Lanarkshire', 'http://dbpedia.org/resource/Abiquiu,_New_Mexico', 'http://dbpedia.org/resource/Abiquiú,_New_Mexico', 'http://dbpedia.org/resource/Abira,_Hokkaido', 'http://dbpedia.org/resource/Abisko_Scientific_Research_Station', 'http://dbpedia.org/resource/Abisko', 'http://dbpedia.org/resource/Abita_Springs,_LA', 'http://dbpedia.org/resource/Abita_Springs,_Louisiana', 'http://dbpedia.org/resource/Abitibi_Regional_County_Municipality,_Quebec', 'http://dbpedia.org/resource/Abitibi-Ouest_Regional_County_Municipality,_Quebec', 'http://dbpedia.org/resource/Abitibi-Témiscamingue', 'http://dbpedia.org/resource/Abkhazia', 'http://dbpedia.org/resource/Ablation_Valley', 'http://dbpedia.org/resource/ABN_(TV_station)', 'http://dbpedia.org/resource/Aboadze', 'http://dbpedia.org/resource/Aboisso_Department', 'http://dbpedia.org/resource/Aboite_Township,_Allen_County,_Indiana', 'http://dbpedia.org/resource/Abomey', 'http://dbpedia.org/resource/Abondance,_Haute-Savoie', 'http://dbpedia.org/resource/Abondant', 'http://dbpedia.org/resource/Aboriginal_Shire_of_Palm_Island', 'http://dbpedia.org/resource/Abottabad', 'http://dbpedia.org/resource/Åboulevard', 'http://dbpedia.org/resource/Abovyan_Street', 'http://dbpedia.org/resource/Abovyan', 'http://dbpedia.org/resource/Aboyne', 'http://dbpedia.org/resource/Abqaiq', 'http://dbpedia.org/resource/Abra_(province)', 'http://dbpedia.org/resource/Abrantes', 'http://dbpedia.org/resource/Abrepo', 'http://dbpedia.org/resource/Abrera', 'http://dbpedia.org/resource/Abronhill', 'http://dbpedia.org/resource/Abrud', 'http://dbpedia.org/resource/Abruka', 'http://dbpedia.org/resource/Abruzzo', 'http://dbpedia.org/resource/ABS-CBN_Broadcasting_Center', 'http://dbpedia.org/resource/ABS-CBN_Studios', 'http://dbpedia.org/resource/Absam', 'http://dbpedia.org/resource/Absarokee,_Montana', 'http://dbpedia.org/resource/Absheron_Peninsula', 'http://dbpedia.org/resource/Absheron_Rayon', 'http://dbpedia.org/resource/Abstatt', 'http://dbpedia.org/resource/Abu_%60Arish', 'http://dbpedia.org/resource/Abu_Dhabi_(city)', 'http://dbpedia.org/resource/Abu_Dhabi_National_Exhibition_Centre', 'http://dbpedia.org/resource/Abu_Dhabi_National_Exhibitions_Company', 'http://dbpedia.org/resource/Abu_Dhabi,_UAE', 'http://dbpedia.org/resource/Abu_Dhabi', 'http://dbpedia.org/resource/Abu_Ghosh', 'http://dbpedia.org/resource/Abu_Ghraib', 'http://dbpedia.org/resource/Abu_Hamour', 'http://dbpedia.org/resource/Abu_Rummaneh', 'http://dbpedia.org/resource/Abuja,_FCT', 'http://dbpedia.org/resource/Abuja', 'http://dbpedia.org/resource/Aburi', 'http://dbpedia.org/resource/Abuta_District,_Hokkaidō', 'http://dbpedia.org/resource/Abuzeydabad', 'http://dbpedia.org/resource/Aby_District', 'http://dbpedia.org/resource/Åby_Racetrack', 'http://dbpedia.org/resource/Åbyhøj', 'http://dbpedia.org/resource/Abymes', 'http://dbpedia.org/resource/Acacia_Ridge,_Queensland', 'http://dbpedia.org/resource/Acacías', 'http://dbpedia.org/resource/Academy_of_Sciences_Range', 'http://dbpedia.org/resource/Academy,_South_Dakota', 'http://dbpedia.org/resource/Acadia_National_Park', 'http://dbpedia.org/resource/Acadia_Valley,_Alberta', 'http://dbpedia.org/resource/Acadia', 'http://dbpedia.org/resource/Acandí', 'http://dbpedia.org/resource/Acapulco,_Guerrero', 'http://dbpedia.org/resource/Acapulco,_Mexico', 'http://dbpedia.org/resource/Acapulco', 'http://dbpedia.org/resource/Acarígua,_Venezuela', 'http://dbpedia.org/resource/Acarigua', 'http://dbpedia.org/resource/Accident,_Maryland', 'http://dbpedia.org/resource/Accokeek,_Maryland', 'http://dbpedia.org/resource/Accomac,_Virginia', 'http://dbpedia.org/resource/Accomack_County,_Virginia', 'http://dbpedia.org/resource/Accor_Arena', 'http://dbpedia.org/resource/Accord,_New_York', 'http://dbpedia.org/resource/AccorHotels_Arena', 'http://dbpedia.org/resource/Accountor_Tower', 'http://dbpedia.org/resource/Accra_Sports_Stadium', 'http://dbpedia.org/resource/Accra,_Ghana', 'http://dbpedia.org/resource/Accra', 'http://dbpedia.org/resource/Accrington', 'http://dbpedia.org/resource/Accursed_Mountains', 'http://dbpedia.org/resource/Ace_Cafe', 'http://dbpedia.org/resource/Aceh_Besar_Regency', 'http://dbpedia.org/resource/Aceh_Singkil_Regency', 'http://dbpedia.org/resource/Aceh', 'http://dbpedia.org/resource/Aceitunas', 'http://dbpedia.org/resource/Acer_Arena', 'http://dbpedia.org/resource/Achada_Grande_Tras', 'http://dbpedia.org/resource/Achada_Santo_António', 'http://dbpedia.org/resource/Achaea', 'http://dbpedia.org/resource/Achaemenid_Empire', 'http://dbpedia.org/resource/Acharnes', 'http://dbpedia.org/resource/Acheleia', 'http://dbpedia.org/resource/Achern', 'http://dbpedia.org/resource/Achham_District', 'http://dbpedia.org/resource/Achill_Island', 'http://dbpedia.org/resource/Achimota', 'http://dbpedia.org/resource/Achnacroish', 'http://dbpedia.org/resource/Achnamara', 'http://dbpedia.org/resource/Achocalla_Municipality', 'http://dbpedia.org/resource/Achrafieh,_Beirut', 'http://dbpedia.org/resource/Achrafieh', 'http://dbpedia.org/resource/Achstetten', 'http://dbpedia.org/resource/Achterwasser', 'http://dbpedia.org/resource/Achwa_River', 'http://dbpedia.org/resource/Aci_Castello', 'http://dbpedia.org/resource/ACI_Vallelunga_Circuit', 'http://dbpedia.org/resource/Acilia', 'http://dbpedia.org/resource/Acireale', 'http://dbpedia.org/resource/Acıbadem_University', 'http://dbpedia.org/resource/Ackerville,_Alabama', 'http://dbpedia.org/resource/Acklam,_Middlesbrough', 'http://dbpedia.org/resource/Ackley,_Iowa', 'http://dbpedia.org/resource/Acklington', 'http://dbpedia.org/resource/Acland,_Queensland', 'http://dbpedia.org/resource/Acme_Township,_Michigan', 'http://dbpedia.org/resource/Acme,_Alberta', 'http://dbpedia.org/resource/Acocks_Green', 'http://dbpedia.org/resource/Acoma_Pueblo', 'http://dbpedia.org/resource/Acoma,_New_Mexico', 'http://dbpedia.org/resource/Acomb,_North_Yorkshire', 'http://dbpedia.org/resource/Aconbury', 'http://dbpedia.org/resource/Acquasparta', 'http://dbpedia.org/resource/Acre_(state)', 'http://dbpedia.org/resource/Acre,_Israel', 'http://dbpedia.org/resource/Acrise', 'http://dbpedia.org/resource/Acton_Burnell', 'http://dbpedia.org/resource/Acton_Green,_London', 'http://dbpedia.org/resource/Acton_Park,_Wrexham', 'http://dbpedia.org/resource/Acton,_Australian_Capital_Territory', 'http://dbpedia.org/resource/Acton,_Cheshire', 'http://dbpedia.org/resource/Acton,_London', 'http://dbpedia.org/resource/Acton,_Maine', 'http://dbpedia.org/resource/Acton,_Massachusetts', 'http://dbpedia.org/resource/Acton,_Suffolk', 'http://dbpedia.org/resource/Acton,_Texas', 'http://dbpedia.org/resource/Actopan,_Hidalgo', 'http://dbpedia.org/resource/Actors_Theatre_of_Louisville', 'http://dbpedia.org/resource/Aculco', 'http://dbpedia.org/resource/Acuña_(municipality)', 'http://dbpedia.org/resource/Acuña_Municipality', 'http://dbpedia.org/resource/Acushnet_River', 'http://dbpedia.org/resource/Acushnet,_Massachusetts', 'http://dbpedia.org/resource/Acworth,_Georgia', 'http://dbpedia.org/resource/Acworth,_New_Hampshire', 'http://dbpedia.org/resource/Ad_Dakhiliyah_Region', 'http://dbpedia.org/resource/Ad_Damazin', 'http://dbpedia.org/resource/Ad-Dawhah_(municipality)', 'http://dbpedia.org/resource/Ada_County,_Idaho', 'http://dbpedia.org/resource/Ada_Township,_Michigan', 'http://dbpedia.org/resource/Ada,_Michigan', 'http://dbpedia.org/resource/Ada,_Minnesota', 'http://dbpedia.org/resource/Ada,_Oklahoma', 'http://dbpedia.org/resource/Adabraka', 'http://dbpedia.org/resource/Adachi,_Tokyo', 'http://dbpedia.org/resource/Adair_County,_Kentucky', 'http://dbpedia.org/resource/Adair_County,_Missouri', 'http://dbpedia.org/resource/Adair_County,_Oklahoma', 'http://dbpedia.org/resource/Adair,_Iowa', 'http://dbpedia.org/resource/Adairsville,_Georgia', 'http://dbpedia.org/resource/Adak_Island', 'http://dbpedia.org/resource/Adak,_Alaska', 'http://dbpedia.org/resource/Adalar', 'http://dbpedia.org/resource/Adam,_Oman', 'http://dbpedia.org/resource/Adama', 'http://dbpedia.org/resource/Adamana,_Arizona', 'http://dbpedia.org/resource/Adamant_Range', 'http://dbpedia.org/resource/Adamant,_Vermont', 'http://dbpedia.org/resource/Adamawa_Province', 'http://dbpedia.org/resource/Adamawa_State', 'http://dbpedia.org/resource/Adaminaby,_New_South_Wales', 'http://dbpedia.org/resource/Adampur', 'http://dbpedia.org/resource/Adams_(village),_New_York', 'http://dbpedia.org/resource/Adams_Basin,_New_York', 'http://dbpedia.org/resource/Adams_County,_Colorado', 'http://dbpedia.org/resource/Adams_County,_Idaho', 'http://dbpedia.org/resource/Adams_County,_Illinois', 'http://dbpedia.org/resource/Adams_County,_Iowa', 'http://dbpedia.org/resource/Adams_County,_Mississippi', 'http://dbpedia.org/resource/Adams_County,_Ohio', 'http://dbpedia.org/resource/Adams_County,_Pennsylvania', 'http://dbpedia.org/resource/Adams_County,_Washington', 'http://dbpedia.org/resou</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Alyssa_Milano', '1972-12-19', 'http://dbpedia.org/resource/Brian_Krause', '1969-02-01', 'http://dbpedia.org/resource/Dorian_Gregory', '1971-01-26', 'http://dbpedia.org/resource/Drew_Fuller', '1980-05-19', 'http://dbpedia.org/resource/Greg_Vaughan', '1973-06-15', 'http://dbpedia.org/resource/Holly_Marie_Combs', '1973-12-03', 'http://dbpedia.org/resource/Julian_McMahon', '1968-07-27', 'http://dbpedia.org/resource/Kaley_Cuoco', '1985-11-30', 'http://dbpedia.org/resource/Rose_McGowan', '1973-09-05', 'http://dbpedia.org/resource/Shannen_Doherty', '1971-04-12', 'http://dbpedia.org/resource/Ted_King_(actor)', '1965-10-01']</t>
   </si>
   <si>
     <t>None</t>
@@ -1531,159 +1263,174 @@
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"dbpedia_resource:Elton_John\\": mismatched input \'dbpedia_resource:Elton_John\' expecting \'}\'",\n    "metadata": {\n        "line": 4,\n        "positionInLine": 169,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia_resource: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Musical dbpedia:musicBy dbpedia_resource:Elton_John . }",\n        "startIndex": 313,\n        "stopIndex": 339\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia_resource: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Musical dbpedia:musicBy dbpedia_resource:Elton_John . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"dbpedia_resource:Elton_John\\": mismatched input \'dbpedia_resource:Elton_John\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 169,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia_resource: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Musical dbpedia:musicBy dbpedia_resource:Elton_John . }",\n        "startIndex": 169,\n        "stopIndex": 195\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia_resource: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Musical dbpedia:musicBy dbpedia_resource:Elton_John . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 4,\n        "positionInLine": 179,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbpo: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 ?league . ?league dbpo:name \\"Bundesliga\\"@en . FILTER(lang(?league) = \'en\') }",\n        "startIndex": 323,\n        "stopIndex": 332\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbpo: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 ?league . ?league dbpo:name \\"Bundesliga\\"@en . FILTER(lang(?league) = \'en\') }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 179,\n        "query": "PREFIX dbpo: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 ?league . ?league dbpo:name \\"Bundesliga\\"@en . FILTER(lang(?league) = \'en\') }",\n        "startIndex": 179,\n        "stopIndex": 188\n    },\n    "query": "PREFIX dbpo: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 ?league . ?league dbpo:name \\"Bundesliga\\"@en . FILTER(lang(?league) = \'en\') }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"?elevation\\": mismatched input \'?elevation\' expecting \'}\'",\n    "metadata": {\n        "line": 4,\n        "positionInLine": 116,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Mountain dbpedia:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1",\n        "startIndex": 260,\n        "stopIndex": 269\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Mountain dbpedia:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"?elevation\\": mismatched input \'?elevation\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 116,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Mountain dbpedia:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1",\n        "startIndex": 116,\n        "stopIndex": 125\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Mountain dbpedia:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 4,\n        "positionInLine": 231,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE {?uri db:occupation wikidata:P106 . ?uri db:instrument wikidata:Q8338 . ?uri wikidata:P106 wikidata:Q5280538 . UNION ?uri wikidata:P106 wikidata:Q806349 . }",\n        "startIndex": 375,\n        "stopIndex": 379\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE {?uri db:occupation wikidata:P106 . ?uri db:instrument wikidata:Q8338 . ?uri wikidata:P106 wikidata:Q5280538 . UNION ?uri wikidata:P106 wikidata:Q806349 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 231,\n        "query": "PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE {?uri db:occupation wikidata:P106 . ?uri db:instrument wikidata:Q8338 . ?uri wikidata:P106 wikidata:Q5280538 . UNION ?uri wikidata:P106 wikidata:Q806349 . }",\n        "startIndex": 231,\n        "stopIndex": 235\n    },\n    "query": "PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE {?uri db:occupation wikidata:P106 . ?uri db:instrument wikidata:Q8338 . ?uri wikidata:P106 wikidata:Q5280538 . UNION ?uri wikidata:P106 wikidata:Q806349 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 4,\n        "positionInLine": 132,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?year WHERE { dbpedia:Rachel_Stevens wdt:P569 ?date . BIND(YEAR(?date) as ?year) }",\n        "startIndex": 276,\n        "stopIndex": 297\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?year WHERE { dbpedia:Rachel_Stevens wdt:P569 ?date . BIND(YEAR(?date) as ?year) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 132,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?year WHERE { dbpedia:Rachel_Stevens wdt:P569 ?date . BIND(YEAR(?date) as ?year) }",\n        "startIndex": 132,\n        "stopIndex": 153\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?year WHERE { dbpedia:Rachel_Stevens wdt:P569 ?date . BIND(YEAR(?date) as ?year) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 4,\n        "positionInLine": 34,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }",\n        "startIndex": 178,\n        "stopIndex": 184\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Not supported: Named Graphs (FROM, GRAPH) are currently not supported by QLever.",\n    "metadata": {\n        "line": 4,\n        "positionInLine": 120,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nSELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Angela_Merkel&gt; &lt;http://dbpedia.org/ontology/almaMater&gt; ?uri . GRAPH &lt;http://dbpedia.org&gt; { ?uri &lt;http://xmlns.com/foaf/0.1/isPrimaryTopicOf&gt; ?dbpedia_uri . } BIND(?dbpedia_uri AS ?uri) }",\n        "startIndex": 264,\n        "stopIndex": 358\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nSELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Angela_Merkel&gt; &lt;http://dbpedia.org/ontology/almaMater&gt; ?uri . GRAPH &lt;http://dbpedia.org&gt; { ?uri &lt;http://xmlns.com/foaf/0.1/isPrimaryTopicOf&gt; ?dbpedia_uri . } BIND(?dbpedia_uri AS ?uri) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Not supported: Named Graphs (FROM, GRAPH) are currently not supported by QLever.",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 120,\n        "query": "SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Angela_Merkel&gt; &lt;http://dbpedia.org/ontology/almaMater&gt; ?uri . GRAPH &lt;http://dbpedia.org&gt; { ?uri &lt;http://xmlns.com/foaf/0.1/isPrimaryTopicOf&gt; ?dbpedia_uri . } BIND(?dbpedia_uri AS ?uri) }",\n        "startIndex": 120,\n        "stopIndex": 214\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Angela_Merkel&gt; &lt;http://dbpedia.org/ontology/almaMater&gt; ?uri . GRAPH &lt;http://dbpedia.org&gt; { ?uri &lt;http://xmlns.com/foaf/0.1/isPrimaryTopicOf&gt; ?dbpedia_uri . } BIND(?dbpedia_uri AS ?uri) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"a\\": mismatched input \'a\' expecting \')\'",\n    "metadata": {\n        "line": 3,\n        "positionInLine": 174,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?film ?movie WHERE { ?film dbo:starring ?movie. ?movie dbo:starring &lt;http://dbpedia.org/resource/Tom_Cruise&gt;. FILTER (?film a dbo:Film). }",\n        "startIndex": 275,\n        "stopIndex": 275\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?film ?movie WHERE { ?film dbo:starring ?movie. ?movie dbo:starring &lt;http://dbpedia.org/resource/Tom_Cruise&gt;. FILTER (?film a dbo:Film). }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"a\\": mismatched input \'a\' expecting \')\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 174,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?film ?movie WHERE { ?film dbo:starring ?movie. ?movie dbo:starring &lt;http://dbpedia.org/resource/Tom_Cruise&gt;. FILTER (?film a dbo:Film). }",\n        "startIndex": 174,\n        "stopIndex": 174\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?film ?movie WHERE { ?film dbo:starring ?movie. ?movie dbo:starring &lt;http://dbpedia.org/resource/Tom_Cruise&gt;. FILTER (?film a dbo:Film). }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"owl:sameAs\\": mismatched input \'owl:sameAs\' expecting \'}\'",\n    "metadata": {\n        "line": 4,\n        "positionInLine": 199,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:birthPlace &lt;http://dbpedia.org/ontology/birthPlace&gt; . ?uri dbpedia:birthPlace &lt;http://dbpedia.org/ontology/birthPlace&gt; owl:sameAs &lt;http://www.wikidata.org/entity/P19&gt; . ?uri dbpedia:birthPlace &lt;http://dbpedia.org/resource/Moscow&gt; . ?uri a dbpedia:Swimmer . }",\n        "startIndex": 343,\n        "stopIndex": 352\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:birthPlace &lt;http://dbpedia.org/ontology/birthPlace&gt; . ?uri dbpedia:birthPlace &lt;http://dbpedia.org/ontology/birthPlace&gt; owl:sameAs &lt;http://www.wikidata.org/entity/P19&gt; . ?uri dbpedia:birthPlace &lt;http://dbpedia.org/resource/Moscow&gt; . ?uri a dbpedia:Swimmer . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"owl:sameAs\\": mismatched input \'owl:sameAs\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 199,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:birthPlace &lt;http://dbpedia.org/ontology/birthPlace&gt; . ?uri dbpedia:birthPlace &lt;http://dbpedia.org/ontology/birthPlace&gt; owl:sameAs &lt;http://www.wikidata.org/entity/P19&gt; . ?uri dbpedia:birthPlace &lt;http://dbpedia.org/resource/Moscow&gt; . ?uri a dbpedia:Swimmer . }",\n        "startIndex": 199,\n        "stopIndex": 208\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:birthPlace &lt;http://dbpedia.org/ontology/birthPlace&gt; . ?uri dbpedia:birthPlace &lt;http://dbpedia.org/ontology/birthPlace&gt; owl:sameAs &lt;http://www.wikidata.org/entity/P19&gt; . ?uri dbpedia:birthPlace &lt;http://dbpedia.org/resource/Moscow&gt; . ?uri a dbpedia:Swimmer . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"?person\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXwd:&lt;http://www.wikidata.org/entity/&gt;PREFIXwdt:&lt;http://www.wikidata.org/prop/direct/&gt;?person\'",\n    "metadata": {\n        "line": 3,\n        "positionInLine": 139,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; ?person dbo:birthPlace wd:Q160544 . SELECT ?person",\n        "startIndex": 240,\n        "stopIndex": 246\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; ?person dbo:birthPlace wd:Q160544 . SELECT ?person",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"?person\\": no viable alternative at input \'PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXwd:&lt;http://www.wikidata.org/entity/&gt;PREFIXwdt:&lt;http://www.wikidata.org/prop/direct/&gt;?person\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 139,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; ?person dbo:birthPlace wd:Q160544 . SELECT ?person",\n        "startIndex": 139,\n        "stopIndex": 145\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; ?person dbo:birthPlace wd:Q160544 . SELECT ?person",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 4,\n        "positionInLine": 203,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?elevation WHERE { dbpedia:Airport ?airport . ?airport dbpedia:elevation ?elevation . FILTER(regex(str(?airport), \\"D\xc3\xbcsseldorf_Airport\\")) }",\n        "startIndex": 347,\n        "stopIndex": 347\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?elevation WHERE { dbpedia:Airport ?airport . ?airport dbpedia:elevation ?elevation . FILTER(regex(str(?airport), \\"D\xc3\xbcsseldorf_Airport\\")) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 203,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?elevation WHERE { dbpedia:Airport ?airport . ?airport dbpedia:elevation ?elevation . FILTER(regex(str(?airport), \\"D\xc3\xbcsseldorf_Airport\\")) }",\n        "startIndex": 203,\n        "stopIndex": 203\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?elevation WHERE { dbpedia:Airport ?airport . ?airport dbpedia:elevation ?elevation . FILTER(regex(str(?airport), \\"D\xc3\xbcsseldorf_Airport\\")) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>EndPointInternalError: The endpoint returned the HTTP status code 500. 
 Response:
-b'{\n    "exception": "Assertion `it != inputs.end()` failed. Please report this to the developers. In file \\"/app/src/engine/sparqlExpressions/AggregateExpression.h \\" at line 128",\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri db:City ?population . FILTER (?population = MIN(?population)) } ORDER BY ?population LIMIT 1",\n    "resultsize": 0,\n    "runtimeInformation": {\n        "cache_status": "computed",\n        "children": [\n            {\n                "cache_status": "computed",\n                "children": [\n                    {\n                        "cache_status": "computed",\n                        "children": [\n                            {\n                                "cache_status": "computed",\n                                "children": [],\n                                "column_names": [\n                                    "?uri",\n                                    "?population"\n                                ],\n                                "description": "IndexScan ?uri &lt;http://dbpedia.org/ontology/City&gt; ?population",\n                                "details": null,\n                                "estimated_column_multiplicities": [\n                                    1.0,\n                                    1.0\n                                ],\n                                "estimated_operation_cost": 0,\n                                "estimated_size": 0,\n                                "estimated_total_cost": 0,\n                                "operation_time": 0,\n                                "original_operation_time": 0,\n                                "original_total_time": 0,\n                                "result_cols": 2,\n                                "result_rows": 0,\n                                "status": "fully materialized",\n                                "total_time": 0\n                            }\n                        ],\n                        "column_names": [\n                            "?uri",\n                            "?population"\n                        ],\n                        "description": "Filter (?population = MIN(?population))",\n                        "details": null,\n                        "estimated_column_multiplicities": [\n                            1.0,\n                            1.0\n                        ],\n                        "estimated_operation_cost": 0,\n                        "estimated_size": 0,\n                        "estimated_total_cost": 0,\n                        "operation_time": 0,\n                        "original_operation_time": 0,\n                        "original_total_time": 0,\n                        "result_cols": 2,\n                        "result_rows": 0,\n                        "status": "failed",\n                        "total_time": 0\n                    }\n                ],\n                "column_names": [\n                    "?uri",\n                    "?population"\n                ],\n                "description": "Distinct",\n                "details": null,\n                "estimated_column_multiplicities": [\n                    1.0,\n                    1.0\n                ],\n                "estimated_operation_cost": 0,\n                "estimated_size": 0,\n                "estimated_total_cost": 0,\n                "operation_time": 0,\n                "original_operation_time": 0,\n                "original_total_time": 0,\n                "result_cols": 2,\n                "result_rows": 0,\n                "status": "failed because child failed",\n                "total_time": 0\n            }\n        ],\n        "column_names": [\n            "?uri",\n            "?population"\n        ],\n        "description": "OrderBy on ASC(?population)",\n        "details": null,\n        "estimated_column_multiplicities": [\n            1.0,\n            1.0\n        ],\n        "estimated_operation_cost": 0,\n        "estimated_size": 0,\n        "estimated_total_cost": 0,\n        "operation_time": 1,\n        "original_operation_time": 0,\n        "original_total_time": 0,\n        "result_cols": 2,\n        "result_rows": 0,\n        "status": "failed because child failed",\n        "total_time": 1\n    },\n    "status": "ERROR",\n    "time": {\n        "computeResult": 2,\n        "total": 2\n    }\n}'</t>
+b'{\n    "exception": "Assertion `it != inputs.end()` failed. Please report this to the developers. In file \\"/app/src/engine/sparqlExpressions/AggregateExpression.h \\" at line 128",\n    "query": "PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri db:City ?population . FILTER (?population = MIN(?population)) } ORDER BY ?population LIMIT 1",\n    "resultsize": 0,\n    "runtimeInformation": {\n        "cache_status": "computed",\n        "children": [\n            {\n                "cache_status": "computed",\n                "children": [\n                    {\n                        "cache_status": "computed",\n                        "children": [\n                            {\n                                "cache_status": "cached_not_pinned",\n                                "children": [],\n                                "column_names": [\n                                    "?uri",\n                                    "?population"\n                                ],\n                                "description": "IndexScan ?uri &lt;http://dbpedia.org/ontology/City&gt; ?population",\n                                "details": null,\n                                "estimated_column_multiplicities": [\n                                    1.0,\n                                    1.0\n                                ],\n                                "estimated_operation_cost": 0,\n                                "estimated_size": 0,\n                                "estimated_total_cost": 0,\n                                "operation_time": 0,\n                                "original_operation_time": 0,\n                                "original_total_time": 0,\n                                "result_cols": 2,\n                                "result_rows": 0,\n                                "status": "fully materialized",\n                                "total_time": 0\n                            }\n                        ],\n                        "column_names": [\n                            "?uri",\n                            "?population"\n                        ],\n                        "description": "Filter (?population = MIN(?population))",\n                        "details": null,\n                        "estimated_column_multiplicities": [\n                            1.0,\n                            1.0\n                        ],\n                        "estimated_operation_cost": 0,\n                        "estimated_size": 0,\n                        "estimated_total_cost": 0,\n                        "operation_time": 0,\n                        "original_operation_time": 0,\n                        "original_total_time": 0,\n                        "result_cols": 2,\n                        "result_rows": 0,\n                        "status": "failed",\n                        "total_time": 0\n                    }\n                ],\n                "column_names": [\n                    "?uri",\n                    "?population"\n                ],\n                "description": "Distinct",\n                "details": null,\n                "estimated_column_multiplicities": [\n                    1.0,\n                    1.0\n                ],\n                "estimated_operation_cost": 0,\n                "estimated_size": 0,\n                "estimated_total_cost": 0,\n                "operation_time": 0,\n                "original_operation_time": 0,\n                "original_total_time": 0,\n                "result_cols": 2,\n                "result_rows": 0,\n                "status": "failed because child failed",\n                "total_time": 0\n            }\n        ],\n        "column_names": [\n            "?uri",\n            "?population"\n        ],\n        "description": "OrderBy on ASC(?population)",\n        "details": null,\n        "estimated_column_multiplicities": [\n            1.0,\n            1.0\n        ],\n        "estimated_operation_cost": 0,\n        "estimated_size": 0,\n        "estimated_total_cost": 0,\n        "operation_time": 1,\n        "original_operation_time": 0,\n        "original_total_time": 0,\n        "result_cols": 2,\n        "result_rows": 0,\n        "status": "failed because child failed",\n        "total_time": 1\n    },\n    "status": "ERROR",\n    "time": {\n        "computeResult": 2,\n        "total": 2\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 4,\n        "positionInLine": 213,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT ?holiday WHERE { ?holiday a dbpedia:Holiday . ?holiday dbpedia:country wikidata:P17 . ?holiday wikidata:Q34 . }",\n        "startIndex": 357,\n        "stopIndex": 357\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT ?holiday WHERE { ?holiday a dbpedia:Holiday . ?holiday dbpedia:country wikidata:P17 . ?holiday wikidata:Q34 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 213,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT ?holiday WHERE { ?holiday a dbpedia:Holiday . ?holiday dbpedia:country wikidata:P17 . ?holiday wikidata:Q34 . }",\n        "startIndex": 213,\n        "stopIndex": 213\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT ?holiday WHERE { ?holiday a dbpedia:Holiday . ?holiday dbpedia:country wikidata:P17 . ?holiday wikidata:Q34 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 2,\n        "total": 2\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 3,\n        "positionInLine": 119,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?uri WHERE { dbp:Apple_Inc. dbo:netIncome ?uri . }",\n        "startIndex": 220,\n        "stopIndex": 220\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?uri WHERE { dbp:Apple_Inc. dbo:netIncome ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 119,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?uri WHERE { dbp:Apple_Inc. dbo:netIncome ?uri . }",\n        "startIndex": 119,\n        "stopIndex": 119\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?uri WHERE { dbp:Apple_Inc. dbo:netIncome ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: token recognition error at: \'\'s_Theatre }\'",\n    "metadata": {\n        "line": 2,\n        "positionInLine": 134,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:deathPlace dbr:Ford\'s_Theatre }",\n        "startIndex": 192,\n        "stopIndex": 192\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:deathPlace dbr:Ford\'s_Theatre }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: token recognition error at: \'\'s_Theatre }\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 134,\n        "query": "PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:deathPlace dbr:Ford\'s_Theatre }",\n        "startIndex": 134,\n        "stopIndex": 134\n    },\n    "query": "PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:deathPlace dbr:Ford\'s_Theatre }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 4,\n        "positionInLine": 181,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:currency ?currency . ?currency &lt;http://dbpedia.org/resource/West_African_CFA_franc&gt; . }",\n        "startIndex": 325,\n        "stopIndex": 325\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:currency ?currency . ?currency &lt;http://dbpedia.org/resource/West_African_CFA_franc&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 181,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:currency ?currency . ?currency &lt;http://dbpedia.org/resource/West_African_CFA_franc&gt; . }",\n        "startIndex": 181,\n        "stopIndex": 181\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:currency ?currency . ?currency &lt;http://dbpedia.org/resource/West_African_CFA_franc&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 4,\n        "positionInLine": 214,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbp:Holiday . ?uri owl:sameAs wd:Q1445650 . }",\n        "startIndex": 358,\n        "stopIndex": 368\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbp:Holiday . ?uri owl:sameAs wd:Q1445650 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 175,\n        "query": "PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbp:Holiday . ?uri owl:sameAs wd:Q1445650 . }",\n        "startIndex": 175,\n        "stopIndex": 182\n    },\n    "query": "PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbp:Holiday . ?uri owl:sameAs wd:Q1445650 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"The_Three_Dancers\\": extraneous input \'The_Three_Dancers\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 4,\n        "positionInLine": 136,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbpedia: The_Three_Dancers dbpedia-owl:author ?painter . ?painter dbpedia-owl:movement ?uri . }",\n        "startIndex": 280,\n        "stopIndex": 296\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbpedia: The_Three_Dancers dbpedia-owl:author ?painter . ?painter dbpedia-owl:movement ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"The_Three_Dancers\\": extraneous input \'The_Three_Dancers\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 136,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbpedia: The_Three_Dancers dbpedia-owl:author ?painter . ?painter dbpedia-owl:movement ?uri . }",\n        "startIndex": 136,\n        "stopIndex": 152\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbpedia: The_Three_Dancers dbpedia-owl:author ?painter . ?painter dbpedia-owl:movement ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 4,\n        "positionInLine": 103,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:Actor . ?uri dbpedia-owl:birthPlace ?birthPlace . ?birthPlace dbpedia-owl:country &lt;http://dbpedia.org/resource/Germany&gt; . }",\n        "startIndex": 247,\n        "stopIndex": 247\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:Actor . ?uri dbpedia-owl:birthPlace ?birthPlace . ?birthPlace dbpedia-owl:country &lt;http://dbpedia.org/resource/Germany&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 103,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:Actor . ?uri dbpedia-owl:birthPlace ?birthPlace . ?birthPlace dbpedia-owl:country &lt;http://dbpedia.org/resource/Germany&gt; . }",\n        "startIndex": 103,\n        "stopIndex": 103\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:Actor . ?uri dbpedia-owl:birthPlace ?birthPlace . ?birthPlace dbpedia-owl:country &lt;http://dbpedia.org/resource/Germany&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Not supported: FROM clauses are currently not supported by QLever.",\n    "metadata": {\n        "line": 3,\n        "positionInLine": 140,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri FROM &lt;http://dbpedia.org&gt; WHERE { db:Brooklyn_Bridge dbo:architect ?uri . }",\n        "startIndex": 241,\n        "stopIndex": 265\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri FROM &lt;http://dbpedia.org&gt; WHERE { db:Brooklyn_Bridge dbo:architect ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Not supported: FROM clauses are currently not supported by QLever.",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 140,\n        "query": "PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri FROM &lt;http://dbpedia.org&gt; WHERE { db:Brooklyn_Bridge dbo:architect ?uri . }",\n        "startIndex": 140,\n        "stopIndex": 164\n    },\n    "query": "PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri FROM &lt;http://dbpedia.org&gt; WHERE { db:Brooklyn_Bridge dbo:architect ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 4,\n        "positionInLine": 127,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?currency WHERE { ?country dbpedia-owl:currency ?currency . ?country wikibase:reference &lt;http://dbpedia.org/resource/Czech_Republic&gt; . }",\n        "startIndex": 271,\n        "stopIndex": 288\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?currency WHERE { ?country dbpedia-owl:currency ?currency . ?country wikibase:reference &lt;http://dbpedia.org/resource/Czech_Republic&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 127,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?currency WHERE { ?country dbpedia-owl:currency ?currency . ?country wikibase:reference &lt;http://dbpedia.org/resource/Czech_Republic&gt; . }",\n        "startIndex": 127,\n        "stopIndex": 144\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?currency WHERE { ?country dbpedia-owl:currency ?currency . ?country wikibase:reference &lt;http://dbpedia.org/resource/Czech_Republic&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\";\\": extraneous input \';\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 4,\n        "positionInLine": 120,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?dbpedia_uri WHERE { ?dbpedia_uri dbpedia-owl:Bridge ; dbpedia-owl:crosses &lt;http://dbpedia.org/resource/Seine&gt; . }",\n        "startIndex": 264,\n        "stopIndex": 264\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?dbpedia_uri WHERE { ?dbpedia_uri dbpedia-owl:Bridge ; dbpedia-owl:crosses &lt;http://dbpedia.org/resource/Seine&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\";\\": extraneous input \';\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 120,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?dbpedia_uri WHERE { ?dbpedia_uri dbpedia-owl:Bridge ; dbpedia-owl:crosses &lt;http://dbpedia.org/resource/Seine&gt; . }",\n        "startIndex": 120,\n        "stopIndex": 120\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?dbpedia_uri WHERE { ?dbpedia_uri dbpedia-owl:Bridge ; dbpedia-owl:crosses &lt;http://dbpedia.org/resource/Seine&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting &lt;EOF&gt;",\n    "metadata": {\n        "line": 4,\n        "positionInLine": 371,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/subject&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . ?uri &lt;http://dbpedia.org/ontology/creator&gt; ?creator . ?creator &lt;http://dbpedia.org/ontology/subject&gt; ?uri . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . FILTER (?creator = &lt;http://dbpedia.org/ontology/creator&gt;) } UNION { ?uri &lt;http://dbpedia.org/ontology/subject&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . FILTER (?uri = ?creator) ?creator &lt;http://dbpedia.org/ontology/subject&gt; ?uri . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . }",\n        "startIndex": 515,\n        "stopIndex": 519\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/subject&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . ?uri &lt;http://dbpedia.org/ontology/creator&gt; ?creator . ?creator &lt;http://dbpedia.org/ontology/subject&gt; ?uri . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . FILTER (?creator = &lt;http://dbpedia.org/ontology/creator&gt;) } UNION { ?uri &lt;http://dbpedia.org/ontology/subject&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . FILTER (?uri = ?creator) ?creator &lt;http://dbpedia.org/ontology/subject&gt; ?uri . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting &lt;EOF&gt;",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 371,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/subject&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . ?uri &lt;http://dbpedia.org/ontology/creator&gt; ?creator . ?creator &lt;http://dbpedia.org/ontology/subject&gt; ?uri . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . FILTER (?creator = &lt;http://dbpedia.org/ontology/creator&gt;) } UNION { ?uri &lt;http://dbpedia.org/ontology/subject&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . FILTER (?uri = ?creator) ?creator &lt;http://dbpedia.org/ontology/subject&gt; ?uri . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . }",\n        "startIndex": 371,\n        "stopIndex": 375\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/subject&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . ?uri &lt;http://dbpedia.org/ontology/creator&gt; ?creator . ?creator &lt;http://dbpedia.org/ontology/subject&gt; ?uri . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . FILTER (?creator = &lt;http://dbpedia.org/ontology/creator&gt;) } UNION { ?uri &lt;http://dbpedia.org/ontology/subject&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . FILTER (?uri = ?creator) ?creator &lt;http://dbpedia.org/ontology/subject&gt; ?uri . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 4,\n        "positionInLine": 122,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { ?uri db:Writer . ?uri wdt:P166 wd:Q37922 . }",\n        "startIndex": 266,\n        "stopIndex": 266\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { ?uri db:Writer . ?uri wdt:P166 wd:Q37922 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 122,\n        "query": "PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { ?uri db:Writer . ?uri wdt:P166 wd:Q37922 . }",\n        "startIndex": 122,\n        "stopIndex": 122\n    },\n    "query": "PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { ?uri db:Writer . ?uri wdt:P166 wd:Q37922 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"?height\\": mismatched input \'?height\' expecting \'}\'",\n    "metadata": {\n        "line": 4,\n        "positionInLine": 118,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/BasketballPlayer&gt; &lt;http://dbpedia.org/ontology/height&gt; ?height . FILTER(?height &gt; 200) }",\n        "startIndex": 262,\n        "stopIndex": 268\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/BasketballPlayer&gt; &lt;http://dbpedia.org/ontology/height&gt; ?height . FILTER(?height &gt; 200) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"?height\\": mismatched input \'?height\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 118,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/BasketballPlayer&gt; &lt;http://dbpedia.org/ontology/height&gt; ?height . FILTER(?height &gt; 200) }",\n        "startIndex": 118,\n        "stopIndex": 124\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/BasketballPlayer&gt; &lt;http://dbpedia.org/ontology/height&gt; ?height . FILTER(?height &gt; 200) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 4,\n        "positionInLine": 74,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Astronaut&gt; . { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Soviet_Union&gt; } UNION { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Russia&gt; } }",\n        "startIndex": 218,\n        "stopIndex": 218\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Astronaut&gt; . { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Soviet_Union&gt; } UNION { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Russia&gt; } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 74,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Astronaut&gt; . { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Soviet_Union&gt; } UNION { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Russia&gt; } }",\n        "startIndex": 74,\n        "stopIndex": 74\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Astronaut&gt; . { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Soviet_Union&gt; } UNION { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Russia&gt; } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 3,\n        "positionInLine": 170,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Batman&gt; dbo:creator ?uri . &lt;http://www.wikidata.org/entity/Q2695156&gt; wdt:P170 ?uri . }",\n        "startIndex": 271,\n        "stopIndex": 278\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Batman&gt; dbo:creator ?uri . &lt;http://www.wikidata.org/entity/Q2695156&gt; wdt:P170 ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 170,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Batman&gt; dbo:creator ?uri . &lt;http://www.wikidata.org/entity/Q2695156&gt; wdt:P170 ?uri . }",\n        "startIndex": 170,\n        "stopIndex": 177\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Batman&gt; dbo:creator ?uri . &lt;http://www.wikidata.org/entity/Q2695156&gt; wdt:P170 ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 3,\n        "positionInLine": 72,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { dbpedia:North_Rhine-Westphalia dbo:areaTotal ?val . }",\n        "startIndex": 173,\n        "stopIndex": 202\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { dbpedia:North_Rhine-Westphalia dbo:areaTotal ?val . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 72,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { dbpedia:North_Rhine-Westphalia dbo:areaTotal ?val . }",\n        "startIndex": 72,\n        "stopIndex": 101\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { dbpedia:North_Rhine-Westphalia dbo:areaTotal ?val . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 4,\n        "positionInLine": 66,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?budget WHERE { dbpedia:Pulp_Fiction dbpedia:budget ?budget . }",\n        "startIndex": 210,\n        "stopIndex": 229\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?budget WHERE { dbpedia:Pulp_Fiction dbpedia:budget ?budget . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 66,\n        "query": "PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?budget WHERE { dbpedia:Pulp_Fiction dbpedia:budget ?budget . }",\n        "startIndex": 66,\n        "stopIndex": 85\n    },\n    "query": "PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?budget WHERE { dbpedia:Pulp_Fiction dbpedia:budget ?budget . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 4,\n        "positionInLine": 72,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Country&gt; . ?uri &lt;http://dbpedia.org/ontology/areaTotal&gt; ?area . } ORDER BY DESC(?area) LIMIT 1",\n        "startIndex": 216,\n        "stopIndex": 216\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Country&gt; . ?uri &lt;http://dbpedia.org/ontology/areaTotal&gt; ?area . } ORDER BY DESC(?area) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 72,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Country&gt; . ?uri &lt;http://dbpedia.org/ontology/areaTotal&gt; ?area . } ORDER BY DESC(?area) LIMIT 1",\n        "startIndex": 72,\n        "stopIndex": 72\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Country&gt; . ?uri &lt;http://dbpedia.org/ontology/areaTotal&gt; ?area . } ORDER BY DESC(?area) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>Structural Error</t>
+  </si>
+  <si>
+    <t>Query Bad Formed</t>
+  </si>
+  <si>
+    <t>Unadapted Dataset Patterns</t>
+  </si>
+  <si>
+    <t>Resource treated as Ontology</t>
+  </si>
+  <si>
+    <t>Missing rdf:type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1742,17 +1489,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1790,7 +1545,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1824,6 +1579,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1858,9 +1614,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2033,14 +1790,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2062,16 +1819,19 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D2" t="s">
         <v>307</v>
@@ -2085,22 +1845,25 @@
       <c r="G2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D3" t="s">
         <v>308</v>
       </c>
       <c r="E3" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="F3" t="s">
         <v>411</v>
@@ -2108,22 +1871,25 @@
       <c r="G3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D4" t="s">
         <v>309</v>
       </c>
       <c r="E4" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="F4" t="s">
         <v>412</v>
@@ -2131,22 +1897,25 @@
       <c r="G4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E5" t="s">
-        <v>405</v>
+        <v>354</v>
       </c>
       <c r="F5" t="s">
         <v>411</v>
@@ -2154,22 +1923,25 @@
       <c r="G5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E6" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="F6" t="s">
         <v>413</v>
@@ -2177,22 +1949,25 @@
       <c r="G6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F7" t="s">
         <v>411</v>
@@ -2200,22 +1975,25 @@
       <c r="G7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E8" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="F8" t="s">
         <v>414</v>
@@ -2223,22 +2001,25 @@
       <c r="G8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D9" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E9" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F9" t="s">
         <v>411</v>
@@ -2246,22 +2027,25 @@
       <c r="G9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F10" t="s">
         <v>411</v>
@@ -2269,22 +2053,25 @@
       <c r="G10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
         <v>216</v>
       </c>
       <c r="D11" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E11" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F11" t="s">
         <v>411</v>
@@ -2292,22 +2079,25 @@
       <c r="G11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
         <v>217</v>
       </c>
       <c r="D12" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E12" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="F12" t="s">
         <v>411</v>
@@ -2315,22 +2105,25 @@
       <c r="G12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
         <v>218</v>
       </c>
       <c r="D13" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="E13" t="s">
-        <v>405</v>
+        <v>358</v>
       </c>
       <c r="F13" t="s">
         <v>411</v>
@@ -2338,22 +2131,25 @@
       <c r="G13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
         <v>219</v>
       </c>
       <c r="D14" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E14" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="F14" t="s">
         <v>411</v>
@@ -2361,22 +2157,25 @@
       <c r="G14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
         <v>220</v>
       </c>
       <c r="D15" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E15" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="F15" t="s">
         <v>411</v>
@@ -2384,22 +2183,25 @@
       <c r="G15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
         <v>221</v>
       </c>
       <c r="D16" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="E16" t="s">
-        <v>406</v>
+        <v>343</v>
       </c>
       <c r="F16" t="s">
         <v>415</v>
@@ -2407,22 +2209,25 @@
       <c r="G16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
         <v>222</v>
       </c>
       <c r="D17" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E17" t="s">
-        <v>407</v>
+        <v>361</v>
       </c>
       <c r="F17" t="s">
         <v>411</v>
@@ -2430,22 +2235,25 @@
       <c r="G17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s">
         <v>223</v>
       </c>
       <c r="D18" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="E18" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
       <c r="F18" t="s">
         <v>416</v>
@@ -2453,22 +2261,25 @@
       <c r="G18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
         <v>224</v>
       </c>
       <c r="D19" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E19" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="F19" t="s">
         <v>411</v>
@@ -2476,22 +2287,25 @@
       <c r="G19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
         <v>225</v>
       </c>
       <c r="D20" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="E20" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="F20" t="s">
         <v>411</v>
@@ -2499,22 +2313,25 @@
       <c r="G20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
         <v>226</v>
       </c>
       <c r="D21" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E21" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="F21" t="s">
         <v>411</v>
@@ -2522,22 +2339,25 @@
       <c r="G21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
         <v>227</v>
       </c>
       <c r="D22" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E22" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F22" t="s">
         <v>411</v>
@@ -2545,22 +2365,25 @@
       <c r="G22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
         <v>228</v>
       </c>
       <c r="D23" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E23" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="F23" t="s">
         <v>411</v>
@@ -2568,22 +2391,25 @@
       <c r="G23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
         <v>229</v>
       </c>
       <c r="D24" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="E24" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="F24" t="s">
         <v>411</v>
@@ -2591,22 +2417,25 @@
       <c r="G24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
         <v>230</v>
       </c>
       <c r="D25" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="E25" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F25" t="s">
         <v>411</v>
@@ -2614,22 +2443,25 @@
       <c r="G25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
         <v>231</v>
       </c>
       <c r="D26" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E26" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F26" t="s">
         <v>411</v>
@@ -2637,22 +2469,25 @@
       <c r="G26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
         <v>232</v>
       </c>
       <c r="D27" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E27" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="F27" t="s">
         <v>411</v>
@@ -2660,22 +2495,25 @@
       <c r="G27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
         <v>233</v>
       </c>
       <c r="D28" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="E28" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="F28" t="s">
         <v>411</v>
@@ -2683,22 +2521,25 @@
       <c r="G28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
         <v>234</v>
       </c>
       <c r="D29" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="E29" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="F29" t="s">
         <v>411</v>
@@ -2706,22 +2547,25 @@
       <c r="G29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s">
         <v>235</v>
       </c>
       <c r="D30" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="E30" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F30" t="s">
         <v>411</v>
@@ -2729,22 +2573,25 @@
       <c r="G30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C31" t="s">
         <v>236</v>
       </c>
       <c r="D31" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E31" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="F31" t="s">
         <v>411</v>
@@ -2752,22 +2599,25 @@
       <c r="G31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C32" t="s">
         <v>237</v>
       </c>
       <c r="D32" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="E32" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="F32" t="s">
         <v>417</v>
@@ -2775,22 +2625,25 @@
       <c r="G32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s">
         <v>238</v>
       </c>
       <c r="D33" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="E33" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="F33" t="s">
         <v>411</v>
@@ -2798,22 +2651,25 @@
       <c r="G33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C34" t="s">
         <v>239</v>
       </c>
       <c r="D34" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="E34" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="F34" t="s">
         <v>411</v>
@@ -2821,22 +2677,25 @@
       <c r="G34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
         <v>240</v>
       </c>
       <c r="D35" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="E35" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="F35" t="s">
         <v>418</v>
@@ -2844,22 +2703,25 @@
       <c r="G35" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C36" t="s">
         <v>241</v>
       </c>
       <c r="D36" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="E36" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="F36" t="s">
         <v>411</v>
@@ -2867,22 +2729,25 @@
       <c r="G36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
         <v>242</v>
       </c>
       <c r="D37" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="E37" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="F37" t="s">
         <v>419</v>
@@ -2890,22 +2755,25 @@
       <c r="G37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
         <v>243</v>
       </c>
       <c r="D38" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="E38" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="F38" t="s">
         <v>411</v>
@@ -2913,22 +2781,25 @@
       <c r="G38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
         <v>244</v>
       </c>
       <c r="D39" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="E39" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="F39" t="s">
         <v>411</v>
@@ -2936,22 +2807,25 @@
       <c r="G39" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
         <v>245</v>
       </c>
       <c r="D40" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="E40" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="F40" t="s">
         <v>411</v>
@@ -2959,22 +2833,25 @@
       <c r="G40" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C41" t="s">
         <v>246</v>
       </c>
       <c r="D41" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="E41" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="F41" t="s">
         <v>420</v>
@@ -2982,22 +2859,25 @@
       <c r="G41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C42" t="s">
         <v>247</v>
       </c>
       <c r="D42" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="E42" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="F42" t="s">
         <v>411</v>
@@ -3005,22 +2885,25 @@
       <c r="G42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s">
         <v>248</v>
       </c>
       <c r="D43" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="E43" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="F43" t="s">
         <v>411</v>
@@ -3028,22 +2911,25 @@
       <c r="G43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C44" t="s">
         <v>249</v>
       </c>
       <c r="D44" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="E44" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="F44" t="s">
         <v>411</v>
@@ -3051,22 +2937,25 @@
       <c r="G44" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C45" t="s">
         <v>250</v>
       </c>
       <c r="D45" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="E45" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="F45" t="s">
         <v>421</v>
@@ -3074,22 +2963,25 @@
       <c r="G45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C46" t="s">
         <v>251</v>
       </c>
       <c r="D46" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="E46" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="F46" t="s">
         <v>411</v>
@@ -3097,22 +2989,25 @@
       <c r="G46" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C47" t="s">
         <v>252</v>
       </c>
       <c r="D47" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="E47" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="F47" t="s">
         <v>422</v>
@@ -3120,22 +3015,25 @@
       <c r="G47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C48" t="s">
         <v>253</v>
       </c>
       <c r="D48" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="E48" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="F48" t="s">
         <v>411</v>
@@ -3143,22 +3041,25 @@
       <c r="G48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C49" t="s">
         <v>254</v>
       </c>
       <c r="D49" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="E49" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="F49" t="s">
         <v>411</v>
@@ -3166,22 +3067,25 @@
       <c r="G49" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C50" t="s">
         <v>255</v>
       </c>
       <c r="D50" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="E50" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="F50" t="s">
         <v>411</v>
@@ -3189,22 +3093,25 @@
       <c r="G50" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
         <v>256</v>
       </c>
       <c r="D51" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="E51" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="F51" t="s">
         <v>411</v>
@@ -3212,22 +3119,25 @@
       <c r="G51" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s">
         <v>257</v>
       </c>
       <c r="D52" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="E52" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="F52" t="s">
         <v>411</v>
@@ -3235,22 +3145,25 @@
       <c r="G52" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C53" t="s">
         <v>258</v>
       </c>
       <c r="D53" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="E53" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="F53" t="s">
         <v>423</v>
@@ -3258,22 +3171,25 @@
       <c r="G53" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C54" t="s">
         <v>259</v>
       </c>
       <c r="D54" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="E54" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="F54" t="s">
         <v>411</v>
@@ -3281,22 +3197,25 @@
       <c r="G54" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C55" t="s">
         <v>260</v>
       </c>
       <c r="D55" t="s">
-        <v>360</v>
+        <v>309</v>
       </c>
       <c r="E55" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="F55" t="s">
         <v>424</v>
@@ -3304,22 +3223,25 @@
       <c r="G55" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C56" t="s">
         <v>261</v>
       </c>
       <c r="D56" t="s">
-        <v>361</v>
+        <v>309</v>
       </c>
       <c r="E56" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="F56" t="s">
         <v>425</v>
@@ -3327,22 +3249,25 @@
       <c r="G56" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C57" t="s">
         <v>262</v>
       </c>
       <c r="D57" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
       <c r="E57" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="F57" t="s">
         <v>426</v>
@@ -3350,22 +3275,25 @@
       <c r="G57" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C58" t="s">
         <v>263</v>
       </c>
       <c r="D58" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="E58" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="F58" t="s">
         <v>411</v>
@@ -3373,22 +3301,25 @@
       <c r="G58" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C59" t="s">
         <v>264</v>
       </c>
       <c r="D59" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="E59" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="F59" t="s">
         <v>411</v>
@@ -3396,22 +3327,25 @@
       <c r="G59" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C60" t="s">
         <v>265</v>
       </c>
       <c r="D60" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="E60" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="F60" t="s">
         <v>411</v>
@@ -3419,22 +3353,25 @@
       <c r="G60" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C61" t="s">
         <v>266</v>
       </c>
       <c r="D61" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="E61" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="F61" t="s">
         <v>411</v>
@@ -3442,22 +3379,25 @@
       <c r="G61" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C62" t="s">
         <v>267</v>
       </c>
       <c r="D62" t="s">
-        <v>367</v>
+        <v>309</v>
       </c>
       <c r="E62" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="F62" t="s">
         <v>427</v>
@@ -3465,22 +3405,25 @@
       <c r="G62" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C63" t="s">
         <v>268</v>
       </c>
       <c r="D63" t="s">
-        <v>368</v>
+        <v>308</v>
       </c>
       <c r="E63" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="F63" t="s">
         <v>411</v>
@@ -3488,22 +3431,25 @@
       <c r="G63" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C64" t="s">
         <v>269</v>
       </c>
       <c r="D64" t="s">
-        <v>369</v>
+        <v>309</v>
       </c>
       <c r="E64" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="F64" t="s">
         <v>428</v>
@@ -3511,22 +3457,25 @@
       <c r="G64" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C65" t="s">
         <v>270</v>
       </c>
       <c r="D65" t="s">
-        <v>370</v>
+        <v>308</v>
       </c>
       <c r="E65" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="F65" t="s">
         <v>411</v>
@@ -3534,22 +3483,25 @@
       <c r="G65" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C66" t="s">
         <v>271</v>
       </c>
       <c r="D66" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="E66" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="F66" t="s">
         <v>411</v>
@@ -3557,22 +3509,25 @@
       <c r="G66" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C67" t="s">
         <v>272</v>
       </c>
       <c r="D67" t="s">
-        <v>372</v>
+        <v>309</v>
       </c>
       <c r="E67" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="F67" t="s">
         <v>429</v>
@@ -3580,22 +3535,25 @@
       <c r="G67" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C68" t="s">
         <v>273</v>
       </c>
       <c r="D68" t="s">
-        <v>373</v>
+        <v>309</v>
       </c>
       <c r="E68" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="F68" t="s">
         <v>430</v>
@@ -3603,22 +3561,25 @@
       <c r="G68" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C69" t="s">
         <v>274</v>
       </c>
       <c r="D69" t="s">
-        <v>374</v>
+        <v>309</v>
       </c>
       <c r="E69" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="F69" t="s">
         <v>431</v>
@@ -3626,22 +3587,25 @@
       <c r="G69" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C70" t="s">
         <v>275</v>
       </c>
       <c r="D70" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="E70" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="F70" t="s">
         <v>411</v>
@@ -3649,22 +3613,25 @@
       <c r="G70" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C71" t="s">
         <v>276</v>
       </c>
       <c r="D71" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="E71" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="F71" t="s">
         <v>411</v>
@@ -3672,22 +3639,25 @@
       <c r="G71" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C72" t="s">
         <v>277</v>
       </c>
       <c r="D72" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="E72" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="F72" t="s">
         <v>411</v>
@@ -3695,22 +3665,25 @@
       <c r="G72" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C73" t="s">
         <v>278</v>
       </c>
       <c r="D73" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="E73" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="F73" t="s">
         <v>411</v>
@@ -3718,22 +3691,25 @@
       <c r="G73" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C74" t="s">
         <v>279</v>
       </c>
       <c r="D74" t="s">
-        <v>379</v>
+        <v>309</v>
       </c>
       <c r="E74" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="F74" t="s">
         <v>432</v>
@@ -3741,22 +3717,25 @@
       <c r="G74" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C75" t="s">
         <v>280</v>
       </c>
       <c r="D75" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="E75" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="F75" t="s">
         <v>411</v>
@@ -3764,22 +3743,25 @@
       <c r="G75" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C76" t="s">
         <v>281</v>
       </c>
       <c r="D76" t="s">
-        <v>381</v>
+        <v>309</v>
       </c>
       <c r="E76" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="F76" t="s">
         <v>433</v>
@@ -3787,22 +3769,25 @@
       <c r="G76" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C77" t="s">
         <v>282</v>
       </c>
       <c r="D77" t="s">
-        <v>382</v>
+        <v>308</v>
       </c>
       <c r="E77" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F77" t="s">
         <v>411</v>
@@ -3810,22 +3795,25 @@
       <c r="G77" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C78" t="s">
         <v>283</v>
       </c>
       <c r="D78" t="s">
-        <v>383</v>
+        <v>309</v>
       </c>
       <c r="E78" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F78" t="s">
         <v>434</v>
@@ -3833,22 +3821,25 @@
       <c r="G78" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C79" t="s">
         <v>284</v>
       </c>
       <c r="D79" t="s">
-        <v>384</v>
+        <v>309</v>
       </c>
       <c r="E79" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F79" t="s">
         <v>435</v>
@@ -3856,22 +3847,25 @@
       <c r="G79" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C80" t="s">
         <v>285</v>
       </c>
       <c r="D80" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="E80" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="F80" t="s">
         <v>411</v>
@@ -3879,22 +3873,25 @@
       <c r="G80" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C81" t="s">
         <v>286</v>
       </c>
       <c r="D81" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="E81" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="F81" t="s">
         <v>411</v>
@@ -3902,22 +3899,25 @@
       <c r="G81" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C82" t="s">
         <v>287</v>
       </c>
       <c r="D82" t="s">
-        <v>386</v>
+        <v>309</v>
       </c>
       <c r="E82" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F82" t="s">
         <v>436</v>
@@ -3925,22 +3925,25 @@
       <c r="G82" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C83" t="s">
         <v>288</v>
       </c>
       <c r="D83" t="s">
-        <v>387</v>
+        <v>308</v>
       </c>
       <c r="E83" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F83" t="s">
         <v>411</v>
@@ -3948,22 +3951,25 @@
       <c r="G83" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C84" t="s">
         <v>289</v>
       </c>
       <c r="D84" t="s">
-        <v>388</v>
+        <v>344</v>
       </c>
       <c r="E84" t="s">
-        <v>388</v>
+        <v>344</v>
       </c>
       <c r="F84" t="s">
         <v>411</v>
@@ -3971,22 +3977,25 @@
       <c r="G84" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C85" t="s">
         <v>290</v>
       </c>
       <c r="D85" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="E85" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="F85" t="s">
         <v>411</v>
@@ -3994,22 +4003,25 @@
       <c r="G85" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C86" t="s">
         <v>291</v>
       </c>
       <c r="D86" t="s">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="E86" t="s">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="F86" t="s">
         <v>411</v>
@@ -4017,22 +4029,25 @@
       <c r="G86" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C87" t="s">
         <v>292</v>
       </c>
       <c r="D87" t="s">
-        <v>391</v>
+        <v>308</v>
       </c>
       <c r="E87" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F87" t="s">
         <v>411</v>
@@ -4040,22 +4055,25 @@
       <c r="G87" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C88" t="s">
         <v>293</v>
       </c>
       <c r="D88" t="s">
-        <v>392</v>
+        <v>309</v>
       </c>
       <c r="E88" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F88" t="s">
         <v>437</v>
@@ -4063,22 +4081,25 @@
       <c r="G88" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C89" t="s">
         <v>294</v>
       </c>
       <c r="D89" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="E89" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="F89" t="s">
         <v>411</v>
@@ -4086,22 +4107,25 @@
       <c r="G89" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C90" t="s">
         <v>295</v>
       </c>
       <c r="D90" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="E90" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="F90" t="s">
         <v>411</v>
@@ -4109,22 +4133,25 @@
       <c r="G90" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C91" t="s">
         <v>296</v>
       </c>
       <c r="D91" t="s">
-        <v>395</v>
+        <v>309</v>
       </c>
       <c r="E91" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F91" t="s">
         <v>438</v>
@@ -4132,22 +4159,25 @@
       <c r="G91" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C92" t="s">
         <v>297</v>
       </c>
       <c r="D92" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="E92" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="F92" t="s">
         <v>411</v>
@@ -4155,22 +4185,25 @@
       <c r="G92" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C93" t="s">
         <v>298</v>
       </c>
       <c r="D93" t="s">
-        <v>397</v>
+        <v>309</v>
       </c>
       <c r="E93" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F93" t="s">
         <v>439</v>
@@ -4178,22 +4211,25 @@
       <c r="G93" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C94" t="s">
         <v>299</v>
       </c>
       <c r="D94" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="E94" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="F94" t="s">
         <v>411</v>
@@ -4201,19 +4237,22 @@
       <c r="G94" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C95" t="s">
         <v>300</v>
       </c>
       <c r="D95" t="s">
-        <v>399</v>
+        <v>309</v>
       </c>
       <c r="E95" t="s">
         <v>406</v>
@@ -4224,22 +4263,25 @@
       <c r="G95" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C96" t="s">
         <v>301</v>
       </c>
       <c r="D96" t="s">
-        <v>400</v>
+        <v>308</v>
       </c>
       <c r="E96" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F96" t="s">
         <v>411</v>
@@ -4247,22 +4289,25 @@
       <c r="G96" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C97" t="s">
         <v>302</v>
       </c>
       <c r="D97" t="s">
-        <v>401</v>
+        <v>308</v>
       </c>
       <c r="E97" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F97" t="s">
         <v>411</v>
@@ -4270,22 +4315,25 @@
       <c r="G97" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C98" t="s">
         <v>303</v>
       </c>
       <c r="D98" t="s">
-        <v>402</v>
+        <v>308</v>
       </c>
       <c r="E98" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="F98" t="s">
         <v>411</v>
@@ -4293,22 +4341,25 @@
       <c r="G98" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C99" t="s">
         <v>304</v>
       </c>
       <c r="D99" t="s">
-        <v>403</v>
+        <v>309</v>
       </c>
       <c r="E99" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F99" t="s">
         <v>441</v>
@@ -4316,22 +4367,25 @@
       <c r="G99" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C100" t="s">
         <v>305</v>
       </c>
       <c r="D100" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="E100" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="F100" t="s">
         <v>411</v>
@@ -4339,22 +4393,25 @@
       <c r="G100" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C101" t="s">
         <v>306</v>
       </c>
       <c r="D101" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="E101" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="F101" t="s">
         <v>411</v>
@@ -4362,8 +4419,12 @@
       <c r="G101" t="b">
         <v>1</v>
       </c>
+      <c r="H101" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/QALD9-Plus-testing/CoT-entity-aligned/CoT-wikidata-dbpedia/CoT_llama_dbpedia_results_analysis.xlsx
+++ b/QALD9-Plus-testing/CoT-entity-aligned/CoT-wikidata-dbpedia/CoT_llama_dbpedia_results_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\CoT-entity-aligned\CoT-wikidata-dbpedia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD968A6-327A-46EB-BAEB-35F6545A964F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB555CB7-F100-45E3-8144-4DB655F3C2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$101</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="453">
   <si>
     <t>Question</t>
   </si>
@@ -349,328 +349,1104 @@
     <t>Who created Goofy?</t>
   </si>
   <si>
-    <t>SELECT ?o1 WHERE { &lt;http://dbpedia.org/resource/Penguin_Books&gt; &lt;http://dbpedia.org/ontology/founder&gt; ?o1 . }</t>
-  </si>
-  <si>
-    <t>SELECT ?uri WHERE { ?film &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Stanley_Kubrick&gt; . ?film &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#type&gt; &lt;http://dbpedia.org/ontology/Film&gt; . ?film &lt;http://www.w3.org/2000/01/rdf-schema#isSeeAlso&gt; ?uri . FILTER(STRSTARTS(STR(?film), "http://dbpedia.org/resource/")) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia_resource: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Musical dbpedia:musicBy dbpedia_resource:Elton_John . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?developer WHERE { dbpedia:Skype wdt:P178 ?developer . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpo: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 ?league . ?league dbpo:name "Bundesliga"@en . FILTER(lang(?league) = 'en') }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?actor WHERE { ?movie dbpedia:director &lt;http://dbpedia.org/resource/William_Shatner&gt; ; dbpedia:starring ?actor . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Mountain dbpedia:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?film) AS ?c) WHERE { ?film dbp:starring &lt;http://dbpedia.org/resource/Leonardo_DiCaprio&gt; . ?film a dbp:Film . }</t>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?o1 WHERE { &lt;http://dbpedia.org/resource/Penguin_Books&gt; &lt;http://dbpedia.org/ontology/founder&gt; ?o1 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?uri WHERE { ?film &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Stanley_Kubrick&gt; . ?film &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#type&gt; &lt;http://dbpedia.org/ontology/Film&gt; . ?film &lt;http://www.w3.org/2000/01/rdf-schema#isSeeAlso&gt; ?uri . FILTER(STRSTARTS(STR(?film), "http://dbpedia.org/resource/")) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia_resource: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Musical dbpedia:musicBy dbpedia_resource:Elton_John . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?developer WHERE { dbpedia:Skype wdt:P178 ?developer . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpo: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 ?league . ?league dbpo:name "Bundesliga"@en . FILTER(lang(?league) = 'en') }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?actor WHERE { ?movie dbpedia:director &lt;http://dbpedia.org/resource/William_Shatner&gt; ; dbpedia:starring ?actor . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Mountain dbpedia:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?film) AS ?c) WHERE { ?film dbp:starring &lt;http://dbpedia.org/resource/Leonardo_DiCaprio&gt; . ?film a dbp:Film . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Olof_Palme&gt; &lt;http://dbpedia.org/ontology/deathDate&gt; ?date }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri db:starring &lt;http://dbpedia.org/resource/Elizabeth_Taylor&gt; . ?uri db:starring &lt;http://dbpedia.org/resource/Richard_Burton&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia-ontology:Minecraft dbpedia-ontology:developer ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT DISTINCT ?val WHERE { dbpedia:The_Lego_Movie dbpedia:budget ?val }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/&gt; PREFIX wikidata-owl: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?label WHERE { ?album a wikidata:Q482994 . ?album wikidata-owl:P175 &lt;http://dbpedia.org/resource/Elvis_Presley&gt; . ?album wikidata-owl:P577 ?date . ?album wikidata-owl:P264 ?label . FILTER (?date = MIN(?date)) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { dbo:ToyStory dbo:runtime ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE {?uri db:occupation wikidata:P106 . ?uri db:instrument wikidata:Q8338 . ?uri wikidata:P106 wikidata:Q5280538 . UNION ?uri wikidata:P106 wikidata:Q806349 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?film WHERE { ?film dbpedia-owl:starring ?starring. ?starring dbpedia-owl:starring ?julia_roberts. ?julia_roberts dbpedia-owl:director ?garry_marshall. ?garry_marshall dbpedia-owl:director ?film. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?year WHERE { dbpedia:Rachel_Stevens wdt:P569 ?date . BIND(YEAR(?date) as ?year) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?cause WHERE { SELECT ?cause (COUNT(DISTINCT ?s) AS ?count) WHERE { ?s dbpedia-owl:deathCause ?cause . ?s a ?type . } GROUP BY ?cause } ORDER BY DESC(?count) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?height WHERE { dbpedia-owl:Yokohama_Marine_Tower dbpedia-owl:height ?height . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:locatedInArea db:Italy . ?uri dbpedia:elevation ?elevation . ?uri a dbpedia:Mountain . } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?doctoralAdvisor WHERE { &lt;http://dbpedia.org/resource/Albert_Einstein&gt; &lt;http://dbpedia.org/ontology/doctoralAdvisor&gt; ?doctoralAdvisor . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?owner WHERE { ?owner db:owner dbp:Donald_Trump . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?o1 WHERE { dbpedia:Tom_Cruise wdt:P26 ?o1 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { dbp:Eurasia db:populationTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?author WHERE { ?book a dbo:Book . ?book dbo:author ?author . ?book dbo:abstract ?abstract . &lt;http://dbpedia.org/resource/The_Interpretation_of_Dreams&gt; dbo:author ?author . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { &lt;http://dbpedia.org/resource/John_Adams&gt; db:birthDate ?val }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT ?value WHERE { ?s dbpedia-ontology:populationTotal ?value . FILTER (lang(?value) = 'en') . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?o1 WHERE { &lt;http://dbpedia.org/resource/China&gt; dbpedia-owl:currency ?o1 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?deathDate WHERE { &lt;http://dbpedia.org/resource/William_Shakespeare&gt; dbpedia-owl:deathDate ?deathDate . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?rocket WHERE { ?rocket a dbpedia-owl:Rocket ; dbpedia-owl:launchSite dbpedia-resource:Baikonur_Cosmodrome . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q131007 dbo:developer ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Company wd:Q4830453 ; dbpedia:industry wd:Q39809 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Angela_Merkel&gt; &lt;http://dbpedia.org/ontology/almaMater&gt; ?uri . GRAPH &lt;http://dbpedia.org&gt; { ?uri &lt;http://xmlns.com/foaf/0.1/isPrimaryTopicOf&gt; ?dbpedia_uri . } BIND(?dbpedia_uri AS ?uri) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?type dbpedia-ontology:subclassOf dbpedia-ontology:TelevisionShow . ?uri dbpedia-ontology:starring dbpedia-resource:Neil_Patrick_Harris . ?uri dbpedia-ontology:type ?type . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?film ?movie WHERE { ?film dbo:starring ?movie. ?movie dbo:starring &lt;http://dbpedia.org/resource/Tom_Cruise&gt;. FILTER (?film a dbo:Film). }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?country WHERE { dbpedia:Mount_Everest wdt:P131 ?location . ?location wdt:P17 ?country . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { dbpedia:John_F._Kennedy dbpedia-owl:deathPlace ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Brooklyn_Bridge dbpedia:crosses ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:birthPlace &lt;http://dbpedia.org/ontology/birthPlace&gt; . ?uri dbpedia:birthPlace &lt;http://dbpedia.org/ontology/birthPlace&gt; owl:sameAs &lt;http://www.wikidata.org/entity/P19&gt; . ?uri dbpedia:birthPlace &lt;http://dbpedia.org/resource/Moscow&gt; . ?uri a dbpedia:Swimmer . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?s1 WHERE { ?s1 dbpedia-owl:starring &lt;http://dbpedia.org/resource/Alec_Guinness&gt; . ?s1 dbpedia-owl:film &lt;http://dbpedia.org/ontology/Film&gt; . ?s1 dbpedia-owl:releaseDate ?o1 . } ORDER BY DESC(?o1) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { ?res a dbp:Mountain . ?res dbo:elevation ?elevation . FILTER (?elevation != 'NaN' &amp;&amp; ?elevation != 'unknown') } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { &lt;http://dbpedia.org/resource/Cairo&gt; dbpedia-ontology:populationTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; ?person dbo:birthPlace wd:Q160544 . SELECT ?person</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?uri) as ?c) WHERE { dbp:Benjamin_Franklin db:child ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?elevation WHERE { dbpedia:Airport ?airport . ?airport dbpedia:elevation ?elevation . FILTER(regex(str(?airport), "Düsseldorf_Airport")) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?country WHERE { ?mecca dbo:location ?country . ?country rdfs:label ?countryLabel . FILTER (lang(?countryLabel) = "en") }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?height WHERE { dbp:Claudia_Schiffer dbpedia:height ?height }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?author WHERE { &lt;http://dbpedia.org/resource/The_Pillars_of_the_Earth&gt; dbpedia:author ?author . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT DISTINCT ?genre WHERE { dbpedia:Lou_Reed dbpedia-ontology:genre ?genre . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?birthPlace WHERE { dbpedia:Frank_Sinatra dbo:birthPlace ?birthPlace. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri db:City ?population . FILTER (?population = MIN(?population)) } ORDER BY ?population LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:creator &lt;http://dbpedia.org/resource/Walt_Disney&gt; . ?uri a dbo:TelevisionShow . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT ?holiday WHERE { ?holiday a dbpedia:Holiday . ?holiday dbpedia:country wikidata:P17 . ?holiday wikidata:Q34 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?uri WHERE { dbp:Apple_Inc. dbo:netIncome ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:deathPlace dbr:Ford's_Theatre }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?country ?capital WHERE { ?country dbo:country &lt;http://dbpedia.org/resource/Himalayas&gt; . ?country dbo:capital ?capital . ?country dbo:country ?country . FILTER ( regex(str(?country), "Nepal|India|Tibet") = "true" ) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?country WHERE { &lt;http://dbpedia.org/resource/Limerick_Lake&gt; &lt;http://dbpedia.org/ontology/country&gt; ?country . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { dbo:Michael_Jordan dbo:height ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:director &lt;http://dbpedia.org/resource/Clint_Eastwood&gt; ; dbpedia-owl:starring &lt;http://dbpedia.org/resource/Clint_Eastwood&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:currency ?currency . ?currency &lt;http://dbpedia.org/resource/West_African_CFA_franc&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { dbo:Iraq dbo:populationTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbp:Holiday . ?uri owl:sameAs wd:Q1445650 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-ont: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-ont:PoliticalParty ?party . ?party dbpedia-ont:country dbpedia:Greece . ?party dbpedia-ont:ideology dbpedia:Pro-Europeanism . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?actor ?date WHERE { &lt;http://dbpedia.org/resource/Charmed&gt; &lt;http://dbpedia.org/ontology/starring&gt; ?actor . ?actor &lt;http://dbpedia.org/ontology/birthDate&gt; ?date . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbpedia: The_Three_Dancers dbpedia-owl:author ?painter . ?painter dbpedia-owl:movement ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:Actor . ?uri dbpedia-owl:birthPlace ?birthPlace . ?birthPlace dbpedia-owl:country &lt;http://dbpedia.org/resource/Germany&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri FROM &lt;http://dbpedia.org&gt; WHERE { db:Brooklyn_Bridge dbo:architect ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?composer WHERE { &lt;http://dbpedia.org/resource/Game_of_Thrones&gt; &lt;http://dbpedia.org/ontology/composer&gt; ?composer . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbpedia-owl:Film ; dbpedia-owl:director &lt;http://dbpedia.org/resource/Francis_Ford_Coppola&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT ?name WHERE { dbpedia-resource:Adele dbpedia:birthName ?name . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?album WHERE { ?album a dbpedia:Album . ?album dbpedia:artist &lt;http://dbpedia.org/resource/Queen_(band)&gt; . ?album dbpedia:releaseDate ?date . } ORDER BY ?date LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?currency WHERE { ?country dbpedia-owl:currency ?currency . ?country wikibase:reference &lt;http://dbpedia.org/resource/Czech_Republic&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:birthPlace &lt;http://dbpedia.org/resource/Vienna&gt; . ?uri dbo:deathPlace &lt;http://dbpedia.org/resource/Berlin&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?dbpedia_uri WHERE { ?dbpedia_uri dbpedia-owl:Bridge ; dbpedia-owl:crosses &lt;http://dbpedia.org/resource/Seine&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri (COUNT(?book) AS ?count) WHERE { ?uri a db:Musician . ?x a db:Author ; db:Book ?book . ?uri db:occupation ?occupation . FILTER ( ?occupation = db:occupation ) } GROUP BY ?uri ORDER BY DESC(?count) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/subject&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . ?uri &lt;http://dbpedia.org/ontology/creator&gt; ?creator . ?creator &lt;http://dbpedia.org/ontology/subject&gt; ?uri . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . FILTER (?creator = &lt;http://dbpedia.org/ontology/creator&gt;) } UNION { ?uri &lt;http://dbpedia.org/ontology/subject&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . FILTER (?uri = ?creator) ?creator &lt;http://dbpedia.org/ontology/subject&gt; ?uri . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { ?uri db:Writer . ?uri wdt:P166 wd:Q37922 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt; &lt;http://dbpedia.org/ontology/discoverer&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { ?res dbpedia-owl:occupation &lt;http://dbpedia.org/resource/Bandleader&gt; . ?res dbpedia-owl:instrument &lt;http://dbpedia.org/resource/Trumpet&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/BasketballPlayer&gt; &lt;http://dbpedia.org/ontology/height&gt; ?height . FILTER(?height &gt; 200) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT ?film WHERE { ?film dbpedia-ontology:film ?film_uri . ?film dbpedia-ontology:starring ?starring1 , ?starring2 . ?starring1 dbpedia-ontology:actor &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . ?starring2 dbpedia-ontology:actor &lt;http://dbpedia.org/resource/Richard_Gere&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?o1 WHERE { &lt;http://dbpedia.org/resource/Canada&gt; dbpedia:capital ?o1 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:birthPlace &lt;http://dbpedia.org/resource/Malta&gt; . ?uri a dbpedia-owl:SoccerPlayer . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Cameroon&gt; &lt;http://dbpedia.org/ontology/capital&gt; ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?sub) AS ?count) WHERE { ?sub db:ProgrammingLanguage ?prop . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Astronaut&gt; . { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Soviet_Union&gt; } UNION { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Russia&gt; } }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Family_Guy&gt; &lt;http://dbpedia.org/ontology/creator&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?population WHERE { &lt;http://dbpedia.org/resource/Mexico_City&gt; dbpedia-owl:populationTotal ?population . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Batman&gt; dbo:creator ?uri . &lt;http://www.wikidata.org/entity/Q2695156&gt; wdt:P170 ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?number WHERE { &lt;http://dbpedia.org/resource/Australia&gt; &lt;http://dbpedia.org/ontology/capital&gt; ?capital . ?capital &lt;http://dbpedia.org/ontology/populationTotal&gt; ?number . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { dbpedia:North_Rhine-Westphalia dbo:areaTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?numberOfEmployees WHERE { dbr:IBM dbo:numberOfEmployees ?numberOfEmployees . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?budget WHERE { dbpedia:Pulp_Fiction dbpedia:budget ?budget . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Jesse_Eisenberg&gt; . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/Film&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX wkt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?film dbo:country ?country . ?country wkt:SameAs wd:Q35 . ?film wkt:SameAs wd:Q11424 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?country WHERE { dbpedia-owl:Himalayas dbpedia-owl:country ?country . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Country&gt; . ?uri &lt;http://dbpedia.org/ontology/areaTotal&gt; ?area . } ORDER BY DESC(?area) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { dbp:Angela_Merkel dbp:almaMater ?res . ?res a dbp:University . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Goofy dbo:creator ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { res:Penguin_Books dbo:founder ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:director res:Stanley_Kubrick }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Musical ; dbo:musicBy res:Elton_John }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { res:Skype dbo:developer ?uri. }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/SoccerClub&gt; ; &lt;http://dbpedia.org/ontology/league&gt; &lt;http://dbpedia.org/resource/Bundesliga&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?x dbo:director res:William_Shatner ; dbo:starring ?uri }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Mountain&gt; ; &lt;http://dbpedia.org/ontology/elevation&gt; ?elevation } ORDER BY DESC(?elevation) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a &lt;http://dbpedia.org/ontology/Film&gt; ; &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Leonardo_DiCaprio&gt; }</t>
   </si>
   <si>
     <t>SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Olof_Palme&gt; &lt;http://dbpedia.org/ontology/deathDate&gt; ?date }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri db:starring &lt;http://dbpedia.org/resource/Elizabeth_Taylor&gt; . ?uri db:starring &lt;http://dbpedia.org/resource/Richard_Burton&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia-ontology:Minecraft dbpedia-ontology:developer ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT DISTINCT ?val WHERE { dbpedia:The_Lego_Movie dbpedia:budget ?val }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/&gt; PREFIX wikidata-owl: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?label WHERE { ?album a wikidata:Q482994 . ?album wikidata-owl:P175 &lt;http://dbpedia.org/resource/Elvis_Presley&gt; . ?album wikidata-owl:P577 ?date . ?album wikidata-owl:P264 ?label . FILTER (?date = MIN(?date)) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { dbo:ToyStory dbo:runtime ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE {?uri db:occupation wikidata:P106 . ?uri db:instrument wikidata:Q8338 . ?uri wikidata:P106 wikidata:Q5280538 . UNION ?uri wikidata:P106 wikidata:Q806349 . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?film WHERE { ?film dbpedia-owl:starring ?starring. ?starring dbpedia-owl:starring ?julia_roberts. ?julia_roberts dbpedia-owl:director ?garry_marshall. ?garry_marshall dbpedia-owl:director ?film. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?year WHERE { dbpedia:Rachel_Stevens wdt:P569 ?date . BIND(YEAR(?date) as ?year) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?cause WHERE { SELECT ?cause (COUNT(DISTINCT ?s) AS ?count) WHERE { ?s dbpedia-owl:deathCause ?cause . ?s a ?type . } GROUP BY ?cause } ORDER BY DESC(?count) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?height WHERE { dbpedia-owl:Yokohama_Marine_Tower dbpedia-owl:height ?height . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:locatedInArea db:Italy . ?uri dbpedia:elevation ?elevation . ?uri a dbpedia:Mountain . } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?doctoralAdvisor WHERE { &lt;http://dbpedia.org/resource/Albert_Einstein&gt; &lt;http://dbpedia.org/ontology/doctoralAdvisor&gt; ?doctoralAdvisor . }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?owner WHERE { ?owner db:owner dbp:Donald_Trump . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?o1 WHERE { dbpedia:Tom_Cruise wdt:P26 ?o1 . }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { dbp:Eurasia db:populationTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?author WHERE { ?book a dbo:Book . ?book dbo:author ?author . ?book dbo:abstract ?abstract . &lt;http://dbpedia.org/resource/The_Interpretation_of_Dreams&gt; dbo:author ?author . }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { &lt;http://dbpedia.org/resource/John_Adams&gt; db:birthDate ?val }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT ?value WHERE { ?s dbpedia-ontology:populationTotal ?value . FILTER (lang(?value) = 'en') . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?o1 WHERE { &lt;http://dbpedia.org/resource/China&gt; dbpedia-owl:currency ?o1 . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?deathDate WHERE { &lt;http://dbpedia.org/resource/William_Shakespeare&gt; dbpedia-owl:deathDate ?deathDate . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?rocket WHERE { ?rocket a dbpedia-owl:Rocket ; dbpedia-owl:launchSite dbpedia-resource:Baikonur_Cosmodrome . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q131007 dbo:developer ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Company wd:Q4830453 ; dbpedia:industry wd:Q39809 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Angela_Merkel&gt; &lt;http://dbpedia.org/ontology/almaMater&gt; ?uri . GRAPH &lt;http://dbpedia.org&gt; { ?uri &lt;http://xmlns.com/foaf/0.1/isPrimaryTopicOf&gt; ?dbpedia_uri . } BIND(?dbpedia_uri AS ?uri) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?type dbpedia-ontology:subclassOf dbpedia-ontology:TelevisionShow . ?uri dbpedia-ontology:starring dbpedia-resource:Neil_Patrick_Harris . ?uri dbpedia-ontology:type ?type . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?film ?movie WHERE { ?film dbo:starring ?movie. ?movie dbo:starring &lt;http://dbpedia.org/resource/Tom_Cruise&gt;. FILTER (?film a dbo:Film). }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?country WHERE { dbpedia:Mount_Everest wdt:P131 ?location . ?location wdt:P17 ?country . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { dbpedia:John_F._Kennedy dbpedia-owl:deathPlace ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Brooklyn_Bridge dbpedia:crosses ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:birthPlace &lt;http://dbpedia.org/ontology/birthPlace&gt; . ?uri dbpedia:birthPlace &lt;http://dbpedia.org/ontology/birthPlace&gt; owl:sameAs &lt;http://www.wikidata.org/entity/P19&gt; . ?uri dbpedia:birthPlace &lt;http://dbpedia.org/resource/Moscow&gt; . ?uri a dbpedia:Swimmer . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?s1 WHERE { ?s1 dbpedia-owl:starring &lt;http://dbpedia.org/resource/Alec_Guinness&gt; . ?s1 dbpedia-owl:film &lt;http://dbpedia.org/ontology/Film&gt; . ?s1 dbpedia-owl:releaseDate ?o1 . } ORDER BY DESC(?o1) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { ?res a dbp:Mountain . ?res dbo:elevation ?elevation . FILTER (?elevation != 'NaN' &amp;&amp; ?elevation != 'unknown') } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { &lt;http://dbpedia.org/resource/Cairo&gt; dbpedia-ontology:populationTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; ?person dbo:birthPlace wd:Q160544 . SELECT ?person</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?uri) as ?c) WHERE { dbp:Benjamin_Franklin db:child ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?elevation WHERE { dbpedia:Airport ?airport . ?airport dbpedia:elevation ?elevation . FILTER(regex(str(?airport), "Düsseldorf_Airport")) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?country WHERE { ?mecca dbo:location ?country . ?country rdfs:label ?countryLabel . FILTER (lang(?countryLabel) = "en") }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?height WHERE { dbp:Claudia_Schiffer dbpedia:height ?height }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?author WHERE { &lt;http://dbpedia.org/resource/The_Pillars_of_the_Earth&gt; dbpedia:author ?author . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT DISTINCT ?genre WHERE { dbpedia:Lou_Reed dbpedia-ontology:genre ?genre . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?birthPlace WHERE { dbpedia:Frank_Sinatra dbo:birthPlace ?birthPlace. }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri db:City ?population . FILTER (?population = MIN(?population)) } ORDER BY ?population LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:creator &lt;http://dbpedia.org/resource/Walt_Disney&gt; . ?uri a dbo:TelevisionShow . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT ?holiday WHERE { ?holiday a dbpedia:Holiday . ?holiday dbpedia:country wikidata:P17 . ?holiday wikidata:Q34 . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?uri WHERE { dbp:Apple_Inc. dbo:netIncome ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:deathPlace dbr:Ford's_Theatre }</t>
-  </si>
-  <si>
-    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?country ?capital WHERE { ?country dbo:country &lt;http://dbpedia.org/resource/Himalayas&gt; . ?country dbo:capital ?capital . ?country dbo:country ?country . FILTER ( regex(str(?country), "Nepal|India|Tibet") = "true" ) }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?country WHERE { &lt;http://dbpedia.org/resource/Limerick_Lake&gt; &lt;http://dbpedia.org/ontology/country&gt; ?country . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { dbo:Michael_Jordan dbo:height ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:director &lt;http://dbpedia.org/resource/Clint_Eastwood&gt; ; dbpedia-owl:starring &lt;http://dbpedia.org/resource/Clint_Eastwood&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:currency ?currency . ?currency &lt;http://dbpedia.org/resource/West_African_CFA_franc&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { dbo:Iraq dbo:populationTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbp:Holiday . ?uri owl:sameAs wd:Q1445650 . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-ont: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-ont:PoliticalParty ?party . ?party dbpedia-ont:country dbpedia:Greece . ?party dbpedia-ont:ideology dbpedia:Pro-Europeanism . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?actor ?date WHERE { &lt;http://dbpedia.org/resource/Charmed&gt; &lt;http://dbpedia.org/ontology/starring&gt; ?actor . ?actor &lt;http://dbpedia.org/ontology/birthDate&gt; ?date . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbpedia: The_Three_Dancers dbpedia-owl:author ?painter . ?painter dbpedia-owl:movement ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:Actor . ?uri dbpedia-owl:birthPlace ?birthPlace . ?birthPlace dbpedia-owl:country &lt;http://dbpedia.org/resource/Germany&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri FROM &lt;http://dbpedia.org&gt; WHERE { db:Brooklyn_Bridge dbo:architect ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?composer WHERE { &lt;http://dbpedia.org/resource/Game_of_Thrones&gt; &lt;http://dbpedia.org/ontology/composer&gt; ?composer . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbpedia-owl:Film ; dbpedia-owl:director &lt;http://dbpedia.org/resource/Francis_Ford_Coppola&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT ?name WHERE { dbpedia-resource:Adele dbpedia:birthName ?name . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?album WHERE { ?album a dbpedia:Album . ?album dbpedia:artist &lt;http://dbpedia.org/resource/Queen_(band)&gt; . ?album dbpedia:releaseDate ?date . } ORDER BY ?date LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?currency WHERE { ?country dbpedia-owl:currency ?currency . ?country wikibase:reference &lt;http://dbpedia.org/resource/Czech_Republic&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:birthPlace &lt;http://dbpedia.org/resource/Vienna&gt; . ?uri dbo:deathPlace &lt;http://dbpedia.org/resource/Berlin&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?dbpedia_uri WHERE { ?dbpedia_uri dbpedia-owl:Bridge ; dbpedia-owl:crosses &lt;http://dbpedia.org/resource/Seine&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri (COUNT(?book) AS ?count) WHERE { ?uri a db:Musician . ?x a db:Author ; db:Book ?book . ?uri db:occupation ?occupation . FILTER ( ?occupation = db:occupation ) } GROUP BY ?uri ORDER BY DESC(?count) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/subject&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . ?uri &lt;http://dbpedia.org/ontology/creator&gt; ?creator . ?creator &lt;http://dbpedia.org/ontology/subject&gt; ?uri . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . FILTER (?creator = &lt;http://dbpedia.org/ontology/creator&gt;) } UNION { ?uri &lt;http://dbpedia.org/ontology/subject&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . FILTER (?uri = ?creator) ?creator &lt;http://dbpedia.org/ontology/subject&gt; ?uri . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { ?uri db:Writer . ?uri wdt:P166 wd:Q37922 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt; &lt;http://dbpedia.org/ontology/discoverer&gt; ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { ?res dbpedia-owl:occupation &lt;http://dbpedia.org/resource/Bandleader&gt; . ?res dbpedia-owl:instrument &lt;http://dbpedia.org/resource/Trumpet&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/BasketballPlayer&gt; &lt;http://dbpedia.org/ontology/height&gt; ?height . FILTER(?height &gt; 200) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT ?film WHERE { ?film dbpedia-ontology:film ?film_uri . ?film dbpedia-ontology:starring ?starring1 , ?starring2 . ?starring1 dbpedia-ontology:actor &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . ?starring2 dbpedia-ontology:actor &lt;http://dbpedia.org/resource/Richard_Gere&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?o1 WHERE { &lt;http://dbpedia.org/resource/Canada&gt; dbpedia:capital ?o1 . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:birthPlace &lt;http://dbpedia.org/resource/Malta&gt; . ?uri a dbpedia-owl:SoccerPlayer . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Cameroon&gt; &lt;http://dbpedia.org/ontology/capital&gt; ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?sub) AS ?count) WHERE { ?sub db:ProgrammingLanguage ?prop . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Astronaut&gt; . { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Soviet_Union&gt; } UNION { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Russia&gt; } }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Family_Guy&gt; &lt;http://dbpedia.org/ontology/creator&gt; ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?population WHERE { &lt;http://dbpedia.org/resource/Mexico_City&gt; dbpedia-owl:populationTotal ?population . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Batman&gt; dbo:creator ?uri . &lt;http://www.wikidata.org/entity/Q2695156&gt; wdt:P170 ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?number WHERE { &lt;http://dbpedia.org/resource/Australia&gt; &lt;http://dbpedia.org/ontology/capital&gt; ?capital . ?capital &lt;http://dbpedia.org/ontology/populationTotal&gt; ?number . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { dbpedia:North_Rhine-Westphalia dbo:areaTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?numberOfEmployees WHERE { dbr:IBM dbo:numberOfEmployees ?numberOfEmployees . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?budget WHERE { dbpedia:Pulp_Fiction dbpedia:budget ?budget . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Jesse_Eisenberg&gt; . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/Film&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX wkt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?film dbo:country ?country . ?country wkt:SameAs wd:Q35 . ?film wkt:SameAs wd:Q11424 . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?country WHERE { dbpedia-owl:Himalayas dbpedia-owl:country ?country . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Country&gt; . ?uri &lt;http://dbpedia.org/ontology/areaTotal&gt; ?area . } ORDER BY DESC(?area) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { dbp:Angela_Merkel dbp:almaMater ?res . ?res a dbp:University . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Goofy dbo:creator ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { res:Penguin_Books dbo:founder ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:director res:Stanley_Kubrick }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Musical ; dbo:musicBy res:Elton_John }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { res:Skype dbo:developer ?uri. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/SoccerClub&gt; ; &lt;http://dbpedia.org/ontology/league&gt; &lt;http://dbpedia.org/resource/Bundesliga&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?x dbo:director res:William_Shatner ; dbo:starring ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Mountain&gt; ; &lt;http://dbpedia.org/ontology/elevation&gt; ?elevation } ORDER BY DESC(?elevation) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a &lt;http://dbpedia.org/ontology/Film&gt; ; &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Leonardo_DiCaprio&gt; }</t>
   </si>
   <si>
     <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Elizabeth_Taylor&gt; ; &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Richard_Burton&gt; }</t>
@@ -1263,152 +2039,152 @@
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"dbpedia_resource:Elton_John\\": mismatched input \'dbpedia_resource:Elton_John\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 169,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia_resource: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Musical dbpedia:musicBy dbpedia_resource:Elton_John . }",\n        "startIndex": 169,\n        "stopIndex": 195\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia_resource: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Musical dbpedia:musicBy dbpedia_resource:Elton_John . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"dbpedia_resource:Elton_John\\": mismatched input \'dbpedia_resource:Elton_John\' expecting \'}\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 169,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia_resource: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Musical dbpedia:musicBy dbpedia_resource:Elton_John . }",\n        "startIndex": 546,\n        "stopIndex": 572\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia_resource: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Musical dbpedia:musicBy dbpedia_resource:Elton_John . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 179,\n        "query": "PREFIX dbpo: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 ?league . ?league dbpo:name \\"Bundesliga\\"@en . FILTER(lang(?league) = \'en\') }",\n        "startIndex": 179,\n        "stopIndex": 188\n    },\n    "query": "PREFIX dbpo: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 ?league . ?league dbpo:name \\"Bundesliga\\"@en . FILTER(lang(?league) = \'en\') }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 179,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpo: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 ?league . ?league dbpo:name \\"Bundesliga\\"@en . FILTER(lang(?league) = \'en\') }",\n        "startIndex": 556,\n        "stopIndex": 565\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpo: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 ?league . ?league dbpo:name \\"Bundesliga\\"@en . FILTER(lang(?league) = \'en\') }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"?elevation\\": mismatched input \'?elevation\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 116,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Mountain dbpedia:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1",\n        "startIndex": 116,\n        "stopIndex": 125\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Mountain dbpedia:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"?elevation\\": mismatched input \'?elevation\' expecting \'}\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 116,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Mountain dbpedia:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1",\n        "startIndex": 493,\n        "stopIndex": 502\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Mountain dbpedia:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 231,\n        "query": "PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE {?uri db:occupation wikidata:P106 . ?uri db:instrument wikidata:Q8338 . ?uri wikidata:P106 wikidata:Q5280538 . UNION ?uri wikidata:P106 wikidata:Q806349 . }",\n        "startIndex": 231,\n        "stopIndex": 235\n    },\n    "query": "PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE {?uri db:occupation wikidata:P106 . ?uri db:instrument wikidata:Q8338 . ?uri wikidata:P106 wikidata:Q5280538 . UNION ?uri wikidata:P106 wikidata:Q806349 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 231,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE {?uri db:occupation wikidata:P106 . ?uri db:instrument wikidata:Q8338 . ?uri wikidata:P106 wikidata:Q5280538 . UNION ?uri wikidata:P106 wikidata:Q806349 . }",\n        "startIndex": 608,\n        "stopIndex": 612\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE {?uri db:occupation wikidata:P106 . ?uri db:instrument wikidata:Q8338 . ?uri wikidata:P106 wikidata:Q5280538 . UNION ?uri wikidata:P106 wikidata:Q806349 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 132,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?year WHERE { dbpedia:Rachel_Stevens wdt:P569 ?date . BIND(YEAR(?date) as ?year) }",\n        "startIndex": 132,\n        "stopIndex": 153\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?year WHERE { dbpedia:Rachel_Stevens wdt:P569 ?date . BIND(YEAR(?date) as ?year) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 132,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?year WHERE { dbpedia:Rachel_Stevens wdt:P569 ?date . BIND(YEAR(?date) as ?year) }",\n        "startIndex": 509,\n        "stopIndex": 530\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?year WHERE { dbpedia:Rachel_Stevens wdt:P569 ?date . BIND(YEAR(?date) as ?year) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 34,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }",\n        "startIndex": 411,\n        "stopIndex": 417\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Not supported: Named Graphs (FROM, GRAPH) are currently not supported by QLever.",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 120,\n        "query": "SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Angela_Merkel&gt; &lt;http://dbpedia.org/ontology/almaMater&gt; ?uri . GRAPH &lt;http://dbpedia.org&gt; { ?uri &lt;http://xmlns.com/foaf/0.1/isPrimaryTopicOf&gt; ?dbpedia_uri . } BIND(?dbpedia_uri AS ?uri) }",\n        "startIndex": 120,\n        "stopIndex": 214\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Angela_Merkel&gt; &lt;http://dbpedia.org/ontology/almaMater&gt; ?uri . GRAPH &lt;http://dbpedia.org&gt; { ?uri &lt;http://xmlns.com/foaf/0.1/isPrimaryTopicOf&gt; ?dbpedia_uri . } BIND(?dbpedia_uri AS ?uri) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Not supported: Named Graphs (FROM, GRAPH) are currently not supported by QLever.",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 120,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Angela_Merkel&gt; &lt;http://dbpedia.org/ontology/almaMater&gt; ?uri . GRAPH &lt;http://dbpedia.org&gt; { ?uri &lt;http://xmlns.com/foaf/0.1/isPrimaryTopicOf&gt; ?dbpedia_uri . } BIND(?dbpedia_uri AS ?uri) }",\n        "startIndex": 497,\n        "stopIndex": 591\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Angela_Merkel&gt; &lt;http://dbpedia.org/ontology/almaMater&gt; ?uri . GRAPH &lt;http://dbpedia.org&gt; { ?uri &lt;http://xmlns.com/foaf/0.1/isPrimaryTopicOf&gt; ?dbpedia_uri . } BIND(?dbpedia_uri AS ?uri) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"a\\": mismatched input \'a\' expecting \')\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 174,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?film ?movie WHERE { ?film dbo:starring ?movie. ?movie dbo:starring &lt;http://dbpedia.org/resource/Tom_Cruise&gt;. FILTER (?film a dbo:Film). }",\n        "startIndex": 174,\n        "stopIndex": 174\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?film ?movie WHERE { ?film dbo:starring ?movie. ?movie dbo:starring &lt;http://dbpedia.org/resource/Tom_Cruise&gt;. FILTER (?film a dbo:Film). }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"a\\": mismatched input \'a\' expecting \')\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 174,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?film ?movie WHERE { ?film dbo:starring ?movie. ?movie dbo:starring &lt;http://dbpedia.org/resource/Tom_Cruise&gt;. FILTER (?film a dbo:Film). }",\n        "startIndex": 508,\n        "stopIndex": 508\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?film ?movie WHERE { ?film dbo:starring ?movie. ?movie dbo:starring &lt;http://dbpedia.org/resource/Tom_Cruise&gt;. FILTER (?film a dbo:Film). }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"owl:sameAs\\": mismatched input \'owl:sameAs\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 199,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:birthPlace &lt;http://dbpedia.org/ontology/birthPlace&gt; . ?uri dbpedia:birthPlace &lt;http://dbpedia.org/ontology/birthPlace&gt; owl:sameAs &lt;http://www.wikidata.org/entity/P19&gt; . ?uri dbpedia:birthPlace &lt;http://dbpedia.org/resource/Moscow&gt; . ?uri a dbpedia:Swimmer . }",\n        "startIndex": 199,\n        "stopIndex": 208\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:birthPlace &lt;http://dbpedia.org/ontology/birthPlace&gt; . ?uri dbpedia:birthPlace &lt;http://dbpedia.org/ontology/birthPlace&gt; owl:sameAs &lt;http://www.wikidata.org/entity/P19&gt; . ?uri dbpedia:birthPlace &lt;http://dbpedia.org/resource/Moscow&gt; . ?uri a dbpedia:Swimmer . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"owl:sameAs\\": mismatched input \'owl:sameAs\' expecting \'}\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 199,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:birthPlace &lt;http://dbpedia.org/ontology/birthPlace&gt; . ?uri dbpedia:birthPlace &lt;http://dbpedia.org/ontology/birthPlace&gt; owl:sameAs &lt;http://www.wikidata.org/entity/P19&gt; . ?uri dbpedia:birthPlace &lt;http://dbpedia.org/resource/Moscow&gt; . ?uri a dbpedia:Swimmer . }",\n        "startIndex": 576,\n        "stopIndex": 585\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:birthPlace &lt;http://dbpedia.org/ontology/birthPlace&gt; . ?uri dbpedia:birthPlace &lt;http://dbpedia.org/ontology/birthPlace&gt; owl:sameAs &lt;http://www.wikidata.org/entity/P19&gt; . ?uri dbpedia:birthPlace &lt;http://dbpedia.org/resource/Moscow&gt; . ?uri a dbpedia:Swimmer . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"?person\\": no viable alternative at input \'PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXwd:&lt;http://www.wikidata.org/entity/&gt;PREFIXwdt:&lt;http://www.wikidata.org/prop/direct/&gt;?person\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 139,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; ?person dbo:birthPlace wd:Q160544 . SELECT ?person",\n        "startIndex": 139,\n        "stopIndex": 145\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; ?person dbo:birthPlace wd:Q160544 . SELECT ?person",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"?person\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXwd:&lt;http://www.wikidata.org/entity/&gt;PREFIXwdt:&lt;http://www.wikidata.org/prop/direct/&gt;?person\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 139,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; ?person dbo:birthPlace wd:Q160544 . SELECT ?person",\n        "startIndex": 473,\n        "stopIndex": 479\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; ?person dbo:birthPlace wd:Q160544 . SELECT ?person",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 203,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?elevation WHERE { dbpedia:Airport ?airport . ?airport dbpedia:elevation ?elevation . FILTER(regex(str(?airport), \\"D\xc3\xbcsseldorf_Airport\\")) }",\n        "startIndex": 203,\n        "stopIndex": 203\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?elevation WHERE { dbpedia:Airport ?airport . ?airport dbpedia:elevation ?elevation . FILTER(regex(str(?airport), \\"D\xc3\xbcsseldorf_Airport\\")) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 203,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?elevation WHERE { dbpedia:Airport ?airport . ?airport dbpedia:elevation ?elevation . FILTER(regex(str(?airport), \\"D\xc3\xbcsseldorf_Airport\\")) }",\n        "startIndex": 580,\n        "stopIndex": 580\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?elevation WHERE { dbpedia:Airport ?airport . ?airport dbpedia:elevation ?elevation . FILTER(regex(str(?airport), \\"D\xc3\xbcsseldorf_Airport\\")) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>EndPointInternalError: The endpoint returned the HTTP status code 500. 
 Response:
-b'{\n    "exception": "Assertion `it != inputs.end()` failed. Please report this to the developers. In file \\"/app/src/engine/sparqlExpressions/AggregateExpression.h \\" at line 128",\n    "query": "PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri db:City ?population . FILTER (?population = MIN(?population)) } ORDER BY ?population LIMIT 1",\n    "resultsize": 0,\n    "runtimeInformation": {\n        "cache_status": "computed",\n        "children": [\n            {\n                "cache_status": "computed",\n                "children": [\n                    {\n                        "cache_status": "computed",\n                        "children": [\n                            {\n                                "cache_status": "cached_not_pinned",\n                                "children": [],\n                                "column_names": [\n                                    "?uri",\n                                    "?population"\n                                ],\n                                "description": "IndexScan ?uri &lt;http://dbpedia.org/ontology/City&gt; ?population",\n                                "details": null,\n                                "estimated_column_multiplicities": [\n                                    1.0,\n                                    1.0\n                                ],\n                                "estimated_operation_cost": 0,\n                                "estimated_size": 0,\n                                "estimated_total_cost": 0,\n                                "operation_time": 0,\n                                "original_operation_time": 0,\n                                "original_total_time": 0,\n                                "result_cols": 2,\n                                "result_rows": 0,\n                                "status": "fully materialized",\n                                "total_time": 0\n                            }\n                        ],\n                        "column_names": [\n                            "?uri",\n                            "?population"\n                        ],\n                        "description": "Filter (?population = MIN(?population))",\n                        "details": null,\n                        "estimated_column_multiplicities": [\n                            1.0,\n                            1.0\n                        ],\n                        "estimated_operation_cost": 0,\n                        "estimated_size": 0,\n                        "estimated_total_cost": 0,\n                        "operation_time": 0,\n                        "original_operation_time": 0,\n                        "original_total_time": 0,\n                        "result_cols": 2,\n                        "result_rows": 0,\n                        "status": "failed",\n                        "total_time": 0\n                    }\n                ],\n                "column_names": [\n                    "?uri",\n                    "?population"\n                ],\n                "description": "Distinct",\n                "details": null,\n                "estimated_column_multiplicities": [\n                    1.0,\n                    1.0\n                ],\n                "estimated_operation_cost": 0,\n                "estimated_size": 0,\n                "estimated_total_cost": 0,\n                "operation_time": 0,\n                "original_operation_time": 0,\n                "original_total_time": 0,\n                "result_cols": 2,\n                "result_rows": 0,\n                "status": "failed because child failed",\n                "total_time": 0\n            }\n        ],\n        "column_names": [\n            "?uri",\n            "?population"\n        ],\n        "description": "OrderBy on ASC(?population)",\n        "details": null,\n        "estimated_column_multiplicities": [\n            1.0,\n            1.0\n        ],\n        "estimated_operation_cost": 0,\n        "estimated_size": 0,\n        "estimated_total_cost": 0,\n        "operation_time": 1,\n        "original_operation_time": 0,\n        "original_total_time": 0,\n        "result_cols": 2,\n        "result_rows": 0,\n        "status": "failed because child failed",\n        "total_time": 1\n    },\n    "status": "ERROR",\n    "time": {\n        "computeResult": 2,\n        "total": 2\n    }\n}'</t>
+b'{\n    "exception": "Assertion `it != inputs.end()` failed. Please report this to the developers. In file \\"/app/src/engine/sparqlExpressions/AggregateExpression.h \\" at line 128",\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri db:City ?population . FILTER (?population = MIN(?population)) } ORDER BY ?population LIMIT 1",\n    "resultsize": 0,\n    "runtimeInformation": {\n        "cache_status": "computed",\n        "children": [\n            {\n                "cache_status": "computed",\n                "children": [\n                    {\n                        "cache_status": "computed",\n                        "children": [\n                            {\n                                "cache_status": "cached_not_pinned",\n                                "children": [],\n                                "column_names": [\n                                    "?uri",\n                                    "?population"\n                                ],\n                                "description": "IndexScan ?uri &lt;http://dbpedia.org/ontology/City&gt; ?population",\n                                "details": null,\n                                "estimated_column_multiplicities": [\n                                    1.0,\n                                    1.0\n                                ],\n                                "estimated_operation_cost": 0,\n                                "estimated_size": 0,\n                                "estimated_total_cost": 0,\n                                "operation_time": 0,\n                                "original_operation_time": 0,\n                                "original_total_time": 0,\n                                "result_cols": 2,\n                                "result_rows": 0,\n                                "status": "fully materialized",\n                                "total_time": 0\n                            }\n                        ],\n                        "column_names": [\n                            "?uri",\n                            "?population"\n                        ],\n                        "description": "Filter (?population = MIN(?population))",\n                        "details": null,\n                        "estimated_column_multiplicities": [\n                            1.0,\n                            1.0\n                        ],\n                        "estimated_operation_cost": 0,\n                        "estimated_size": 0,\n                        "estimated_total_cost": 0,\n                        "operation_time": 0,\n                        "original_operation_time": 0,\n                        "original_total_time": 0,\n                        "result_cols": 2,\n                        "result_rows": 0,\n                        "status": "failed",\n                        "total_time": 0\n                    }\n                ],\n                "column_names": [\n                    "?uri",\n                    "?population"\n                ],\n                "description": "Distinct",\n                "details": null,\n                "estimated_column_multiplicities": [\n                    1.0,\n                    1.0\n                ],\n                "estimated_operation_cost": 0,\n                "estimated_size": 0,\n                "estimated_total_cost": 0,\n                "operation_time": 0,\n                "original_operation_time": 0,\n                "original_total_time": 0,\n                "result_cols": 2,\n                "result_rows": 0,\n                "status": "failed because child failed",\n                "total_time": 0\n            }\n        ],\n        "column_names": [\n            "?uri",\n            "?population"\n        ],\n        "description": "OrderBy on ASC(?population)",\n        "details": null,\n        "estimated_column_multiplicities": [\n            1.0,\n            1.0\n        ],\n        "estimated_operation_cost": 0,\n        "estimated_size": 0,\n        "estimated_total_cost": 0,\n        "operation_time": 0,\n        "original_operation_time": 0,\n        "original_total_time": 0,\n        "result_cols": 2,\n        "result_rows": 0,\n        "status": "failed because child failed",\n        "total_time": 0\n    },\n    "status": "ERROR",\n    "time": {\n        "computeResult": 2,\n        "total": 2\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 213,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT ?holiday WHERE { ?holiday a dbpedia:Holiday . ?holiday dbpedia:country wikidata:P17 . ?holiday wikidata:Q34 . }",\n        "startIndex": 213,\n        "stopIndex": 213\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT ?holiday WHERE { ?holiday a dbpedia:Holiday . ?holiday dbpedia:country wikidata:P17 . ?holiday wikidata:Q34 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 2,\n        "total": 2\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 213,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT ?holiday WHERE { ?holiday a dbpedia:Holiday . ?holiday dbpedia:country wikidata:P17 . ?holiday wikidata:Q34 . }",\n        "startIndex": 590,\n        "stopIndex": 590\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT ?holiday WHERE { ?holiday a dbpedia:Holiday . ?holiday dbpedia:country wikidata:P17 . ?holiday wikidata:Q34 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 119,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?uri WHERE { dbp:Apple_Inc. dbo:netIncome ?uri . }",\n        "startIndex": 119,\n        "stopIndex": 119\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?uri WHERE { dbp:Apple_Inc. dbo:netIncome ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 119,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?uri WHERE { dbp:Apple_Inc. dbo:netIncome ?uri . }",\n        "startIndex": 410,\n        "stopIndex": 410\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?uri WHERE { dbp:Apple_Inc. dbo:netIncome ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: token recognition error at: \'\'s_Theatre }\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 134,\n        "query": "PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:deathPlace dbr:Ford\'s_Theatre }",\n        "startIndex": 134,\n        "stopIndex": 134\n    },\n    "query": "PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:deathPlace dbr:Ford\'s_Theatre }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: token recognition error at: \'\'s_Theatre }\'",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 134,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:deathPlace dbr:Ford\'s_Theatre }",\n        "startIndex": 425,\n        "stopIndex": 425\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:deathPlace dbr:Ford\'s_Theatre }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 181,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:currency ?currency . ?currency &lt;http://dbpedia.org/resource/West_African_CFA_franc&gt; . }",\n        "startIndex": 181,\n        "stopIndex": 181\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:currency ?currency . ?currency &lt;http://dbpedia.org/resource/West_African_CFA_franc&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 181,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:currency ?currency . ?currency &lt;http://dbpedia.org/resource/West_African_CFA_franc&gt; . }",\n        "startIndex": 558,\n        "stopIndex": 558\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:currency ?currency . ?currency &lt;http://dbpedia.org/resource/West_African_CFA_franc&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 175,\n        "query": "PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbp:Holiday . ?uri owl:sameAs wd:Q1445650 . }",\n        "startIndex": 175,\n        "stopIndex": 182\n    },\n    "query": "PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbp:Holiday . ?uri owl:sameAs wd:Q1445650 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 214,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbp:Holiday . ?uri owl:sameAs wd:Q1445650 . }",\n        "startIndex": 591,\n        "stopIndex": 601\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbp:Holiday . ?uri owl:sameAs wd:Q1445650 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"The_Three_Dancers\\": extraneous input \'The_Three_Dancers\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 136,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbpedia: The_Three_Dancers dbpedia-owl:author ?painter . ?painter dbpedia-owl:movement ?uri . }",\n        "startIndex": 136,\n        "stopIndex": 152\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbpedia: The_Three_Dancers dbpedia-owl:author ?painter . ?painter dbpedia-owl:movement ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"The_Three_Dancers\\": extraneous input \'The_Three_Dancers\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 136,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbpedia: The_Three_Dancers dbpedia-owl:author ?painter . ?painter dbpedia-owl:movement ?uri . }",\n        "startIndex": 513,\n        "stopIndex": 529\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbpedia: The_Three_Dancers dbpedia-owl:author ?painter . ?painter dbpedia-owl:movement ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 103,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:Actor . ?uri dbpedia-owl:birthPlace ?birthPlace . ?birthPlace dbpedia-owl:country &lt;http://dbpedia.org/resource/Germany&gt; . }",\n        "startIndex": 103,\n        "stopIndex": 103\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:Actor . ?uri dbpedia-owl:birthPlace ?birthPlace . ?birthPlace dbpedia-owl:country &lt;http://dbpedia.org/resource/Germany&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 103,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:Actor . ?uri dbpedia-owl:birthPlace ?birthPlace . ?birthPlace dbpedia-owl:country &lt;http://dbpedia.org/resource/Germany&gt; . }",\n        "startIndex": 480,\n        "stopIndex": 480\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:Actor . ?uri dbpedia-owl:birthPlace ?birthPlace . ?birthPlace dbpedia-owl:country &lt;http://dbpedia.org/resource/Germany&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Not supported: FROM clauses are currently not supported by QLever.",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 140,\n        "query": "PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri FROM &lt;http://dbpedia.org&gt; WHERE { db:Brooklyn_Bridge dbo:architect ?uri . }",\n        "startIndex": 140,\n        "stopIndex": 164\n    },\n    "query": "PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri FROM &lt;http://dbpedia.org&gt; WHERE { db:Brooklyn_Bridge dbo:architect ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Not supported: FROM clauses are currently not supported by QLever.",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 140,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri FROM &lt;http://dbpedia.org&gt; WHERE { db:Brooklyn_Bridge dbo:architect ?uri . }",\n        "startIndex": 431,\n        "stopIndex": 455\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri FROM &lt;http://dbpedia.org&gt; WHERE { db:Brooklyn_Bridge dbo:architect ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 127,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?currency WHERE { ?country dbpedia-owl:currency ?currency . ?country wikibase:reference &lt;http://dbpedia.org/resource/Czech_Republic&gt; . }",\n        "startIndex": 127,\n        "stopIndex": 144\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?currency WHERE { ?country dbpedia-owl:currency ?currency . ?country wikibase:reference &lt;http://dbpedia.org/resource/Czech_Republic&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 127,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?currency WHERE { ?country dbpedia-owl:currency ?currency . ?country wikibase:reference &lt;http://dbpedia.org/resource/Czech_Republic&gt; . }",\n        "startIndex": 504,\n        "stopIndex": 521\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?currency WHERE { ?country dbpedia-owl:currency ?currency . ?country wikibase:reference &lt;http://dbpedia.org/resource/Czech_Republic&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\";\\": extraneous input \';\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 120,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?dbpedia_uri WHERE { ?dbpedia_uri dbpedia-owl:Bridge ; dbpedia-owl:crosses &lt;http://dbpedia.org/resource/Seine&gt; . }",\n        "startIndex": 120,\n        "stopIndex": 120\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?dbpedia_uri WHERE { ?dbpedia_uri dbpedia-owl:Bridge ; dbpedia-owl:crosses &lt;http://dbpedia.org/resource/Seine&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\";\\": extraneous input \';\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 120,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?dbpedia_uri WHERE { ?dbpedia_uri dbpedia-owl:Bridge ; dbpedia-owl:crosses &lt;http://dbpedia.org/resource/Seine&gt; . }",\n        "startIndex": 497,\n        "stopIndex": 497\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?dbpedia_uri WHERE { ?dbpedia_uri dbpedia-owl:Bridge ; dbpedia-owl:crosses &lt;http://dbpedia.org/resource/Seine&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting &lt;EOF&gt;",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 371,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/subject&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . ?uri &lt;http://dbpedia.org/ontology/creator&gt; ?creator . ?creator &lt;http://dbpedia.org/ontology/subject&gt; ?uri . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . FILTER (?creator = &lt;http://dbpedia.org/ontology/creator&gt;) } UNION { ?uri &lt;http://dbpedia.org/ontology/subject&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . FILTER (?uri = ?creator) ?creator &lt;http://dbpedia.org/ontology/subject&gt; ?uri . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . }",\n        "startIndex": 371,\n        "stopIndex": 375\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/subject&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . ?uri &lt;http://dbpedia.org/ontology/creator&gt; ?creator . ?creator &lt;http://dbpedia.org/ontology/subject&gt; ?uri . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . FILTER (?creator = &lt;http://dbpedia.org/ontology/creator&gt;) } UNION { ?uri &lt;http://dbpedia.org/ontology/subject&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . FILTER (?uri = ?creator) ?creator &lt;http://dbpedia.org/ontology/subject&gt; ?uri . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting &lt;EOF&gt;",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 371,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/subject&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . ?uri &lt;http://dbpedia.org/ontology/creator&gt; ?creator . ?creator &lt;http://dbpedia.org/ontology/subject&gt; ?uri . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . FILTER (?creator = &lt;http://dbpedia.org/ontology/creator&gt;) } UNION { ?uri &lt;http://dbpedia.org/ontology/subject&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . FILTER (?uri = ?creator) ?creator &lt;http://dbpedia.org/ontology/subject&gt; ?uri . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . }",\n        "startIndex": 748,\n        "stopIndex": 752\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/subject&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . ?uri &lt;http://dbpedia.org/ontology/creator&gt; ?creator . ?creator &lt;http://dbpedia.org/ontology/subject&gt; ?uri . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . FILTER (?creator = &lt;http://dbpedia.org/ontology/creator&gt;) } UNION { ?uri &lt;http://dbpedia.org/ontology/subject&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . FILTER (?uri = ?creator) ?creator &lt;http://dbpedia.org/ontology/subject&gt; ?uri . ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 122,\n        "query": "PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { ?uri db:Writer . ?uri wdt:P166 wd:Q37922 . }",\n        "startIndex": 122,\n        "stopIndex": 122\n    },\n    "query": "PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { ?uri db:Writer . ?uri wdt:P166 wd:Q37922 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 122,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { ?uri db:Writer . ?uri wdt:P166 wd:Q37922 . }",\n        "startIndex": 499,\n        "stopIndex": 499\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { ?uri db:Writer . ?uri wdt:P166 wd:Q37922 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"?height\\": mismatched input \'?height\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 118,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/BasketballPlayer&gt; &lt;http://dbpedia.org/ontology/height&gt; ?height . FILTER(?height &gt; 200) }",\n        "startIndex": 118,\n        "stopIndex": 124\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/BasketballPlayer&gt; &lt;http://dbpedia.org/ontology/height&gt; ?height . FILTER(?height &gt; 200) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"?height\\": mismatched input \'?height\' expecting \'}\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 118,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/BasketballPlayer&gt; &lt;http://dbpedia.org/ontology/height&gt; ?height . FILTER(?height &gt; 200) }",\n        "startIndex": 495,\n        "stopIndex": 501\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/BasketballPlayer&gt; &lt;http://dbpedia.org/ontology/height&gt; ?height . FILTER(?height &gt; 200) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 74,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Astronaut&gt; . { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Soviet_Union&gt; } UNION { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Russia&gt; } }",\n        "startIndex": 74,\n        "stopIndex": 74\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Astronaut&gt; . { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Soviet_Union&gt; } UNION { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Russia&gt; } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 74,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Astronaut&gt; . { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Soviet_Union&gt; } UNION { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Russia&gt; } }",\n        "startIndex": 451,\n        "stopIndex": 451\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Astronaut&gt; . { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Soviet_Union&gt; } UNION { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Russia&gt; } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 170,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Batman&gt; dbo:creator ?uri . &lt;http://www.wikidata.org/entity/Q2695156&gt; wdt:P170 ?uri . }",\n        "startIndex": 170,\n        "stopIndex": 177\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Batman&gt; dbo:creator ?uri . &lt;http://www.wikidata.org/entity/Q2695156&gt; wdt:P170 ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 170,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Batman&gt; dbo:creator ?uri . &lt;http://www.wikidata.org/entity/Q2695156&gt; wdt:P170 ?uri . }",\n        "startIndex": 504,\n        "stopIndex": 511\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Batman&gt; dbo:creator ?uri . &lt;http://www.wikidata.org/entity/Q2695156&gt; wdt:P170 ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 72,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { dbpedia:North_Rhine-Westphalia dbo:areaTotal ?val . }",\n        "startIndex": 72,\n        "stopIndex": 101\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { dbpedia:North_Rhine-Westphalia dbo:areaTotal ?val . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 72,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { dbpedia:North_Rhine-Westphalia dbo:areaTotal ?val . }",\n        "startIndex": 406,\n        "stopIndex": 435\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { dbpedia:North_Rhine-Westphalia dbo:areaTotal ?val . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 66,\n        "query": "PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?budget WHERE { dbpedia:Pulp_Fiction dbpedia:budget ?budget . }",\n        "startIndex": 66,\n        "stopIndex": 85\n    },\n    "query": "PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?budget WHERE { dbpedia:Pulp_Fiction dbpedia:budget ?budget . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 66,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?budget WHERE { dbpedia:Pulp_Fiction dbpedia:budget ?budget . }",\n        "startIndex": 400,\n        "stopIndex": 419\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?budget WHERE { dbpedia:Pulp_Fiction dbpedia:budget ?budget . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 72,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Country&gt; . ?uri &lt;http://dbpedia.org/ontology/areaTotal&gt; ?area . } ORDER BY DESC(?area) LIMIT 1",\n        "startIndex": 72,\n        "stopIndex": 72\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Country&gt; . ?uri &lt;http://dbpedia.org/ontology/areaTotal&gt; ?area . } ORDER BY DESC(?area) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 72,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Country&gt; . ?uri &lt;http://dbpedia.org/ontology/areaTotal&gt; ?area . } ORDER BY DESC(?area) LIMIT 1",\n        "startIndex": 449,\n        "stopIndex": 449\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Country&gt; . ?uri &lt;http://dbpedia.org/ontology/areaTotal&gt; ?area . } ORDER BY DESC(?area) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>Structural Error</t>
@@ -1420,10 +2196,25 @@
     <t>Unadapted Dataset Patterns</t>
   </si>
   <si>
+    <t>Missing rdf:type</t>
+  </si>
+  <si>
+    <t>Error Category 2</t>
+  </si>
+  <si>
+    <t>Error Category 3</t>
+  </si>
+  <si>
+    <t>Error Category 4</t>
+  </si>
+  <si>
+    <t>Wrong Ontology</t>
+  </si>
+  <si>
+    <t>Wrong Resource</t>
+  </si>
+  <si>
     <t>Resource treated as Ontology</t>
-  </si>
-  <si>
-    <t>Missing rdf:type</t>
   </si>
 </sst>
 </file>
@@ -1791,13 +2582,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1822,8 +2613,17 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1834,13 +2634,13 @@
         <v>208</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1849,7 +2649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1860,22 +2660,25 @@
         <v>209</v>
       </c>
       <c r="D3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+      <c r="I3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1886,22 +2689,25 @@
         <v>210</v>
       </c>
       <c r="D4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+      <c r="I4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1912,22 +2718,22 @@
         <v>211</v>
       </c>
       <c r="D5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1938,22 +2744,22 @@
         <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1964,13 +2770,13 @@
         <v>213</v>
       </c>
       <c r="D7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -1979,7 +2785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1990,22 +2796,25 @@
         <v>214</v>
       </c>
       <c r="D8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="s">
+        <v>444</v>
+      </c>
+      <c r="I8" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2016,13 +2825,13 @@
         <v>215</v>
       </c>
       <c r="D9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -2031,7 +2840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2039,16 +2848,16 @@
         <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>216</v>
       </c>
       <c r="D10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -2057,7 +2866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2065,16 +2874,16 @@
         <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F11" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -2083,7 +2892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2091,25 +2900,25 @@
         <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E12" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F12" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2117,25 +2926,25 @@
         <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2143,25 +2952,25 @@
         <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D14" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E14" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2169,25 +2978,25 @@
         <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E15" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F15" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2195,25 +3004,25 @@
         <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D16" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E16" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F16" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2221,25 +3030,28 @@
         <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E17" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F17" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+      <c r="I17" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2247,25 +3059,25 @@
         <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D18" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E18" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F18" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2273,25 +3085,25 @@
         <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E19" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F19" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2299,25 +3111,25 @@
         <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E20" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F20" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2325,16 +3137,16 @@
         <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E21" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F21" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -2343,7 +3155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2351,16 +3163,16 @@
         <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D22" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E22" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F22" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2369,7 +3181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2377,16 +3189,16 @@
         <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D23" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E23" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F23" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -2395,7 +3207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2403,25 +3215,25 @@
         <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D24" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E24" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F24" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2429,16 +3241,16 @@
         <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D25" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E25" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F25" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -2447,7 +3259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2455,16 +3267,16 @@
         <v>132</v>
       </c>
       <c r="C26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D26" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E26" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F26" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -2473,7 +3285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2481,16 +3293,16 @@
         <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D27" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E27" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F27" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -2499,7 +3311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2507,25 +3319,28 @@
         <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D28" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E28" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F28" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+      <c r="I28" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2533,16 +3348,16 @@
         <v>135</v>
       </c>
       <c r="C29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D29" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E29" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F29" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -2551,7 +3366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2559,16 +3374,16 @@
         <v>136</v>
       </c>
       <c r="C30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D30" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E30" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F30" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -2577,7 +3392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2585,16 +3400,16 @@
         <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D31" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E31" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F31" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
@@ -2603,7 +3418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2611,25 +3426,25 @@
         <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D32" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E32" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F32" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2637,25 +3452,25 @@
         <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D33" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E33" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F33" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2663,25 +3478,25 @@
         <v>140</v>
       </c>
       <c r="C34" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D34" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E34" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F34" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2689,25 +3504,28 @@
         <v>141</v>
       </c>
       <c r="C35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D35" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E35" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F35" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="s">
+        <v>444</v>
+      </c>
+      <c r="I35" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2715,25 +3533,25 @@
         <v>142</v>
       </c>
       <c r="C36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D36" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E36" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F36" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2741,25 +3559,28 @@
         <v>143</v>
       </c>
       <c r="C37" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D37" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E37" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F37" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="s">
+        <v>444</v>
+      </c>
+      <c r="I37" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2767,25 +3588,25 @@
         <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D38" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E38" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F38" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2793,16 +3614,16 @@
         <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D39" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E39" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F39" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -2811,7 +3632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2819,25 +3640,25 @@
         <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D40" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E40" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F40" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2845,25 +3666,25 @@
         <v>147</v>
       </c>
       <c r="C41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D41" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E41" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F41" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2871,16 +3692,16 @@
         <v>148</v>
       </c>
       <c r="C42" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D42" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E42" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F42" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -2888,8 +3709,11 @@
       <c r="H42" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2897,25 +3721,25 @@
         <v>149</v>
       </c>
       <c r="C43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D43" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E43" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F43" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2923,16 +3747,16 @@
         <v>150</v>
       </c>
       <c r="C44" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D44" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E44" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F44" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -2941,7 +3765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2949,25 +3773,25 @@
         <v>151</v>
       </c>
       <c r="C45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D45" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E45" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F45" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2975,16 +3799,16 @@
         <v>152</v>
       </c>
       <c r="C46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D46" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E46" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F46" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -2993,7 +3817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -3001,25 +3825,25 @@
         <v>153</v>
       </c>
       <c r="C47" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D47" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E47" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F47" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -3027,25 +3851,28 @@
         <v>154</v>
       </c>
       <c r="C48" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D48" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E48" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F48" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+      <c r="I48" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -3053,16 +3880,16 @@
         <v>155</v>
       </c>
       <c r="C49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D49" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E49" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F49" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -3071,7 +3898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -3079,16 +3906,16 @@
         <v>156</v>
       </c>
       <c r="C50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D50" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E50" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F50" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
@@ -3097,7 +3924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -3105,16 +3932,16 @@
         <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D51" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E51" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F51" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
@@ -3123,7 +3950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -3131,16 +3958,16 @@
         <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D52" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E52" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F52" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
@@ -3149,7 +3976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -3157,16 +3984,16 @@
         <v>159</v>
       </c>
       <c r="C53" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D53" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E53" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F53" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
@@ -3174,8 +4001,14 @@
       <c r="H53" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53" t="s">
+        <v>450</v>
+      </c>
+      <c r="J53" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -3183,16 +4016,16 @@
         <v>160</v>
       </c>
       <c r="C54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D54" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E54" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F54" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
@@ -3201,7 +4034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -3209,25 +4042,25 @@
         <v>161</v>
       </c>
       <c r="C55" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D55" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E55" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F55" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -3235,25 +4068,31 @@
         <v>162</v>
       </c>
       <c r="C56" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D56" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E56" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F56" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="s">
+        <v>444</v>
+      </c>
+      <c r="I56" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J56" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -3261,25 +4100,31 @@
         <v>163</v>
       </c>
       <c r="C57" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D57" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E57" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F57" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="s">
+        <v>444</v>
+      </c>
+      <c r="I57" t="s">
+        <v>451</v>
+      </c>
+      <c r="J57" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -3287,25 +4132,25 @@
         <v>164</v>
       </c>
       <c r="C58" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E58" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F58" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3313,16 +4158,16 @@
         <v>165</v>
       </c>
       <c r="C59" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D59" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E59" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F59" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
@@ -3331,7 +4176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -3339,25 +4184,28 @@
         <v>166</v>
       </c>
       <c r="C60" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D60" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E60" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F60" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+      <c r="I60" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -3365,16 +4213,16 @@
         <v>167</v>
       </c>
       <c r="C61" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D61" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E61" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F61" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
@@ -3383,7 +4231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -3391,25 +4239,28 @@
         <v>168</v>
       </c>
       <c r="C62" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D62" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E62" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F62" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="s">
+        <v>444</v>
+      </c>
+      <c r="I62" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3417,25 +4268,28 @@
         <v>169</v>
       </c>
       <c r="C63" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D63" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E63" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F63" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+      <c r="I63" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -3443,25 +4297,25 @@
         <v>170</v>
       </c>
       <c r="C64" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D64" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E64" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F64" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3469,25 +4323,25 @@
         <v>171</v>
       </c>
       <c r="C65" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D65" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E65" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F65" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3495,25 +4349,25 @@
         <v>172</v>
       </c>
       <c r="C66" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D66" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E66" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F66" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -3521,25 +4375,28 @@
         <v>173</v>
       </c>
       <c r="C67" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D67" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E67" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F67" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="s">
+        <v>444</v>
+      </c>
+      <c r="I67" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -3547,25 +4404,28 @@
         <v>174</v>
       </c>
       <c r="C68" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D68" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E68" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F68" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="s">
+        <v>444</v>
+      </c>
+      <c r="I68" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -3573,25 +4433,28 @@
         <v>175</v>
       </c>
       <c r="C69" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D69" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E69" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F69" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="s">
+        <v>444</v>
+      </c>
+      <c r="I69" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -3599,16 +4462,16 @@
         <v>176</v>
       </c>
       <c r="C70" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D70" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E70" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F70" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
@@ -3617,7 +4480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -3625,16 +4488,16 @@
         <v>177</v>
       </c>
       <c r="C71" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D71" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E71" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F71" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
@@ -3643,7 +4506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -3651,16 +4514,16 @@
         <v>178</v>
       </c>
       <c r="C72" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D72" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E72" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F72" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
@@ -3669,7 +4532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -3677,16 +4540,16 @@
         <v>179</v>
       </c>
       <c r="C73" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D73" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E73" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F73" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
@@ -3695,7 +4558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -3703,25 +4566,28 @@
         <v>180</v>
       </c>
       <c r="C74" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D74" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E74" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F74" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="s">
+        <v>444</v>
+      </c>
+      <c r="I74" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -3729,16 +4595,16 @@
         <v>181</v>
       </c>
       <c r="C75" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D75" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E75" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F75" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
@@ -3747,7 +4613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -3755,25 +4621,28 @@
         <v>182</v>
       </c>
       <c r="C76" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D76" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E76" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F76" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="s">
+        <v>444</v>
+      </c>
+      <c r="I76" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -3781,25 +4650,25 @@
         <v>183</v>
       </c>
       <c r="C77" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D77" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E77" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F77" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -3807,25 +4676,28 @@
         <v>184</v>
       </c>
       <c r="C78" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D78" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E78" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F78" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="s">
+        <v>444</v>
+      </c>
+      <c r="I78" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -3833,25 +4705,25 @@
         <v>185</v>
       </c>
       <c r="C79" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D79" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E79" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F79" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -3859,16 +4731,16 @@
         <v>186</v>
       </c>
       <c r="C80" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D80" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E80" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F80" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
@@ -3877,7 +4749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -3885,16 +4757,16 @@
         <v>187</v>
       </c>
       <c r="C81" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D81" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E81" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F81" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
@@ -3903,7 +4775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -3911,25 +4783,28 @@
         <v>188</v>
       </c>
       <c r="C82" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D82" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E82" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F82" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="s">
+        <v>444</v>
+      </c>
+      <c r="I82" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -3937,16 +4812,16 @@
         <v>189</v>
       </c>
       <c r="C83" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D83" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E83" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F83" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
@@ -3954,8 +4829,11 @@
       <c r="H83" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I83" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3963,16 +4841,16 @@
         <v>190</v>
       </c>
       <c r="C84" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D84" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E84" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F84" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
@@ -3981,7 +4859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -3989,16 +4867,16 @@
         <v>191</v>
       </c>
       <c r="C85" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D85" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E85" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F85" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
@@ -4007,7 +4885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -4015,16 +4893,16 @@
         <v>192</v>
       </c>
       <c r="C86" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D86" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E86" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F86" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
@@ -4033,7 +4911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -4041,25 +4919,25 @@
         <v>193</v>
       </c>
       <c r="C87" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D87" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E87" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F87" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -4067,25 +4945,28 @@
         <v>194</v>
       </c>
       <c r="C88" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D88" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E88" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F88" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="s">
+        <v>444</v>
+      </c>
+      <c r="I88" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -4093,16 +4974,16 @@
         <v>195</v>
       </c>
       <c r="C89" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D89" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E89" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F89" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
@@ -4111,7 +4992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -4119,16 +5000,16 @@
         <v>196</v>
       </c>
       <c r="C90" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D90" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E90" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F90" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
@@ -4137,7 +5018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -4145,25 +5026,25 @@
         <v>197</v>
       </c>
       <c r="C91" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D91" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E91" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F91" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -4171,16 +5052,16 @@
         <v>198</v>
       </c>
       <c r="C92" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D92" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E92" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F92" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
@@ -4189,7 +5070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -4197,25 +5078,28 @@
         <v>199</v>
       </c>
       <c r="C93" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D93" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E93" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F93" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="s">
+        <v>444</v>
+      </c>
+      <c r="I93" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -4223,16 +5107,16 @@
         <v>200</v>
       </c>
       <c r="C94" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D94" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E94" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F94" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
@@ -4241,7 +5125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -4249,25 +5133,28 @@
         <v>201</v>
       </c>
       <c r="C95" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D95" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E95" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F95" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="s">
+        <v>444</v>
+      </c>
+      <c r="I95" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -4275,25 +5162,28 @@
         <v>202</v>
       </c>
       <c r="C96" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D96" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E96" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F96" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+      <c r="I96" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -4301,25 +5191,25 @@
         <v>203</v>
       </c>
       <c r="C97" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D97" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E97" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F97" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -4327,25 +5217,28 @@
         <v>204</v>
       </c>
       <c r="C98" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D98" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E98" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F98" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+      <c r="I98" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -4353,25 +5246,28 @@
         <v>205</v>
       </c>
       <c r="C99" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D99" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E99" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F99" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="s">
+        <v>444</v>
+      </c>
+      <c r="I99" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -4379,25 +5275,28 @@
         <v>206</v>
       </c>
       <c r="C100" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D100" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E100" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F100" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+      <c r="I100" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -4405,16 +5304,16 @@
         <v>207</v>
       </c>
       <c r="C101" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D101" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E101" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F101" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
@@ -4424,7 +5323,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>